--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5835AC1-6FC6-44AC-86BD-7EC97C5ABE07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCDE21EE-7A8C-49AE-B7F2-DF9BE70F5292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="838">
   <si>
     <t>Komponen</t>
   </si>
@@ -3992,6 +3992,9 @@
       </rPr>
       <t xml:space="preserve"> yang merekrut SISWA berdasarkan perjanjian Kerjasama</t>
     </r>
+  </si>
+  <si>
+    <t>Persentase SMK yang SDM nya DIBERDAYAKAN oleh stakeholders dalam konteks kerjasama professional</t>
   </si>
 </sst>
 </file>
@@ -6177,7 +6180,7 @@
   <dimension ref="A1:X300"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281:XFD281"/>
+      <selection activeCell="G281" sqref="G281:G292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23867,7 +23870,7 @@
         <v>480</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="H281" s="27" t="s">
         <v>481</v>
@@ -23932,7 +23935,7 @@
         <v>480</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="H282" s="27" t="s">
         <v>481</v>
@@ -23994,7 +23997,7 @@
         <v>480</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="H283" s="27" t="s">
         <v>481</v>
@@ -24056,7 +24059,7 @@
         <v>480</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="H284" s="27" t="s">
         <v>481</v>
@@ -24121,7 +24124,7 @@
         <v>480</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="H285" s="27" t="s">
         <v>481</v>
@@ -24183,7 +24186,7 @@
         <v>480</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="H286" s="27" t="s">
         <v>481</v>
@@ -24245,7 +24248,7 @@
         <v>480</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="H287" s="27" t="s">
         <v>481</v>
@@ -24310,7 +24313,7 @@
         <v>480</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="H288" s="27" t="s">
         <v>481</v>
@@ -24372,7 +24375,7 @@
         <v>480</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="H289" s="27" t="s">
         <v>481</v>
@@ -24434,7 +24437,7 @@
         <v>480</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="H290" s="27" t="s">
         <v>481</v>
@@ -24499,7 +24502,7 @@
         <v>480</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="H291" s="27" t="s">
         <v>481</v>
@@ -24561,7 +24564,7 @@
         <v>480</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="H292" s="27" t="s">
         <v>481</v>

--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCDE21EE-7A8C-49AE-B7F2-DF9BE70F5292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4298945F-0AE5-46CB-AB28-9387900E65A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="836">
   <si>
     <t>Komponen</t>
   </si>
@@ -2741,12 +2741,6 @@
   </si>
   <si>
     <t>Jumlah RUANG PRAKTIK ATAU BENGKEL ATAU LABORATORIUM yang dimiliki Sekolah</t>
-  </si>
-  <si>
-    <t>Sesuai</t>
-  </si>
-  <si>
-    <t>Tidak sesuai</t>
   </si>
   <si>
     <t xml:space="preserve">Jumlah LAYOUT RUANGAN ATAU BENGKEL ATAU LABORATORIUM sesuai STANDAR DUDIKA </t>
@@ -4543,7 +4537,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5117,10 +5131,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5128,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5136,7 +5150,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5144,7 +5158,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5152,7 +5166,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5160,7 +5174,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5168,7 +5182,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5176,7 +5190,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5184,7 +5198,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -5213,25 +5227,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="20" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>798</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>799</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>800</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>801</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -5239,22 +5253,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>782</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>789</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>731</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="G2" s="44" t="s">
         <v>732</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>784</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>791</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>733</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -5262,22 +5276,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -5285,22 +5299,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -5308,22 +5322,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5331,22 +5345,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5354,22 +5368,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5377,22 +5391,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5400,22 +5414,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5423,22 +5437,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5446,22 +5460,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5469,22 +5483,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5492,22 +5506,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="41" t="s">
+        <v>751</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>752</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>785</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>792</v>
+      </c>
+      <c r="F13" s="52" t="s">
         <v>753</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="G13" s="51" t="s">
         <v>754</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>787</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>794</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>755</v>
-      </c>
-      <c r="G13" s="51" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5515,22 +5529,22 @@
         <v>2</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F14" s="54" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5538,22 +5552,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5561,22 +5575,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -5584,22 +5598,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F17" s="58" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -5607,22 +5621,22 @@
         <v>2</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F18" s="58" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -5630,22 +5644,22 @@
         <v>3</v>
       </c>
       <c r="B19" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>788</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>795</v>
+      </c>
+      <c r="F19" s="51" t="s">
         <v>767</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="G19" s="50" t="s">
         <v>768</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>790</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>797</v>
-      </c>
-      <c r="F19" s="51" t="s">
-        <v>769</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5653,22 +5667,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>788</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>795</v>
+      </c>
+      <c r="F20" s="51" t="s">
         <v>767</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>768</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>790</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>797</v>
-      </c>
-      <c r="F20" s="51" t="s">
+      <c r="G20" s="50" t="s">
         <v>769</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -5676,22 +5690,22 @@
         <v>3</v>
       </c>
       <c r="B21" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>788</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>795</v>
+      </c>
+      <c r="F21" s="51" t="s">
         <v>767</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>768</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>790</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>797</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>769</v>
-      </c>
       <c r="G21" s="50" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5699,22 +5713,22 @@
         <v>3</v>
       </c>
       <c r="B22" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>788</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>795</v>
+      </c>
+      <c r="F22" s="51" t="s">
         <v>767</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>768</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>790</v>
-      </c>
-      <c r="E22" s="60" t="s">
-        <v>797</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>769</v>
-      </c>
       <c r="G22" s="50" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5722,22 +5736,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>788</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>795</v>
+      </c>
+      <c r="F23" s="51" t="s">
         <v>767</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>768</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>790</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>797</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>769</v>
-      </c>
       <c r="G23" s="50" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5745,22 +5759,22 @@
         <v>3</v>
       </c>
       <c r="B24" s="41" t="s">
+        <v>765</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>788</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>795</v>
+      </c>
+      <c r="F24" s="51" t="s">
         <v>767</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>768</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>790</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>797</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>769</v>
-      </c>
       <c r="G24" s="50" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -5784,10 +5798,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -5795,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5803,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -5811,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5819,7 +5833,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -5827,7 +5841,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -5835,7 +5849,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -5843,7 +5857,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5851,15 +5865,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -6062,13 +6076,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1" t="s">
         <v>811</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>725</v>
-      </c>
-      <c r="C1" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6076,10 +6090,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -6087,10 +6101,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -6098,10 +6112,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -6109,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="39" t="s">
+        <v>714</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>716</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6120,10 +6134,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6131,10 +6145,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
+        <v>717</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>719</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -6142,10 +6156,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6153,10 +6167,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6164,10 +6178,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -6177,10 +6191,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F424C2D-EB2F-46EA-AF4D-2212F3580F39}">
-  <dimension ref="A1:X300"/>
+  <dimension ref="A1:X298"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G281" sqref="G281:G292"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6212,7 +6226,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -6221,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -6233,19 +6247,19 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="15" t="s">
         <v>808</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>810</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -6272,16 +6286,16 @@
         <v>513</v>
       </c>
       <c r="U1" s="32" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="V1" s="30" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6422,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>517</v>
@@ -6484,7 +6498,7 @@
         <v>2</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>517</v>
@@ -6546,7 +6560,7 @@
         <v>3</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>517</v>
@@ -6608,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>517</v>
@@ -6670,7 +6684,7 @@
         <v>2</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>517</v>
@@ -6732,7 +6746,7 @@
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>517</v>
@@ -6794,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>517</v>
@@ -6856,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>517</v>
@@ -6918,7 +6932,7 @@
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>517</v>
@@ -7228,13 +7242,13 @@
         <v>1</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>517</v>
       </c>
       <c r="V17" s="30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="X17" s="1">
         <v>5</v>
@@ -7296,7 +7310,7 @@
         <v>2</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>517</v>
@@ -7358,7 +7372,7 @@
         <v>3</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>517</v>
@@ -7420,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>517</v>
@@ -7429,7 +7443,7 @@
         <v>4</v>
       </c>
       <c r="V20" s="30" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="11" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7488,7 +7502,7 @@
         <v>2</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>517</v>
@@ -7553,8 +7567,8 @@
       <c r="R22" s="11">
         <v>3</v>
       </c>
-      <c r="S22" s="11" t="s">
-        <v>519</v>
+      <c r="S22" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="T22" s="11" t="s">
         <v>517</v>
@@ -7616,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>517</v>
@@ -7681,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>517</v>
@@ -7743,7 +7757,7 @@
         <v>3</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>517</v>
@@ -7805,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>517</v>
@@ -7876,7 +7890,7 @@
         <v>2</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>517</v>
@@ -7938,7 +7952,7 @@
         <v>3</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>517</v>
@@ -8000,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>517</v>
@@ -8065,7 +8079,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>517</v>
@@ -8127,7 +8141,7 @@
         <v>3</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>517</v>
@@ -8189,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>517</v>
@@ -8251,7 +8265,7 @@
         <v>2</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>517</v>
@@ -8313,7 +8327,7 @@
         <v>3</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>517</v>
@@ -8487,7 +8501,7 @@
         <v>517</v>
       </c>
       <c r="V37" s="30" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="X37" s="1">
         <v>5</v>
@@ -8874,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>517</v>
@@ -8939,7 +8953,7 @@
         <v>2</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>517</v>
@@ -9001,7 +9015,7 @@
         <v>3</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>517</v>
@@ -9063,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>517</v>
@@ -9128,7 +9142,7 @@
         <v>2</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>517</v>
@@ -9190,7 +9204,7 @@
         <v>3</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>517</v>
@@ -9252,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>517</v>
@@ -9317,7 +9331,7 @@
         <v>2</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>517</v>
@@ -9379,7 +9393,7 @@
         <v>3</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>517</v>
@@ -9441,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>517</v>
@@ -9506,7 +9520,7 @@
         <v>2</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>517</v>
@@ -9568,7 +9582,7 @@
         <v>3</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>517</v>
@@ -9630,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>517</v>
@@ -9695,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>517</v>
@@ -9757,7 +9771,7 @@
         <v>3</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>517</v>
@@ -9884,7 +9898,7 @@
         <v>2</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="R59" s="3">
         <v>1</v>
@@ -10179,7 +10193,7 @@
         <v>461</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="X64" s="1">
         <v>8</v>
@@ -10223,7 +10237,7 @@
         <v>476</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N65" s="3">
         <v>1</v>
@@ -10241,7 +10255,7 @@
         <v>1</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>517</v>
@@ -10288,7 +10302,7 @@
         <v>476</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N66" s="3">
         <v>1</v>
@@ -10306,7 +10320,7 @@
         <v>2</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>517</v>
@@ -10350,7 +10364,7 @@
         <v>476</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N67" s="3">
         <v>1</v>
@@ -10368,7 +10382,7 @@
         <v>3</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>517</v>
@@ -10412,7 +10426,7 @@
         <v>476</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N68" s="3">
         <v>1</v>
@@ -10424,13 +10438,13 @@
         <v>2</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="R68" s="3">
         <v>1</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>517</v>
@@ -10477,7 +10491,7 @@
         <v>476</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N69" s="3">
         <v>1</v>
@@ -10489,13 +10503,13 @@
         <v>2</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="R69" s="3">
         <v>2</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>517</v>
@@ -10539,7 +10553,7 @@
         <v>476</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N70" s="3">
         <v>1</v>
@@ -10551,13 +10565,13 @@
         <v>2</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="R70" s="3">
         <v>3</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>517</v>
@@ -10601,7 +10615,7 @@
         <v>476</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N71" s="3">
         <v>1</v>
@@ -10613,13 +10627,13 @@
         <v>3</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="R71" s="3">
         <v>1</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>517</v>
@@ -10666,7 +10680,7 @@
         <v>476</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N72" s="3">
         <v>1</v>
@@ -10678,13 +10692,13 @@
         <v>3</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="R72" s="3">
         <v>2</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>517</v>
@@ -10728,7 +10742,7 @@
         <v>476</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N73" s="3">
         <v>1</v>
@@ -10740,13 +10754,13 @@
         <v>3</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="R73" s="3">
         <v>3</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>517</v>
@@ -10790,7 +10804,7 @@
         <v>476</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N74" s="3">
         <v>1</v>
@@ -10802,13 +10816,13 @@
         <v>4</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="R74" s="3">
         <v>1</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>517</v>
@@ -10855,7 +10869,7 @@
         <v>476</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N75" s="3">
         <v>1</v>
@@ -10867,13 +10881,13 @@
         <v>4</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="R75" s="3">
         <v>2</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>517</v>
@@ -10917,7 +10931,7 @@
         <v>476</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N76" s="3">
         <v>1</v>
@@ -10929,13 +10943,13 @@
         <v>4</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="R76" s="3">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>517</v>
@@ -10979,7 +10993,7 @@
         <v>476</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N77" s="3">
         <v>1</v>
@@ -10991,13 +11005,13 @@
         <v>5</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="R77" s="3">
         <v>1</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T77" s="3" t="s">
         <v>517</v>
@@ -11044,7 +11058,7 @@
         <v>476</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N78" s="3">
         <v>1</v>
@@ -11056,13 +11070,13 @@
         <v>5</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="R78" s="3">
         <v>2</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>517</v>
@@ -11106,7 +11120,7 @@
         <v>476</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N79" s="3">
         <v>1</v>
@@ -11118,13 +11132,13 @@
         <v>5</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="R79" s="3">
         <v>3</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>558</v>
+        <v>516</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>517</v>
@@ -11256,13 +11270,13 @@
         <v>1</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="P82" s="3">
         <v>1</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="R82" s="3">
         <v>1</v>
@@ -11318,13 +11332,13 @@
         <v>1</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P83" s="3">
         <v>1</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="R83" s="3">
         <v>2</v>
@@ -11383,13 +11397,13 @@
         <v>1</v>
       </c>
       <c r="O84" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="P84" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q84" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="P84" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q84" s="3" t="s">
-        <v>567</v>
       </c>
       <c r="R84" s="3">
         <v>1</v>
@@ -11448,13 +11462,13 @@
         <v>1</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P85" s="3">
         <v>3</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="R85" s="3">
         <v>1</v>
@@ -11513,13 +11527,13 @@
         <v>1</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P86" s="3">
         <v>4</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="R86" s="3">
         <v>1</v>
@@ -11578,13 +11592,13 @@
         <v>1</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P87" s="3">
         <v>5</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="R87" s="3">
         <v>1</v>
@@ -11681,19 +11695,19 @@
         <v>107</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="N89" s="3">
         <v>1</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="P89" s="3">
         <v>1</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="R89" s="3">
         <v>1</v>
@@ -11843,13 +11857,13 @@
         <v>1</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P92" s="3">
         <v>1</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R92" s="3">
         <v>1</v>
@@ -11908,13 +11922,13 @@
         <v>1</v>
       </c>
       <c r="O93" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="P93" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q93" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="P93" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q93" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="R93" s="3">
         <v>1</v>
@@ -11973,13 +11987,13 @@
         <v>1</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="P94" s="3">
         <v>1</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="R94" s="3">
         <v>1</v>
@@ -12038,13 +12052,13 @@
         <v>1</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="P95" s="3">
         <v>2</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R95" s="3">
         <v>1</v>
@@ -12103,13 +12117,13 @@
         <v>1</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="P96" s="3">
         <v>3</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="R96" s="3">
         <v>1</v>
@@ -12168,13 +12182,13 @@
         <v>1</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="P97" s="3">
         <v>1</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="R97" s="3">
         <v>1</v>
@@ -12186,7 +12200,7 @@
         <v>517</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -12233,13 +12247,13 @@
         <v>1</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="P98" s="3">
         <v>2</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="R98" s="3">
         <v>1</v>
@@ -12251,7 +12265,7 @@
         <v>517</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -12298,13 +12312,13 @@
         <v>1</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P99" s="3">
         <v>1</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="R99" s="3">
         <v>1</v>
@@ -12363,13 +12377,13 @@
         <v>1</v>
       </c>
       <c r="O100" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="P100" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q100" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="P100" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="R100" s="3">
         <v>1</v>
@@ -12428,13 +12442,13 @@
         <v>1</v>
       </c>
       <c r="O101" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P101" s="3">
         <v>3</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="R101" s="3">
         <v>1</v>
@@ -12493,13 +12507,13 @@
         <v>1</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="P102" s="3">
         <v>1</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="R102" s="3">
         <v>1</v>
@@ -12564,13 +12578,13 @@
         <v>1</v>
       </c>
       <c r="O103" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="P103" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q103" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="P103" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q103" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="R103" s="3">
         <v>1</v>
@@ -12632,13 +12646,13 @@
         <v>1</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="P104" s="3">
         <v>3</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="R104" s="3">
         <v>1</v>
@@ -12700,19 +12714,19 @@
         <v>1</v>
       </c>
       <c r="O105" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="P105" s="3">
         <v>1</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="R105" s="3">
         <v>1</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T105" s="3" t="s">
         <v>517</v>
@@ -12768,19 +12782,19 @@
         <v>1</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="P106" s="3">
         <v>1</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="R106" s="3">
         <v>2</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T106" s="3" t="s">
         <v>517</v>
@@ -12830,19 +12844,19 @@
         <v>1</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="P107" s="3">
         <v>1</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="R107" s="3">
         <v>3</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T107" s="3" t="s">
         <v>517</v>
@@ -12892,19 +12906,19 @@
         <v>1</v>
       </c>
       <c r="O108" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="P108" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q108" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="P108" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q108" s="3" t="s">
-        <v>591</v>
-      </c>
       <c r="R108" s="3">
         <v>1</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T108" s="3" t="s">
         <v>517</v>
@@ -12960,19 +12974,19 @@
         <v>1</v>
       </c>
       <c r="O109" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="P109" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q109" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="P109" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q109" s="3" t="s">
-        <v>591</v>
-      </c>
       <c r="R109" s="3">
         <v>2</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T109" s="3" t="s">
         <v>517</v>
@@ -13022,19 +13036,19 @@
         <v>1</v>
       </c>
       <c r="O110" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="P110" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q110" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="P110" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q110" s="3" t="s">
-        <v>591</v>
       </c>
       <c r="R110" s="3">
         <v>3</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T110" s="3" t="s">
         <v>517</v>
@@ -13084,19 +13098,19 @@
         <v>2</v>
       </c>
       <c r="O111" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P111" s="3">
         <v>1</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="R111" s="3">
         <v>1</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T111" s="3" t="s">
         <v>517</v>
@@ -13152,19 +13166,19 @@
         <v>2</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P112" s="3">
         <v>1</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="R112" s="3">
         <v>2</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T112" s="3" t="s">
         <v>517</v>
@@ -13214,19 +13228,19 @@
         <v>2</v>
       </c>
       <c r="O113" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P113" s="3">
         <v>1</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="R113" s="3">
         <v>3</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T113" s="3" t="s">
         <v>517</v>
@@ -13276,19 +13290,19 @@
         <v>2</v>
       </c>
       <c r="O114" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="P114" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q114" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="P114" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q114" s="3" t="s">
-        <v>594</v>
-      </c>
       <c r="R114" s="3">
         <v>1</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T114" s="3" t="s">
         <v>517</v>
@@ -13344,19 +13358,19 @@
         <v>2</v>
       </c>
       <c r="O115" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="P115" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q115" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="P115" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q115" s="3" t="s">
-        <v>594</v>
-      </c>
       <c r="R115" s="3">
         <v>2</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T115" s="3" t="s">
         <v>517</v>
@@ -13406,19 +13420,19 @@
         <v>2</v>
       </c>
       <c r="O116" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="P116" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q116" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="P116" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q116" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="R116" s="3">
         <v>3</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T116" s="3" t="s">
         <v>517</v>
@@ -13468,19 +13482,19 @@
         <v>2</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P117" s="3">
         <v>3</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R117" s="3">
         <v>1</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T117" s="3" t="s">
         <v>517</v>
@@ -13533,19 +13547,19 @@
         <v>2</v>
       </c>
       <c r="O118" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P118" s="3">
         <v>3</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R118" s="3">
         <v>2</v>
       </c>
       <c r="S118" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T118" s="3" t="s">
         <v>517</v>
@@ -13595,19 +13609,19 @@
         <v>2</v>
       </c>
       <c r="O119" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P119" s="3">
         <v>3</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R119" s="3">
         <v>3</v>
       </c>
       <c r="S119" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T119" s="3" t="s">
         <v>517</v>
@@ -13657,19 +13671,19 @@
         <v>3</v>
       </c>
       <c r="O120" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P120" s="3">
         <v>1</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="R120" s="3">
         <v>1</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T120" s="3" t="s">
         <v>517</v>
@@ -13722,19 +13736,19 @@
         <v>3</v>
       </c>
       <c r="O121" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P121" s="3">
         <v>1</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="R121" s="3">
         <v>2</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T121" s="3" t="s">
         <v>517</v>
@@ -13784,19 +13798,19 @@
         <v>3</v>
       </c>
       <c r="O122" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P122" s="3">
         <v>1</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="R122" s="3">
         <v>3</v>
       </c>
       <c r="S122" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T122" s="3" t="s">
         <v>517</v>
@@ -13846,19 +13860,19 @@
         <v>3</v>
       </c>
       <c r="O123" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="P123" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q123" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="P123" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q123" s="3" t="s">
-        <v>598</v>
-      </c>
       <c r="R123" s="3">
         <v>1</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T123" s="3" t="s">
         <v>517</v>
@@ -13911,19 +13925,19 @@
         <v>3</v>
       </c>
       <c r="O124" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="P124" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q124" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="P124" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q124" s="3" t="s">
-        <v>598</v>
-      </c>
       <c r="R124" s="3">
         <v>2</v>
       </c>
       <c r="S124" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T124" s="3" t="s">
         <v>517</v>
@@ -13973,19 +13987,19 @@
         <v>3</v>
       </c>
       <c r="O125" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="P125" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q125" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="P125" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q125" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="R125" s="3">
         <v>3</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T125" s="3" t="s">
         <v>517</v>
@@ -14035,19 +14049,19 @@
         <v>3</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P126" s="3">
         <v>3</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="R126" s="3">
         <v>1</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T126" s="3" t="s">
         <v>517</v>
@@ -14100,19 +14114,19 @@
         <v>3</v>
       </c>
       <c r="O127" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P127" s="3">
         <v>3</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="R127" s="3">
         <v>2</v>
       </c>
       <c r="S127" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T127" s="3" t="s">
         <v>517</v>
@@ -14162,19 +14176,19 @@
         <v>3</v>
       </c>
       <c r="O128" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="P128" s="3">
         <v>3</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="R128" s="3">
         <v>3</v>
       </c>
       <c r="S128" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T128" s="3" t="s">
         <v>517</v>
@@ -14224,19 +14238,19 @@
         <v>4</v>
       </c>
       <c r="O129" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="P129" s="3">
         <v>1</v>
       </c>
       <c r="Q129" s="61" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="R129" s="3">
         <v>1</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T129" s="3" t="s">
         <v>517</v>
@@ -14289,19 +14303,19 @@
         <v>4</v>
       </c>
       <c r="O130" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="P130" s="3">
         <v>1</v>
       </c>
       <c r="Q130" s="61" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="R130" s="3">
         <v>2</v>
       </c>
       <c r="S130" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T130" s="3" t="s">
         <v>517</v>
@@ -14351,19 +14365,19 @@
         <v>4</v>
       </c>
       <c r="O131" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="P131" s="3">
         <v>1</v>
       </c>
       <c r="Q131" s="61" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="R131" s="3">
         <v>3</v>
       </c>
       <c r="S131" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T131" s="3" t="s">
         <v>517</v>
@@ -14413,19 +14427,19 @@
         <v>4</v>
       </c>
       <c r="O132" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="P132" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q132" s="61" t="s">
         <v>816</v>
       </c>
-      <c r="P132" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q132" s="61" t="s">
-        <v>818</v>
-      </c>
       <c r="R132" s="3">
         <v>1</v>
       </c>
       <c r="S132" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T132" s="3" t="s">
         <v>517</v>
@@ -14478,19 +14492,19 @@
         <v>4</v>
       </c>
       <c r="O133" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="P133" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q133" s="61" t="s">
         <v>816</v>
       </c>
-      <c r="P133" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q133" s="61" t="s">
-        <v>818</v>
-      </c>
       <c r="R133" s="3">
         <v>2</v>
       </c>
       <c r="S133" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T133" s="3" t="s">
         <v>517</v>
@@ -14540,19 +14554,19 @@
         <v>4</v>
       </c>
       <c r="O134" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="P134" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q134" s="61" t="s">
         <v>816</v>
-      </c>
-      <c r="P134" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q134" s="61" t="s">
-        <v>818</v>
       </c>
       <c r="R134" s="3">
         <v>3</v>
       </c>
       <c r="S134" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T134" s="3" t="s">
         <v>517</v>
@@ -14602,19 +14616,19 @@
         <v>1</v>
       </c>
       <c r="O135" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="P135" s="3">
         <v>1</v>
       </c>
       <c r="Q135" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="R135" s="3">
         <v>1</v>
       </c>
       <c r="S135" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T135" s="3" t="s">
         <v>517</v>
@@ -14670,19 +14684,19 @@
         <v>1</v>
       </c>
       <c r="O136" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="P136" s="3">
         <v>1</v>
       </c>
       <c r="Q136" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="R136" s="3">
         <v>2</v>
       </c>
       <c r="S136" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T136" s="3" t="s">
         <v>517</v>
@@ -14732,19 +14746,19 @@
         <v>1</v>
       </c>
       <c r="O137" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="P137" s="3">
         <v>1</v>
       </c>
       <c r="Q137" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="R137" s="3">
         <v>3</v>
       </c>
       <c r="S137" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T137" s="3" t="s">
         <v>517</v>
@@ -14794,19 +14808,19 @@
         <v>1</v>
       </c>
       <c r="O138" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="P138" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q138" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="P138" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q138" s="3" t="s">
-        <v>602</v>
-      </c>
       <c r="R138" s="3">
         <v>1</v>
       </c>
       <c r="S138" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T138" s="3" t="s">
         <v>517</v>
@@ -14862,19 +14876,19 @@
         <v>1</v>
       </c>
       <c r="O139" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="P139" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q139" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="P139" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q139" s="3" t="s">
-        <v>602</v>
-      </c>
       <c r="R139" s="3">
         <v>2</v>
       </c>
       <c r="S139" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T139" s="3" t="s">
         <v>517</v>
@@ -14924,19 +14938,19 @@
         <v>1</v>
       </c>
       <c r="O140" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="P140" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q140" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="P140" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q140" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="R140" s="3">
         <v>3</v>
       </c>
       <c r="S140" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T140" s="3" t="s">
         <v>517</v>
@@ -14986,19 +15000,19 @@
         <v>2</v>
       </c>
       <c r="O141" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P141" s="3">
         <v>1</v>
       </c>
       <c r="Q141" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="R141" s="3">
         <v>1</v>
       </c>
       <c r="S141" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T141" s="3" t="s">
         <v>517</v>
@@ -15054,19 +15068,19 @@
         <v>2</v>
       </c>
       <c r="O142" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P142" s="3">
         <v>1</v>
       </c>
       <c r="Q142" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="R142" s="3">
         <v>2</v>
       </c>
       <c r="S142" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T142" s="3" t="s">
         <v>517</v>
@@ -15116,19 +15130,19 @@
         <v>2</v>
       </c>
       <c r="O143" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P143" s="3">
         <v>1</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="R143" s="3">
         <v>3</v>
       </c>
       <c r="S143" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T143" s="3" t="s">
         <v>517</v>
@@ -15178,19 +15192,19 @@
         <v>2</v>
       </c>
       <c r="O144" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="P144" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q144" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="P144" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q144" s="3" t="s">
-        <v>605</v>
-      </c>
       <c r="R144" s="3">
         <v>1</v>
       </c>
       <c r="S144" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T144" s="3" t="s">
         <v>517</v>
@@ -15246,19 +15260,19 @@
         <v>2</v>
       </c>
       <c r="O145" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="P145" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q145" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="P145" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q145" s="3" t="s">
-        <v>605</v>
-      </c>
       <c r="R145" s="3">
         <v>2</v>
       </c>
       <c r="S145" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T145" s="3" t="s">
         <v>517</v>
@@ -15308,19 +15322,19 @@
         <v>2</v>
       </c>
       <c r="O146" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="P146" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q146" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="P146" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q146" s="3" t="s">
-        <v>605</v>
       </c>
       <c r="R146" s="3">
         <v>3</v>
       </c>
       <c r="S146" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T146" s="3" t="s">
         <v>517</v>
@@ -15370,19 +15384,19 @@
         <v>3</v>
       </c>
       <c r="O147" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="P147" s="3">
         <v>1</v>
       </c>
       <c r="Q147" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="R147" s="3">
         <v>1</v>
       </c>
       <c r="S147" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T147" s="3" t="s">
         <v>517</v>
@@ -15438,19 +15452,19 @@
         <v>3</v>
       </c>
       <c r="O148" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="P148" s="3">
         <v>1</v>
       </c>
       <c r="Q148" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="R148" s="3">
         <v>2</v>
       </c>
       <c r="S148" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T148" s="3" t="s">
         <v>517</v>
@@ -15500,19 +15514,19 @@
         <v>3</v>
       </c>
       <c r="O149" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="P149" s="3">
         <v>1</v>
       </c>
       <c r="Q149" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="R149" s="3">
         <v>3</v>
       </c>
       <c r="S149" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T149" s="3" t="s">
         <v>517</v>
@@ -15562,19 +15576,19 @@
         <v>3</v>
       </c>
       <c r="O150" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="P150" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q150" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="P150" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q150" s="3" t="s">
-        <v>608</v>
-      </c>
       <c r="R150" s="3">
         <v>1</v>
       </c>
       <c r="S150" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T150" s="3" t="s">
         <v>517</v>
@@ -15630,19 +15644,19 @@
         <v>3</v>
       </c>
       <c r="O151" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="P151" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q151" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="P151" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q151" s="3" t="s">
-        <v>608</v>
-      </c>
       <c r="R151" s="3">
         <v>2</v>
       </c>
       <c r="S151" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T151" s="3" t="s">
         <v>517</v>
@@ -15692,19 +15706,19 @@
         <v>3</v>
       </c>
       <c r="O152" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="P152" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q152" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="P152" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q152" s="3" t="s">
-        <v>608</v>
       </c>
       <c r="R152" s="3">
         <v>3</v>
       </c>
       <c r="S152" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T152" s="3" t="s">
         <v>517</v>
@@ -15754,19 +15768,19 @@
         <v>4</v>
       </c>
       <c r="O153" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="P153" s="3">
         <v>1</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="R153" s="3">
         <v>1</v>
       </c>
       <c r="S153" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T153" s="3" t="s">
         <v>517</v>
@@ -15822,19 +15836,19 @@
         <v>4</v>
       </c>
       <c r="O154" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="P154" s="3">
         <v>1</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="R154" s="3">
         <v>2</v>
       </c>
       <c r="S154" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T154" s="3" t="s">
         <v>517</v>
@@ -15884,19 +15898,19 @@
         <v>4</v>
       </c>
       <c r="O155" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="P155" s="3">
         <v>1</v>
       </c>
       <c r="Q155" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="R155" s="3">
         <v>3</v>
       </c>
       <c r="S155" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T155" s="3" t="s">
         <v>517</v>
@@ -15946,19 +15960,19 @@
         <v>4</v>
       </c>
       <c r="O156" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="P156" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q156" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="P156" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q156" s="3" t="s">
-        <v>611</v>
-      </c>
       <c r="R156" s="3">
         <v>1</v>
       </c>
       <c r="S156" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T156" s="3" t="s">
         <v>517</v>
@@ -16014,19 +16028,19 @@
         <v>4</v>
       </c>
       <c r="O157" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="P157" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q157" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="P157" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q157" s="3" t="s">
-        <v>611</v>
-      </c>
       <c r="R157" s="3">
         <v>2</v>
       </c>
       <c r="S157" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T157" s="3" t="s">
         <v>517</v>
@@ -16076,19 +16090,19 @@
         <v>4</v>
       </c>
       <c r="O158" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="P158" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q158" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="P158" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q158" s="3" t="s">
-        <v>611</v>
       </c>
       <c r="R158" s="3">
         <v>3</v>
       </c>
       <c r="S158" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T158" s="3" t="s">
         <v>517</v>
@@ -16138,19 +16152,19 @@
         <v>5</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="P159" s="3">
         <v>1</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R159" s="3">
         <v>1</v>
       </c>
       <c r="S159" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T159" s="3" t="s">
         <v>517</v>
@@ -16209,19 +16223,19 @@
         <v>5</v>
       </c>
       <c r="O160" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="P160" s="3">
         <v>1</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R160" s="3">
         <v>2</v>
       </c>
       <c r="S160" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T160" s="3" t="s">
         <v>517</v>
@@ -16271,19 +16285,19 @@
         <v>5</v>
       </c>
       <c r="O161" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="P161" s="3">
         <v>1</v>
       </c>
       <c r="Q161" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R161" s="3">
         <v>3</v>
       </c>
       <c r="S161" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T161" s="3" t="s">
         <v>517</v>
@@ -16333,19 +16347,19 @@
         <v>5</v>
       </c>
       <c r="O162" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="P162" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q162" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="P162" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q162" s="3" t="s">
-        <v>614</v>
-      </c>
       <c r="R162" s="3">
         <v>1</v>
       </c>
       <c r="S162" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T162" s="3" t="s">
         <v>517</v>
@@ -16398,19 +16412,19 @@
         <v>5</v>
       </c>
       <c r="O163" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="P163" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q163" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="P163" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q163" s="3" t="s">
-        <v>614</v>
-      </c>
       <c r="R163" s="3">
         <v>2</v>
       </c>
       <c r="S163" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T163" s="3" t="s">
         <v>517</v>
@@ -16460,19 +16474,19 @@
         <v>5</v>
       </c>
       <c r="O164" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="P164" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q164" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="P164" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q164" s="3" t="s">
-        <v>614</v>
       </c>
       <c r="R164" s="3">
         <v>3</v>
       </c>
       <c r="S164" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T164" s="3" t="s">
         <v>517</v>
@@ -16522,19 +16536,19 @@
         <v>6</v>
       </c>
       <c r="O165" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="P165" s="3">
         <v>1</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R165" s="3">
         <v>1</v>
       </c>
       <c r="S165" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T165" s="3" t="s">
         <v>517</v>
@@ -16593,19 +16607,19 @@
         <v>6</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="P166" s="3">
         <v>1</v>
       </c>
       <c r="Q166" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R166" s="3">
         <v>2</v>
       </c>
       <c r="S166" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T166" s="3" t="s">
         <v>517</v>
@@ -16655,19 +16669,19 @@
         <v>6</v>
       </c>
       <c r="O167" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="P167" s="3">
         <v>1</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="R167" s="3">
         <v>3</v>
       </c>
       <c r="S167" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T167" s="3" t="s">
         <v>517</v>
@@ -16717,19 +16731,19 @@
         <v>6</v>
       </c>
       <c r="O168" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="P168" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q168" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="P168" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q168" s="3" t="s">
-        <v>617</v>
-      </c>
       <c r="R168" s="3">
         <v>1</v>
       </c>
       <c r="S168" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T168" s="3" t="s">
         <v>517</v>
@@ -16782,19 +16796,19 @@
         <v>6</v>
       </c>
       <c r="O169" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="P169" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q169" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="P169" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q169" s="3" t="s">
-        <v>617</v>
-      </c>
       <c r="R169" s="3">
         <v>2</v>
       </c>
       <c r="S169" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T169" s="3" t="s">
         <v>517</v>
@@ -16844,19 +16858,19 @@
         <v>6</v>
       </c>
       <c r="O170" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="P170" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q170" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="P170" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q170" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="R170" s="3">
         <v>3</v>
       </c>
       <c r="S170" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T170" s="3" t="s">
         <v>517</v>
@@ -16906,19 +16920,19 @@
         <v>7</v>
       </c>
       <c r="O171" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="P171" s="3">
         <v>1</v>
       </c>
       <c r="Q171" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="R171" s="3">
         <v>1</v>
       </c>
       <c r="S171" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T171" s="3" t="s">
         <v>517</v>
@@ -16974,19 +16988,19 @@
         <v>7</v>
       </c>
       <c r="O172" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="P172" s="3">
         <v>1</v>
       </c>
       <c r="Q172" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="R172" s="3">
         <v>2</v>
       </c>
       <c r="S172" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T172" s="3" t="s">
         <v>517</v>
@@ -17036,19 +17050,19 @@
         <v>7</v>
       </c>
       <c r="O173" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="P173" s="3">
         <v>1</v>
       </c>
       <c r="Q173" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="R173" s="3">
         <v>3</v>
       </c>
       <c r="S173" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T173" s="3" t="s">
         <v>517</v>
@@ -17098,19 +17112,19 @@
         <v>7</v>
       </c>
       <c r="O174" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="P174" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q174" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="P174" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q174" s="3" t="s">
-        <v>620</v>
-      </c>
       <c r="R174" s="3">
         <v>1</v>
       </c>
       <c r="S174" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T174" s="3" t="s">
         <v>517</v>
@@ -17166,19 +17180,19 @@
         <v>7</v>
       </c>
       <c r="O175" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="P175" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q175" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="P175" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q175" s="3" t="s">
-        <v>620</v>
-      </c>
       <c r="R175" s="3">
         <v>2</v>
       </c>
       <c r="S175" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T175" s="3" t="s">
         <v>517</v>
@@ -17228,19 +17242,19 @@
         <v>7</v>
       </c>
       <c r="O176" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="P176" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q176" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="P176" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q176" s="3" t="s">
-        <v>620</v>
       </c>
       <c r="R176" s="3">
         <v>3</v>
       </c>
       <c r="S176" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T176" s="3" t="s">
         <v>517</v>
@@ -17290,19 +17304,19 @@
         <v>1</v>
       </c>
       <c r="O177" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P177" s="3">
         <v>1</v>
       </c>
       <c r="Q177" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="R177" s="3">
         <v>1</v>
       </c>
       <c r="S177" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T177" s="3" t="s">
         <v>517</v>
@@ -17355,19 +17369,19 @@
         <v>1</v>
       </c>
       <c r="O178" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P178" s="3">
         <v>1</v>
       </c>
       <c r="Q178" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="R178" s="3">
         <v>2</v>
       </c>
       <c r="S178" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T178" s="3" t="s">
         <v>517</v>
@@ -17417,19 +17431,19 @@
         <v>1</v>
       </c>
       <c r="O179" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P179" s="3">
         <v>1</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="R179" s="3">
         <v>3</v>
       </c>
       <c r="S179" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T179" s="3" t="s">
         <v>517</v>
@@ -17479,19 +17493,19 @@
         <v>1</v>
       </c>
       <c r="O180" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="P180" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q180" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="P180" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q180" s="3" t="s">
-        <v>623</v>
-      </c>
       <c r="R180" s="3">
         <v>1</v>
       </c>
       <c r="S180" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T180" s="3" t="s">
         <v>517</v>
@@ -17544,19 +17558,19 @@
         <v>1</v>
       </c>
       <c r="O181" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="P181" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q181" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="P181" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q181" s="3" t="s">
-        <v>623</v>
-      </c>
       <c r="R181" s="3">
         <v>2</v>
       </c>
       <c r="S181" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T181" s="3" t="s">
         <v>517</v>
@@ -17606,19 +17620,19 @@
         <v>1</v>
       </c>
       <c r="O182" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="P182" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q182" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="P182" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q182" s="3" t="s">
-        <v>623</v>
       </c>
       <c r="R182" s="3">
         <v>3</v>
       </c>
       <c r="S182" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T182" s="3" t="s">
         <v>517</v>
@@ -17668,19 +17682,19 @@
         <v>1</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P183" s="3">
         <v>3</v>
       </c>
       <c r="Q183" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="R183" s="3">
         <v>1</v>
       </c>
       <c r="S183" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T183" s="3" t="s">
         <v>517</v>
@@ -17733,19 +17747,19 @@
         <v>1</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P184" s="3">
         <v>3</v>
       </c>
       <c r="Q184" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="R184" s="3">
         <v>2</v>
       </c>
       <c r="S184" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T184" s="3" t="s">
         <v>517</v>
@@ -17795,19 +17809,19 @@
         <v>1</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P185" s="3">
         <v>3</v>
       </c>
       <c r="Q185" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="R185" s="3">
         <v>3</v>
       </c>
       <c r="S185" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T185" s="3" t="s">
         <v>517</v>
@@ -17857,19 +17871,19 @@
         <v>1</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P186" s="3">
         <v>4</v>
       </c>
       <c r="Q186" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="R186" s="3">
         <v>1</v>
       </c>
       <c r="S186" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T186" s="3" t="s">
         <v>517</v>
@@ -17922,19 +17936,19 @@
         <v>1</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P187" s="3">
         <v>4</v>
       </c>
       <c r="Q187" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="R187" s="3">
         <v>2</v>
       </c>
       <c r="S187" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T187" s="3" t="s">
         <v>517</v>
@@ -17984,19 +17998,19 @@
         <v>1</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="P188" s="3">
         <v>4</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="R188" s="3">
         <v>3</v>
       </c>
       <c r="S188" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T188" s="3" t="s">
         <v>517</v>
@@ -18046,19 +18060,19 @@
         <v>1</v>
       </c>
       <c r="O189" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P189" s="3">
         <v>1</v>
       </c>
       <c r="Q189" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="R189" s="3">
         <v>1</v>
       </c>
       <c r="S189" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T189" s="3" t="s">
         <v>517</v>
@@ -18114,19 +18128,19 @@
         <v>1</v>
       </c>
       <c r="O190" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P190" s="3">
         <v>1</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="R190" s="3">
         <v>2</v>
       </c>
       <c r="S190" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T190" s="3" t="s">
         <v>517</v>
@@ -18176,19 +18190,19 @@
         <v>1</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P191" s="3">
         <v>1</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="R191" s="3">
         <v>3</v>
       </c>
       <c r="S191" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T191" s="3" t="s">
         <v>517</v>
@@ -18238,19 +18252,19 @@
         <v>1</v>
       </c>
       <c r="O192" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="P192" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q192" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="P192" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q192" s="3" t="s">
-        <v>628</v>
-      </c>
       <c r="R192" s="3">
         <v>1</v>
       </c>
       <c r="S192" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T192" s="3" t="s">
         <v>517</v>
@@ -18306,19 +18320,19 @@
         <v>1</v>
       </c>
       <c r="O193" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="P193" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q193" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="P193" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q193" s="3" t="s">
-        <v>628</v>
-      </c>
       <c r="R193" s="3">
         <v>2</v>
       </c>
       <c r="S193" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T193" s="3" t="s">
         <v>517</v>
@@ -18368,19 +18382,19 @@
         <v>1</v>
       </c>
       <c r="O194" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="P194" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q194" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="P194" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q194" s="3" t="s">
-        <v>628</v>
       </c>
       <c r="R194" s="3">
         <v>3</v>
       </c>
       <c r="S194" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T194" s="3" t="s">
         <v>517</v>
@@ -18430,19 +18444,19 @@
         <v>1</v>
       </c>
       <c r="O195" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P195" s="3">
         <v>3</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="R195" s="3">
         <v>1</v>
       </c>
       <c r="S195" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T195" s="3" t="s">
         <v>517</v>
@@ -18498,19 +18512,19 @@
         <v>1</v>
       </c>
       <c r="O196" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P196" s="3">
         <v>3</v>
       </c>
       <c r="Q196" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="R196" s="3">
         <v>2</v>
       </c>
       <c r="S196" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T196" s="3" t="s">
         <v>517</v>
@@ -18560,19 +18574,19 @@
         <v>1</v>
       </c>
       <c r="O197" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P197" s="3">
         <v>3</v>
       </c>
       <c r="Q197" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="R197" s="3">
         <v>3</v>
       </c>
       <c r="S197" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T197" s="3" t="s">
         <v>517</v>
@@ -18622,13 +18636,13 @@
         <v>1</v>
       </c>
       <c r="O198" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P198" s="3">
         <v>4</v>
       </c>
       <c r="Q198" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="R198" s="3">
         <v>1</v>
@@ -18693,19 +18707,19 @@
         <v>1</v>
       </c>
       <c r="O199" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P199" s="3">
         <v>1</v>
       </c>
       <c r="Q199" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="R199" s="3">
         <v>1</v>
       </c>
       <c r="S199" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T199" s="3" t="s">
         <v>517</v>
@@ -18761,19 +18775,19 @@
         <v>1</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P200" s="3">
         <v>1</v>
       </c>
       <c r="Q200" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="R200" s="3">
         <v>2</v>
       </c>
       <c r="S200" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T200" s="3" t="s">
         <v>517</v>
@@ -18823,19 +18837,19 @@
         <v>1</v>
       </c>
       <c r="O201" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P201" s="3">
         <v>1</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="R201" s="3">
         <v>3</v>
       </c>
       <c r="S201" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T201" s="3" t="s">
         <v>517</v>
@@ -18885,19 +18899,19 @@
         <v>1</v>
       </c>
       <c r="O202" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="P202" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q202" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="P202" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q202" s="3" t="s">
-        <v>632</v>
-      </c>
       <c r="R202" s="3">
         <v>1</v>
       </c>
       <c r="S202" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T202" s="3" t="s">
         <v>517</v>
@@ -18953,19 +18967,19 @@
         <v>1</v>
       </c>
       <c r="O203" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="P203" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q203" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="P203" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q203" s="3" t="s">
-        <v>632</v>
-      </c>
       <c r="R203" s="3">
         <v>2</v>
       </c>
       <c r="S203" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T203" s="3" t="s">
         <v>517</v>
@@ -19015,19 +19029,19 @@
         <v>1</v>
       </c>
       <c r="O204" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="P204" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q204" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="P204" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q204" s="3" t="s">
-        <v>632</v>
       </c>
       <c r="R204" s="3">
         <v>3</v>
       </c>
       <c r="S204" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T204" s="3" t="s">
         <v>517</v>
@@ -19077,19 +19091,19 @@
         <v>1</v>
       </c>
       <c r="O205" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P205" s="3">
         <v>3</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="R205" s="3">
         <v>1</v>
       </c>
       <c r="S205" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T205" s="3" t="s">
         <v>517</v>
@@ -19145,19 +19159,19 @@
         <v>1</v>
       </c>
       <c r="O206" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P206" s="3">
         <v>3</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="R206" s="3">
         <v>2</v>
       </c>
       <c r="S206" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T206" s="3" t="s">
         <v>517</v>
@@ -19207,19 +19221,19 @@
         <v>1</v>
       </c>
       <c r="O207" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="P207" s="3">
         <v>3</v>
       </c>
       <c r="Q207" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="R207" s="3">
         <v>3</v>
       </c>
       <c r="S207" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T207" s="3" t="s">
         <v>517</v>
@@ -19269,19 +19283,19 @@
         <v>1</v>
       </c>
       <c r="O208" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="P208" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q208" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="R208" s="3">
+        <v>1</v>
+      </c>
+      <c r="S208" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="P208" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q208" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="R208" s="3">
-        <v>1</v>
-      </c>
-      <c r="S208" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="T208" s="3" t="s">
         <v>517</v>
@@ -19331,19 +19345,19 @@
         <v>1</v>
       </c>
       <c r="O209" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="P209" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q209" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="R209" s="3">
+        <v>1</v>
+      </c>
+      <c r="S209" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="P209" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q209" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="R209" s="3">
-        <v>1</v>
-      </c>
-      <c r="S209" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="T209" s="3" t="s">
         <v>517</v>
@@ -19393,19 +19407,19 @@
         <v>1</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="P210" s="3">
         <v>3</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="R210" s="3">
         <v>1</v>
       </c>
       <c r="S210" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T210" s="3" t="s">
         <v>517</v>
@@ -19455,19 +19469,19 @@
         <v>1</v>
       </c>
       <c r="O211" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="P211" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q211" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="R211" s="3">
+        <v>1</v>
+      </c>
+      <c r="S211" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="P211" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q211" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="R211" s="3">
-        <v>1</v>
-      </c>
-      <c r="S211" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="T211" s="3" t="s">
         <v>517</v>
@@ -19520,19 +19534,19 @@
         <v>1</v>
       </c>
       <c r="O212" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P212" s="3">
         <v>1</v>
       </c>
       <c r="Q212" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="R212" s="3">
         <v>1</v>
       </c>
       <c r="S212" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T212" s="3" t="s">
         <v>517</v>
@@ -19585,19 +19599,19 @@
         <v>1</v>
       </c>
       <c r="O213" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="P213" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q213" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="P213" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q213" s="3" t="s">
-        <v>642</v>
-      </c>
       <c r="R213" s="3">
         <v>1</v>
       </c>
       <c r="S213" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T213" s="3" t="s">
         <v>517</v>
@@ -19647,19 +19661,19 @@
         <v>1</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P214" s="3">
         <v>3</v>
       </c>
       <c r="Q214" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="R214" s="3">
         <v>1</v>
       </c>
       <c r="S214" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T214" s="3" t="s">
         <v>517</v>
@@ -19709,19 +19723,19 @@
         <v>1</v>
       </c>
       <c r="O215" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P215" s="3">
         <v>4</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="R215" s="3">
         <v>1</v>
       </c>
       <c r="S215" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T215" s="3" t="s">
         <v>517</v>
@@ -19771,25 +19785,25 @@
         <v>1</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="P216" s="3">
         <v>1</v>
       </c>
       <c r="Q216" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="R216" s="3">
         <v>1</v>
       </c>
       <c r="S216" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T216" s="3" t="s">
         <v>517</v>
       </c>
       <c r="V216" s="30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="X216" s="1">
         <v>8</v>
@@ -19839,25 +19853,25 @@
         <v>1</v>
       </c>
       <c r="O217" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="P217" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q217" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="P217" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q217" s="3" t="s">
-        <v>647</v>
-      </c>
       <c r="R217" s="3">
         <v>1</v>
       </c>
       <c r="S217" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T217" s="3" t="s">
         <v>517</v>
       </c>
       <c r="V217" s="30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="X217" s="1">
         <v>8</v>
@@ -19907,25 +19921,25 @@
         <v>1</v>
       </c>
       <c r="O218" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="P218" s="3">
         <v>3</v>
       </c>
       <c r="Q218" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="R218" s="3">
         <v>1</v>
       </c>
       <c r="S218" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T218" s="3" t="s">
         <v>517</v>
       </c>
       <c r="V218" s="30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="X218" s="1">
         <v>8</v>
@@ -19975,25 +19989,25 @@
         <v>1</v>
       </c>
       <c r="O219" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="P219" s="3">
         <v>4</v>
       </c>
       <c r="Q219" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="R219" s="3">
         <v>1</v>
       </c>
       <c r="S219" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T219" s="3" t="s">
         <v>517</v>
       </c>
       <c r="V219" s="30" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="220" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -20040,13 +20054,13 @@
         <v>1</v>
       </c>
       <c r="O220" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="P220" s="3">
         <v>1</v>
       </c>
       <c r="Q220" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="R220" s="3">
         <v>1</v>
@@ -20108,13 +20122,13 @@
         <v>1</v>
       </c>
       <c r="O221" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="P221" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q221" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="P221" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q221" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="R221" s="3">
         <v>1</v>
@@ -20176,13 +20190,13 @@
         <v>1</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="P222" s="3">
         <v>1</v>
       </c>
       <c r="Q222" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="R222" s="3">
         <v>1</v>
@@ -20241,13 +20255,13 @@
         <v>1</v>
       </c>
       <c r="O223" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="P223" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q223" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="P223" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q223" s="3" t="s">
-        <v>654</v>
       </c>
       <c r="R223" s="3">
         <v>1</v>
@@ -20306,13 +20320,13 @@
         <v>1</v>
       </c>
       <c r="O224" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="P224" s="3">
         <v>3</v>
       </c>
       <c r="Q224" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="R224" s="3">
         <v>1</v>
@@ -20371,19 +20385,19 @@
         <v>1</v>
       </c>
       <c r="O225" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P225" s="3">
         <v>1</v>
       </c>
       <c r="Q225" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="R225" s="3">
         <v>1</v>
       </c>
       <c r="S225" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T225" s="3" t="s">
         <v>517</v>
@@ -20436,19 +20450,19 @@
         <v>1</v>
       </c>
       <c r="O226" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="P226" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q226" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="P226" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q226" s="3" t="s">
-        <v>657</v>
-      </c>
       <c r="R226" s="3">
         <v>1</v>
       </c>
       <c r="S226" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T226" s="3" t="s">
         <v>517</v>
@@ -20501,19 +20515,19 @@
         <v>1</v>
       </c>
       <c r="O227" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P227" s="3">
         <v>3</v>
       </c>
       <c r="Q227" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="R227" s="3">
         <v>1</v>
       </c>
       <c r="S227" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T227" s="3" t="s">
         <v>517</v>
@@ -20569,19 +20583,19 @@
         <v>1</v>
       </c>
       <c r="O228" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P228" s="3">
         <v>4</v>
       </c>
       <c r="Q228" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="R228" s="3">
         <v>1</v>
       </c>
       <c r="S228" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T228" s="3" t="s">
         <v>517</v>
@@ -20637,19 +20651,19 @@
         <v>1</v>
       </c>
       <c r="O229" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P229" s="3">
         <v>5</v>
       </c>
       <c r="Q229" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="R229" s="3">
         <v>1</v>
       </c>
       <c r="S229" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T229" s="3" t="s">
         <v>517</v>
@@ -20702,19 +20716,19 @@
         <v>1</v>
       </c>
       <c r="O230" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P230" s="3">
         <v>6</v>
       </c>
       <c r="Q230" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="R230" s="3">
         <v>1</v>
       </c>
       <c r="S230" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T230" s="3" t="s">
         <v>517</v>
@@ -20743,7 +20757,7 @@
         <v>479</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>188</v>
@@ -20811,19 +20825,19 @@
         <v>1</v>
       </c>
       <c r="O232" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P232" s="3">
         <v>1</v>
       </c>
       <c r="Q232" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R232" s="3">
         <v>1</v>
       </c>
       <c r="S232" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T232" s="3" t="s">
         <v>517</v>
@@ -20876,19 +20890,19 @@
         <v>1</v>
       </c>
       <c r="O233" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="P233" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q233" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="P233" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q233" s="3" t="s">
-        <v>664</v>
-      </c>
       <c r="R233" s="3">
         <v>1</v>
       </c>
       <c r="S233" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T233" s="3" t="s">
         <v>517</v>
@@ -20941,19 +20955,19 @@
         <v>1</v>
       </c>
       <c r="O234" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P234" s="3">
         <v>3</v>
       </c>
       <c r="Q234" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="R234" s="3">
         <v>1</v>
       </c>
       <c r="S234" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T234" s="3" t="s">
         <v>517</v>
@@ -21006,19 +21020,19 @@
         <v>1</v>
       </c>
       <c r="O235" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P235" s="3">
         <v>4</v>
       </c>
       <c r="Q235" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="R235" s="3">
         <v>1</v>
       </c>
       <c r="S235" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T235" s="3" t="s">
         <v>517</v>
@@ -21071,25 +21085,25 @@
         <v>1</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P236" s="3">
         <v>1</v>
       </c>
       <c r="Q236" s="62" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="R236" s="3">
         <v>1</v>
       </c>
       <c r="S236" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T236" s="3" t="s">
         <v>517</v>
       </c>
       <c r="U236" s="33" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="X236" s="1">
         <v>4</v>
@@ -21139,25 +21153,25 @@
         <v>1</v>
       </c>
       <c r="O237" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P237" s="3">
         <v>2</v>
       </c>
       <c r="Q237" s="63" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="R237" s="3">
         <v>1</v>
       </c>
       <c r="S237" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T237" s="3" t="s">
         <v>517</v>
       </c>
       <c r="U237" s="33" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="V237" s="30">
         <v>8</v>
@@ -21210,19 +21224,19 @@
         <v>1</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P238" s="3">
         <v>3</v>
       </c>
       <c r="Q238" s="63" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="R238" s="3">
         <v>1</v>
       </c>
       <c r="S238" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T238" s="3" t="s">
         <v>517</v>
@@ -21275,19 +21289,19 @@
         <v>1</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P239" s="3">
         <v>4</v>
       </c>
       <c r="Q239" s="63" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="R239" s="3">
         <v>1</v>
       </c>
       <c r="S239" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T239" s="3" t="s">
         <v>517</v>
@@ -21346,19 +21360,19 @@
         <v>1</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P240" s="3">
         <v>5</v>
       </c>
       <c r="Q240" s="63" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="R240" s="3">
         <v>1</v>
       </c>
       <c r="S240" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T240" s="3" t="s">
         <v>517</v>
@@ -21414,19 +21428,19 @@
         <v>1</v>
       </c>
       <c r="O241" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P241" s="3">
         <v>6</v>
       </c>
       <c r="Q241" s="63" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="R241" s="3">
         <v>1</v>
       </c>
       <c r="S241" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T241" s="3" t="s">
         <v>517</v>
@@ -21482,19 +21496,19 @@
         <v>1</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P242" s="3">
         <v>7</v>
       </c>
       <c r="Q242" s="63" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="R242" s="3">
         <v>1</v>
       </c>
       <c r="S242" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T242" s="3" t="s">
         <v>517</v>
@@ -21553,19 +21567,19 @@
         <v>1</v>
       </c>
       <c r="O243" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P243" s="3">
         <v>8</v>
       </c>
       <c r="Q243" s="63" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="R243" s="3">
         <v>1</v>
       </c>
       <c r="S243" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T243" s="3" t="s">
         <v>517</v>
@@ -21621,19 +21635,19 @@
         <v>1</v>
       </c>
       <c r="O244" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P244" s="3">
         <v>9</v>
       </c>
       <c r="Q244" s="63" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="R244" s="3">
         <v>1</v>
       </c>
       <c r="S244" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T244" s="3" t="s">
         <v>517</v>
@@ -21686,19 +21700,19 @@
         <v>1</v>
       </c>
       <c r="O245" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P245" s="3">
         <v>10</v>
       </c>
       <c r="Q245" s="63" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="R245" s="3">
         <v>1</v>
       </c>
       <c r="S245" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T245" s="3" t="s">
         <v>517</v>
@@ -21754,19 +21768,19 @@
         <v>1</v>
       </c>
       <c r="O246" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P246" s="3">
         <v>11</v>
       </c>
       <c r="Q246" s="63" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="R246" s="3">
         <v>1</v>
       </c>
       <c r="S246" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T246" s="3" t="s">
         <v>517</v>
@@ -21825,19 +21839,19 @@
         <v>1</v>
       </c>
       <c r="O247" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="P247" s="3">
         <v>12</v>
       </c>
       <c r="Q247" s="64" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="R247" s="3">
         <v>1</v>
       </c>
       <c r="S247" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T247" s="3" t="s">
         <v>517</v>
@@ -21893,19 +21907,19 @@
         <v>1</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P248" s="3">
         <v>1</v>
       </c>
       <c r="Q248" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="R248" s="3">
         <v>1</v>
       </c>
       <c r="S248" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T248" s="3" t="s">
         <v>517</v>
@@ -21958,19 +21972,19 @@
         <v>1</v>
       </c>
       <c r="O249" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="P249" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q249" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="P249" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q249" s="3" t="s">
-        <v>669</v>
-      </c>
       <c r="R249" s="3">
         <v>1</v>
       </c>
       <c r="S249" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T249" s="3" t="s">
         <v>517</v>
@@ -22029,19 +22043,19 @@
         <v>1</v>
       </c>
       <c r="O250" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="P250" s="3">
         <v>3</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="R250" s="3">
         <v>1</v>
       </c>
       <c r="S250" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T250" s="3" t="s">
         <v>517</v>
@@ -22091,19 +22105,19 @@
         <v>1</v>
       </c>
       <c r="O251" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="P251" s="3">
         <v>1</v>
       </c>
       <c r="Q251" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="R251" s="3">
         <v>1</v>
       </c>
       <c r="S251" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T251" s="3" t="s">
         <v>517</v>
@@ -22156,19 +22170,19 @@
         <v>1</v>
       </c>
       <c r="O252" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="P252" s="3">
         <v>1</v>
       </c>
       <c r="Q252" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="R252" s="3">
         <v>2</v>
       </c>
       <c r="S252" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T252" s="3" t="s">
         <v>517</v>
@@ -22218,19 +22232,19 @@
         <v>1</v>
       </c>
       <c r="O253" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="P253" s="3">
         <v>1</v>
       </c>
       <c r="Q253" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="R253" s="3">
         <v>3</v>
       </c>
       <c r="S253" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T253" s="3" t="s">
         <v>517</v>
@@ -22280,19 +22294,19 @@
         <v>1</v>
       </c>
       <c r="O254" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="P254" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q254" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="P254" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q254" s="3" t="s">
-        <v>673</v>
-      </c>
       <c r="R254" s="3">
         <v>1</v>
       </c>
       <c r="S254" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T254" s="3" t="s">
         <v>517</v>
@@ -22342,19 +22356,19 @@
         <v>1</v>
       </c>
       <c r="O255" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="P255" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q255" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="P255" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q255" s="3" t="s">
-        <v>673</v>
-      </c>
       <c r="R255" s="3">
         <v>2</v>
       </c>
       <c r="S255" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T255" s="3" t="s">
         <v>517</v>
@@ -22404,25 +22418,25 @@
         <v>1</v>
       </c>
       <c r="O256" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="P256" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q256" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="P256" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q256" s="3" t="s">
-        <v>673</v>
       </c>
       <c r="R256" s="3">
         <v>3</v>
       </c>
       <c r="S256" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T256" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>43</v>
       </c>
@@ -22466,25 +22480,25 @@
         <v>1</v>
       </c>
       <c r="O257" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="P257" s="3">
         <v>3</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="R257" s="3">
         <v>1</v>
       </c>
       <c r="S257" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T257" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>43</v>
       </c>
@@ -22528,25 +22542,25 @@
         <v>1</v>
       </c>
       <c r="O258" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="P258" s="3">
         <v>3</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="R258" s="3">
         <v>2</v>
       </c>
       <c r="S258" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T258" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>43</v>
       </c>
@@ -22590,25 +22604,25 @@
         <v>1</v>
       </c>
       <c r="O259" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="P259" s="3">
         <v>3</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="R259" s="3">
         <v>3</v>
       </c>
       <c r="S259" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T259" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>44</v>
       </c>
@@ -22649,7 +22663,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>45</v>
       </c>
@@ -22693,19 +22707,19 @@
         <v>1</v>
       </c>
       <c r="O261" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="P261" s="3">
         <v>1</v>
       </c>
       <c r="Q261" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="R261" s="3">
         <v>1</v>
       </c>
       <c r="S261" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T261" s="3" t="s">
         <v>517</v>
@@ -22714,7 +22728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>45</v>
       </c>
@@ -22758,25 +22772,25 @@
         <v>1</v>
       </c>
       <c r="O262" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="P262" s="3">
         <v>1</v>
       </c>
       <c r="Q262" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="R262" s="3">
         <v>2</v>
       </c>
       <c r="S262" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T262" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>45</v>
       </c>
@@ -22820,25 +22834,25 @@
         <v>1</v>
       </c>
       <c r="O263" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="P263" s="3">
         <v>1</v>
       </c>
       <c r="Q263" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="R263" s="3">
         <v>3</v>
       </c>
       <c r="S263" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T263" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>45</v>
       </c>
@@ -22882,25 +22896,25 @@
         <v>1</v>
       </c>
       <c r="O264" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="P264" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q264" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="P264" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q264" s="3" t="s">
-        <v>677</v>
-      </c>
       <c r="R264" s="3">
         <v>1</v>
       </c>
       <c r="S264" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T264" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>45</v>
       </c>
@@ -22944,25 +22958,25 @@
         <v>1</v>
       </c>
       <c r="O265" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="P265" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q265" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="P265" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q265" s="3" t="s">
-        <v>677</v>
-      </c>
       <c r="R265" s="3">
         <v>2</v>
       </c>
       <c r="S265" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="T265" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>45</v>
       </c>
@@ -23006,25 +23020,25 @@
         <v>1</v>
       </c>
       <c r="O266" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="P266" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q266" s="3" t="s">
         <v>675</v>
-      </c>
-      <c r="P266" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q266" s="3" t="s">
-        <v>677</v>
       </c>
       <c r="R266" s="3">
         <v>3</v>
       </c>
       <c r="S266" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T266" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>45</v>
       </c>
@@ -23068,13 +23082,13 @@
         <v>1</v>
       </c>
       <c r="O267" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="P267" s="3">
         <v>3</v>
       </c>
       <c r="Q267" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="R267" s="3">
         <v>1</v>
@@ -23086,9 +23100,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>202</v>
@@ -23097,155 +23111,176 @@
         <v>219</v>
       </c>
       <c r="D268" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>263</v>
+        <v>480</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H268" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I268" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J268" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K268" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L268" s="16" t="s">
-        <v>268</v>
+        <v>835</v>
+      </c>
+      <c r="H268" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="I268" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="J268" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="K268" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="L268" s="28" t="s">
+        <v>485</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>294</v>
+        <v>494</v>
       </c>
       <c r="N268" s="3">
         <v>1</v>
       </c>
       <c r="O268" s="3" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="P268" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q268" s="3" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="R268" s="3">
         <v>1</v>
       </c>
       <c r="S268" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T268" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="269" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U268" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C269" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D269" s="1">
+        <v>1</v>
+      </c>
+      <c r="E269" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D269" s="1">
-        <v>1</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="F269" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>487</v>
+        <v>835</v>
       </c>
       <c r="H269" s="27" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K269" s="28" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L269" s="28" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="X269" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="N269" s="3">
+        <v>1</v>
+      </c>
+      <c r="O269" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="P269" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q269" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="R269" s="3">
+        <v>2</v>
+      </c>
+      <c r="S269" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="T269" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C270" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D270" s="1">
+        <v>1</v>
+      </c>
+      <c r="E270" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D270" s="1">
-        <v>1</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="F270" s="1" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>496</v>
+        <v>835</v>
       </c>
       <c r="H270" s="27" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="K270" s="28" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="L270" s="28" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="M270" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N270" s="3">
         <v>1</v>
       </c>
       <c r="O270" s="3" t="s">
-        <v>649</v>
+        <v>684</v>
       </c>
       <c r="P270" s="3">
         <v>1</v>
       </c>
       <c r="Q270" s="3" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="R270" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S270" s="3" t="s">
         <v>516</v>
@@ -23253,203 +23288,188 @@
       <c r="T270" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="V270" s="30">
-        <v>2</v>
-      </c>
-      <c r="X270" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:23" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C271" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D271" s="1">
+        <v>1</v>
+      </c>
+      <c r="E271" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D271" s="1">
-        <v>1</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="F271" s="1" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>496</v>
+        <v>835</v>
       </c>
       <c r="H271" s="27" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="K271" s="28" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="L271" s="28" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="M271" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N271" s="3">
         <v>1</v>
       </c>
       <c r="O271" s="3" t="s">
-        <v>649</v>
+        <v>684</v>
       </c>
       <c r="P271" s="3">
         <v>2</v>
       </c>
       <c r="Q271" s="3" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="R271" s="3">
         <v>1</v>
       </c>
       <c r="S271" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="T271" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="V271" s="30">
-        <v>2</v>
-      </c>
-      <c r="X271" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U271" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C272" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D272" s="1">
+        <v>1</v>
+      </c>
+      <c r="E272" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D272" s="1">
-        <v>1</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="F272" s="1" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>496</v>
+        <v>835</v>
       </c>
       <c r="H272" s="27" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="K272" s="28" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="L272" s="28" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="M272" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="N272" s="3">
         <v>1</v>
       </c>
       <c r="O272" s="3" t="s">
-        <v>649</v>
+        <v>684</v>
       </c>
       <c r="P272" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q272" s="3" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="R272" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S272" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T272" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="V272" s="30">
-        <v>2</v>
-      </c>
-      <c r="X272" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C273" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D273" s="1">
+        <v>1</v>
+      </c>
+      <c r="E273" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D273" s="1">
-        <v>1</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="F273" s="1" t="s">
-        <v>238</v>
+        <v>480</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>503</v>
+        <v>835</v>
       </c>
       <c r="H273" s="27" t="s">
-        <v>239</v>
+        <v>481</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>240</v>
+        <v>482</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>241</v>
+        <v>483</v>
       </c>
       <c r="K273" s="28" t="s">
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="L273" s="28" t="s">
-        <v>243</v>
+        <v>485</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="N273" s="3">
         <v>1</v>
       </c>
       <c r="O273" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P273" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q273" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="R273" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S273" s="3" t="s">
         <v>516</v>
@@ -23458,60 +23478,60 @@
         <v>517</v>
       </c>
     </row>
-    <row r="274" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C274" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D274" s="1">
+        <v>1</v>
+      </c>
+      <c r="E274" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D274" s="1">
-        <v>1</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="F274" s="1" t="s">
-        <v>238</v>
+        <v>480</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>503</v>
+        <v>835</v>
       </c>
       <c r="H274" s="27" t="s">
-        <v>239</v>
+        <v>481</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>240</v>
+        <v>482</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>241</v>
+        <v>483</v>
       </c>
       <c r="K274" s="28" t="s">
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="L274" s="28" t="s">
-        <v>243</v>
+        <v>485</v>
       </c>
       <c r="M274" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="N274" s="3">
         <v>1</v>
       </c>
       <c r="O274" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P274" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q274" s="3" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="R274" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S274" s="3" t="s">
         <v>518</v>
@@ -23519,61 +23539,64 @@
       <c r="T274" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="275" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U274" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C275" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D275" s="1">
+        <v>1</v>
+      </c>
+      <c r="E275" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D275" s="1">
-        <v>1</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="F275" s="1" t="s">
-        <v>238</v>
+        <v>480</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>503</v>
+        <v>835</v>
       </c>
       <c r="H275" s="27" t="s">
-        <v>239</v>
+        <v>481</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>240</v>
+        <v>482</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>241</v>
+        <v>483</v>
       </c>
       <c r="K275" s="28" t="s">
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="L275" s="28" t="s">
-        <v>243</v>
+        <v>485</v>
       </c>
       <c r="M275" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="N275" s="3">
         <v>1</v>
       </c>
       <c r="O275" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P275" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q275" s="3" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="R275" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S275" s="3" t="s">
         <v>519</v>
@@ -23582,60 +23605,60 @@
         <v>517</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C276" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D276" s="1">
+        <v>1</v>
+      </c>
+      <c r="E276" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D276" s="1">
-        <v>1</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="F276" s="1" t="s">
-        <v>238</v>
+        <v>480</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>503</v>
+        <v>835</v>
       </c>
       <c r="H276" s="27" t="s">
-        <v>239</v>
+        <v>481</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>240</v>
+        <v>482</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>241</v>
+        <v>483</v>
       </c>
       <c r="K276" s="28" t="s">
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="L276" s="28" t="s">
-        <v>243</v>
+        <v>485</v>
       </c>
       <c r="M276" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="N276" s="3">
         <v>1</v>
       </c>
       <c r="O276" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P276" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q276" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="R276" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S276" s="3" t="s">
         <v>516</v>
@@ -23644,60 +23667,60 @@
         <v>517</v>
       </c>
     </row>
-    <row r="277" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C277" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D277" s="1">
+        <v>1</v>
+      </c>
+      <c r="E277" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D277" s="1">
-        <v>1</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="F277" s="1" t="s">
-        <v>238</v>
+        <v>480</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>503</v>
+        <v>835</v>
       </c>
       <c r="H277" s="27" t="s">
-        <v>239</v>
+        <v>481</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>240</v>
+        <v>482</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>241</v>
+        <v>483</v>
       </c>
       <c r="K277" s="28" t="s">
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="L277" s="28" t="s">
-        <v>243</v>
+        <v>485</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="N277" s="3">
         <v>1</v>
       </c>
       <c r="O277" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P277" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q277" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="R277" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S277" s="3" t="s">
         <v>518</v>
@@ -23705,61 +23728,64 @@
       <c r="T277" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="278" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U277" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C278" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D278" s="1">
+        <v>1</v>
+      </c>
+      <c r="E278" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D278" s="1">
-        <v>1</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="F278" s="1" t="s">
-        <v>238</v>
+        <v>480</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>503</v>
+        <v>835</v>
       </c>
       <c r="H278" s="27" t="s">
-        <v>239</v>
+        <v>481</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>240</v>
+        <v>482</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>241</v>
+        <v>483</v>
       </c>
       <c r="K278" s="28" t="s">
-        <v>242</v>
+        <v>484</v>
       </c>
       <c r="L278" s="28" t="s">
-        <v>243</v>
+        <v>485</v>
       </c>
       <c r="M278" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="N278" s="3">
         <v>1</v>
       </c>
       <c r="O278" s="3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="P278" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q278" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="R278" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S278" s="3" t="s">
         <v>519</v>
@@ -23768,328 +23794,361 @@
         <v>517</v>
       </c>
     </row>
-    <row r="279" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C279" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D279" s="1">
+        <v>1</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D279" s="1">
-        <v>1</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="F279" s="1" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>244</v>
+        <v>835</v>
       </c>
       <c r="H279" s="27" t="s">
-        <v>295</v>
+        <v>481</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>296</v>
+        <v>482</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>297</v>
+        <v>483</v>
       </c>
       <c r="K279" s="28" t="s">
-        <v>244</v>
+        <v>484</v>
       </c>
       <c r="L279" s="28" t="s">
-        <v>245</v>
+        <v>485</v>
       </c>
       <c r="M279" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="280" spans="1:21" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="N279" s="3">
+        <v>1</v>
+      </c>
+      <c r="O279" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="P279" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q279" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="R279" s="3">
+        <v>3</v>
+      </c>
+      <c r="S279" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="T279" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D280" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="L280" s="16" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="M280" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="281" spans="1:21" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+      <c r="N280" s="3">
+        <v>1</v>
+      </c>
+      <c r="O280" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="P280" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q280" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="R280" s="3">
+        <v>1</v>
+      </c>
+      <c r="S280" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="T280" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D281" s="1">
         <v>1</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>236</v>
+        <v>495</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>837</v>
+        <v>487</v>
       </c>
       <c r="H281" s="27" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="K281" s="28" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="L281" s="28" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="M281" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="N281" s="3">
-        <v>1</v>
-      </c>
-      <c r="O281" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="P281" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q281" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="R281" s="3">
-        <v>1</v>
-      </c>
-      <c r="S281" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="T281" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="U281" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:21" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+      <c r="X281" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D282" s="1">
         <v>1</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>837</v>
+        <v>496</v>
       </c>
       <c r="H282" s="27" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="K282" s="28" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="L282" s="28" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="M282" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="N282" s="3">
         <v>1</v>
       </c>
       <c r="O282" s="3" t="s">
-        <v>686</v>
+        <v>647</v>
       </c>
       <c r="P282" s="3">
         <v>1</v>
       </c>
       <c r="Q282" s="3" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="R282" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S282" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T282" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="283" spans="1:21" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V282" s="30">
+        <v>2</v>
+      </c>
+      <c r="X282" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D283" s="1">
         <v>1</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>837</v>
+        <v>496</v>
       </c>
       <c r="H283" s="27" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="K283" s="28" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="L283" s="28" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="M283" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="N283" s="3">
         <v>1</v>
       </c>
       <c r="O283" s="3" t="s">
-        <v>686</v>
+        <v>647</v>
       </c>
       <c r="P283" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q283" s="3" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="R283" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S283" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="T283" s="3" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="284" spans="1:21" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V283" s="30">
+        <v>2</v>
+      </c>
+      <c r="X283" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D284" s="1">
         <v>1</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>837</v>
+        <v>496</v>
       </c>
       <c r="H284" s="27" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="K284" s="28" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="L284" s="28" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="M284" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="N284" s="3">
         <v>1</v>
       </c>
       <c r="O284" s="3" t="s">
-        <v>686</v>
+        <v>647</v>
       </c>
       <c r="P284" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q284" s="3" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="R284" s="3">
         <v>1</v>
@@ -24100,64 +24159,67 @@
       <c r="T284" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="U284" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:21" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V284" s="30">
+        <v>2</v>
+      </c>
+      <c r="X284" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D285" s="1">
         <v>1</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>480</v>
+        <v>238</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>837</v>
+        <v>503</v>
       </c>
       <c r="H285" s="27" t="s">
-        <v>481</v>
+        <v>239</v>
       </c>
       <c r="I285" s="28" t="s">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="J285" s="28" t="s">
-        <v>483</v>
+        <v>241</v>
       </c>
       <c r="K285" s="28" t="s">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="L285" s="28" t="s">
-        <v>485</v>
+        <v>243</v>
       </c>
       <c r="M285" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="N285" s="3">
         <v>1</v>
       </c>
       <c r="O285" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="P285" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q285" s="3" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="R285" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S285" s="3" t="s">
         <v>518</v>
@@ -24166,60 +24228,60 @@
         <v>517</v>
       </c>
     </row>
-    <row r="286" spans="1:21" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D286" s="1">
         <v>1</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>480</v>
+        <v>238</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>837</v>
+        <v>503</v>
       </c>
       <c r="H286" s="27" t="s">
-        <v>481</v>
+        <v>239</v>
       </c>
       <c r="I286" s="28" t="s">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="J286" s="28" t="s">
-        <v>483</v>
+        <v>241</v>
       </c>
       <c r="K286" s="28" t="s">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="L286" s="28" t="s">
-        <v>485</v>
+        <v>243</v>
       </c>
       <c r="M286" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="N286" s="3">
         <v>1</v>
       </c>
       <c r="O286" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="P286" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q286" s="3" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="R286" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S286" s="3" t="s">
         <v>519</v>
@@ -24228,60 +24290,60 @@
         <v>517</v>
       </c>
     </row>
-    <row r="287" spans="1:21" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D287" s="1">
         <v>1</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>480</v>
+        <v>238</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>837</v>
+        <v>503</v>
       </c>
       <c r="H287" s="27" t="s">
-        <v>481</v>
+        <v>239</v>
       </c>
       <c r="I287" s="28" t="s">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="J287" s="28" t="s">
-        <v>483</v>
+        <v>241</v>
       </c>
       <c r="K287" s="28" t="s">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="L287" s="28" t="s">
-        <v>485</v>
+        <v>243</v>
       </c>
       <c r="M287" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="N287" s="3">
         <v>1</v>
       </c>
       <c r="O287" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="P287" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q287" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="R287" s="3">
         <v>3</v>
-      </c>
-      <c r="Q287" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="R287" s="3">
-        <v>1</v>
       </c>
       <c r="S287" s="3" t="s">
         <v>516</v>
@@ -24289,64 +24351,61 @@
       <c r="T287" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="U287" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:21" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D288" s="1">
         <v>1</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>480</v>
+        <v>238</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>837</v>
+        <v>503</v>
       </c>
       <c r="H288" s="27" t="s">
-        <v>481</v>
+        <v>239</v>
       </c>
       <c r="I288" s="28" t="s">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="J288" s="28" t="s">
-        <v>483</v>
+        <v>241</v>
       </c>
       <c r="K288" s="28" t="s">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="L288" s="28" t="s">
-        <v>485</v>
+        <v>243</v>
       </c>
       <c r="M288" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="N288" s="3">
         <v>1</v>
       </c>
       <c r="O288" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="P288" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q288" s="3" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="R288" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S288" s="3" t="s">
         <v>518</v>
@@ -24355,60 +24414,60 @@
         <v>517</v>
       </c>
     </row>
-    <row r="289" spans="1:21" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D289" s="1">
         <v>1</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>480</v>
+        <v>238</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>837</v>
+        <v>503</v>
       </c>
       <c r="H289" s="27" t="s">
-        <v>481</v>
+        <v>239</v>
       </c>
       <c r="I289" s="28" t="s">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="J289" s="28" t="s">
-        <v>483</v>
+        <v>241</v>
       </c>
       <c r="K289" s="28" t="s">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="L289" s="28" t="s">
-        <v>485</v>
+        <v>243</v>
       </c>
       <c r="M289" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="N289" s="3">
         <v>1</v>
       </c>
       <c r="O289" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="P289" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q289" s="3" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="R289" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S289" s="3" t="s">
         <v>519</v>
@@ -24417,60 +24476,60 @@
         <v>517</v>
       </c>
     </row>
-    <row r="290" spans="1:21" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D290" s="1">
         <v>1</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>480</v>
+        <v>238</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>837</v>
+        <v>503</v>
       </c>
       <c r="H290" s="27" t="s">
-        <v>481</v>
+        <v>239</v>
       </c>
       <c r="I290" s="28" t="s">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="J290" s="28" t="s">
-        <v>483</v>
+        <v>241</v>
       </c>
       <c r="K290" s="28" t="s">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="L290" s="28" t="s">
-        <v>485</v>
+        <v>243</v>
       </c>
       <c r="M290" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="N290" s="3">
         <v>1</v>
       </c>
       <c r="O290" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="P290" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q290" s="3" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="R290" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S290" s="3" t="s">
         <v>516</v>
@@ -24478,132 +24537,87 @@
       <c r="T290" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="U290" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:21" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D291" s="1">
         <v>1</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>837</v>
+        <v>244</v>
       </c>
       <c r="H291" s="27" t="s">
-        <v>481</v>
+        <v>295</v>
       </c>
       <c r="I291" s="28" t="s">
-        <v>482</v>
+        <v>296</v>
       </c>
       <c r="J291" s="28" t="s">
-        <v>483</v>
+        <v>297</v>
       </c>
       <c r="K291" s="28" t="s">
-        <v>484</v>
+        <v>244</v>
       </c>
       <c r="L291" s="28" t="s">
-        <v>485</v>
+        <v>245</v>
       </c>
       <c r="M291" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="N291" s="3">
-        <v>1</v>
-      </c>
-      <c r="O291" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="P291" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q291" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="R291" s="3">
-        <v>2</v>
-      </c>
-      <c r="S291" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="T291" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="292" spans="1:21" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D292" s="1">
         <v>1</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>480</v>
+        <v>298</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="H292" s="27" t="s">
-        <v>481</v>
-      </c>
-      <c r="I292" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="J292" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="K292" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="L292" s="28" t="s">
-        <v>485</v>
+        <v>247</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L292" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="M292" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="N292" s="3">
-        <v>1</v>
-      </c>
-      <c r="O292" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="P292" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q292" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="R292" s="3">
-        <v>3</v>
-      </c>
-      <c r="S292" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="T292" s="3" t="s">
-        <v>517</v>
+        <v>299</v>
       </c>
     </row>
     <row r="293" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -24650,13 +24664,13 @@
         <v>1</v>
       </c>
       <c r="O293" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="P293" s="3">
         <v>1</v>
       </c>
       <c r="Q293" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="R293" s="3">
         <v>1</v>
@@ -24712,13 +24726,13 @@
         <v>1</v>
       </c>
       <c r="O294" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="P294" s="3">
         <v>2</v>
       </c>
       <c r="Q294" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="R294" s="3">
         <v>1</v>
@@ -24856,22 +24870,22 @@
         <v>1</v>
       </c>
       <c r="O297" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="P297" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q297" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="R297" s="3">
+        <v>1</v>
+      </c>
+      <c r="S297" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="P297" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q297" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="R297" s="3">
-        <v>1</v>
-      </c>
-      <c r="S297" s="3" t="s">
-        <v>695</v>
-      </c>
       <c r="T297" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U297" s="33">
         <v>4</v>
@@ -24921,155 +24935,154 @@
         <v>1</v>
       </c>
       <c r="O298" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="P298" s="3">
         <v>1</v>
       </c>
       <c r="Q298" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="R298" s="3">
+        <v>2</v>
+      </c>
+      <c r="S298" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="R298" s="3">
-        <v>2</v>
-      </c>
-      <c r="S298" s="3" t="s">
-        <v>696</v>
-      </c>
       <c r="T298" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U298" s="33">
         <v>4</v>
-      </c>
-    </row>
-    <row r="300" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O300" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q300" s="3">
-        <v>147</v>
-      </c>
-      <c r="S300" s="3">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:L83">
     <sortCondition ref="L2"/>
   </sortState>
-  <conditionalFormatting sqref="N135:S174 N129:P134 N220:S223 O219:Q219 N225:S233 O224:Q224 N236:P246 O234:Q235 N177:S218 N1:S128 R236:S246 N248:S1048576">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+  <conditionalFormatting sqref="N129:P134 N220:S223 O219:Q219 N225:S233 O224:Q224 N236:P246 O234:Q235 R236:S246 N248:S1048576 N177:S218 N174:R174 N135:S173 N1:S128">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U174 U177:U1048576">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W175:Y176 U1:Y174 X171:X210 U177:Y1048576 W1:W292">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="greaterThan">
+  <conditionalFormatting sqref="W175:Y176 U1:Y174 X171:X210 W1:W267 U177:Y1048576">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R247:S247">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N247:P247">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V174 V177:V1048576">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N175:R176">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U175:U176">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U175:V176">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V175:V176">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S175:S176">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+  <conditionalFormatting sqref="X1:X1048576">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="R129:R131">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R129:S131">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R132:S134">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+  <conditionalFormatting sqref="R132:R134">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R219:S219">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N219">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R224:S224">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N224">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N234">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N235">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R234:S235">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S174:S176">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N235">
+  <conditionalFormatting sqref="S132:S134">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R234:S235">
+  <conditionalFormatting sqref="S129:S131">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4298945F-0AE5-46CB-AB28-9387900E65A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{889A4870-373C-46B8-A4C5-AB7EF36E4385}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
@@ -6194,7 +6194,7 @@
   <dimension ref="A1:X298"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A293" sqref="A293:XFD293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23038,7 +23038,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>45</v>
       </c>
@@ -23100,9 +23100,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>202</v>
@@ -23111,63 +23111,60 @@
         <v>219</v>
       </c>
       <c r="D268" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>480</v>
+        <v>263</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="H268" s="27" t="s">
-        <v>481</v>
-      </c>
-      <c r="I268" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="J268" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="K268" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="L268" s="28" t="s">
-        <v>485</v>
+        <v>269</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L268" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>494</v>
+        <v>294</v>
       </c>
       <c r="N268" s="3">
         <v>1</v>
       </c>
       <c r="O268" s="3" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="P268" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q268" s="3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="R268" s="3">
         <v>1</v>
       </c>
       <c r="S268" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T268" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="U268" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:23" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:23" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>202</v>
@@ -23218,18 +23215,21 @@
         <v>685</v>
       </c>
       <c r="R269" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S269" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T269" s="3" t="s">
         <v>517</v>
+      </c>
+      <c r="U269" s="33">
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:23" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>202</v>
@@ -23280,18 +23280,18 @@
         <v>685</v>
       </c>
       <c r="R270" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S270" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T270" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>202</v>
@@ -23336,27 +23336,24 @@
         <v>684</v>
       </c>
       <c r="P271" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q271" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R271" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S271" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T271" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="U271" s="33">
-        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:23" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>202</v>
@@ -23407,18 +23404,21 @@
         <v>686</v>
       </c>
       <c r="R272" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S272" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T272" s="3" t="s">
         <v>517</v>
+      </c>
+      <c r="U272" s="33">
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>202</v>
@@ -23469,10 +23469,10 @@
         <v>686</v>
       </c>
       <c r="R273" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S273" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T273" s="3" t="s">
         <v>517</v>
@@ -23480,7 +23480,7 @@
     </row>
     <row r="274" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>202</v>
@@ -23525,27 +23525,24 @@
         <v>684</v>
       </c>
       <c r="P274" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q274" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="R274" s="3">
         <v>3</v>
       </c>
-      <c r="Q274" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="R274" s="3">
-        <v>1</v>
-      </c>
       <c r="S274" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T274" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="U274" s="33">
-        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>202</v>
@@ -23596,18 +23593,21 @@
         <v>687</v>
       </c>
       <c r="R275" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S275" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T275" s="3" t="s">
         <v>517</v>
+      </c>
+      <c r="U275" s="33">
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>202</v>
@@ -23658,10 +23658,10 @@
         <v>687</v>
       </c>
       <c r="R276" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S276" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T276" s="3" t="s">
         <v>517</v>
@@ -23669,7 +23669,7 @@
     </row>
     <row r="277" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>202</v>
@@ -23714,27 +23714,24 @@
         <v>684</v>
       </c>
       <c r="P277" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q277" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="R277" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S277" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T277" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="U277" s="33">
-        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>202</v>
@@ -23785,18 +23782,21 @@
         <v>688</v>
       </c>
       <c r="R278" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S278" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T278" s="3" t="s">
         <v>517</v>
+      </c>
+      <c r="U278" s="33">
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>202</v>
@@ -23847,18 +23847,18 @@
         <v>688</v>
       </c>
       <c r="R279" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S279" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T279" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>202</v>
@@ -23867,49 +23867,49 @@
         <v>219</v>
       </c>
       <c r="D280" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>263</v>
+        <v>480</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H280" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I280" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J280" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K280" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L280" s="16" t="s">
-        <v>268</v>
+        <v>835</v>
+      </c>
+      <c r="H280" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="I280" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="J280" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="K280" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="L280" s="28" t="s">
+        <v>485</v>
       </c>
       <c r="M280" s="1" t="s">
-        <v>294</v>
+        <v>494</v>
       </c>
       <c r="N280" s="3">
         <v>1</v>
       </c>
       <c r="O280" s="3" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="P280" s="3">
         <v>4</v>
       </c>
       <c r="Q280" s="3" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="R280" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S280" s="3" t="s">
         <v>516</v>
@@ -23920,7 +23920,7 @@
     </row>
     <row r="281" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>202</v>
@@ -23964,7 +23964,7 @@
     </row>
     <row r="282" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>202</v>
@@ -24032,7 +24032,7 @@
     </row>
     <row r="283" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>202</v>
@@ -24100,7 +24100,7 @@
     </row>
     <row r="284" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>202</v>
@@ -24168,7 +24168,7 @@
     </row>
     <row r="285" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>202</v>
@@ -24230,7 +24230,7 @@
     </row>
     <row r="286" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>202</v>
@@ -24292,7 +24292,7 @@
     </row>
     <row r="287" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>202</v>
@@ -24354,7 +24354,7 @@
     </row>
     <row r="288" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>202</v>
@@ -24414,9 +24414,9 @@
         <v>517</v>
       </c>
     </row>
-    <row r="289" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>202</v>
@@ -24478,7 +24478,7 @@
     </row>
     <row r="290" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>202</v>
@@ -24540,7 +24540,7 @@
     </row>
     <row r="291" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>202</v>
@@ -24581,7 +24581,7 @@
     </row>
     <row r="292" spans="1:21" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>202</v>
@@ -24960,7 +24960,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:L83">
     <sortCondition ref="L2"/>
   </sortState>
-  <conditionalFormatting sqref="N129:P134 N220:S223 O219:Q219 N225:S233 O224:Q224 N236:P246 O234:Q235 R236:S246 N248:S1048576 N177:S218 N174:R174 N135:S173 N1:S128">
+  <conditionalFormatting sqref="N129:P134 N220:S223 O219:Q219 N225:S233 O224:Q224 N236:P246 O234:Q235 R236:S246 N177:S218 N174:R174 N135:S173 N1:S128 N248:S1048576">
     <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24973,7 +24973,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W175:Y176 U1:Y174 X171:X210 W1:W267 U177:Y1048576">
+  <conditionalFormatting sqref="W175:Y176 U1:Y174 X171:X210 W1:W280 U177:Y1048576">
     <cfRule type="cellIs" dxfId="23" priority="28" operator="greaterThan">
       <formula>1</formula>
     </cfRule>

--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{889A4870-373C-46B8-A4C5-AB7EF36E4385}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDAA7F6-6C40-44DF-9DA1-707D6796E1D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
@@ -4537,7 +4537,287 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6193,8 +6473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F424C2D-EB2F-46EA-AF4D-2212F3580F39}">
   <dimension ref="A1:X298"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A293" sqref="A293:XFD293"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A249" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251:C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24961,131 +25241,134 @@
     <sortCondition ref="L2"/>
   </sortState>
   <conditionalFormatting sqref="N129:P134 N220:S223 O219:Q219 N225:S233 O224:Q224 N236:P246 O234:Q235 R236:S246 N177:S218 N174:R174 N135:S173 N1:S128 N248:S1048576">
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U174 U177:U1048576">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W175:Y176 U1:Y174 X171:X210 W1:W280 U177:Y1048576">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="29" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R247:S247">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N247:P247">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V174 V177:V1048576">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="25" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="26" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N175:R176">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U175:U176">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U175:V176">
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V175:V176">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="19" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="20" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R129:R131">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R132:R134">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R219:S219">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N219">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R224:S224">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N224">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N234">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R234:S235">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S174:S176">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S132:S134">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S129:S131">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C251:C280">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="10000" scale="28" orientation="portrait" r:id="rId1"/>

--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDAA7F6-6C40-44DF-9DA1-707D6796E1D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD87D373-2AAA-4D3D-9877-AF5AE217E62F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
@@ -4537,277 +4537,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6473,8 +6203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F424C2D-EB2F-46EA-AF4D-2212F3580F39}">
   <dimension ref="A1:X298"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A249" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251:C280"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11948,7 +11678,7 @@
         <v>101</v>
       </c>
       <c r="D89" s="12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>102</v>
@@ -12016,7 +11746,7 @@
         <v>101</v>
       </c>
       <c r="D90" s="12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>102</v>
@@ -12060,7 +11790,7 @@
         <v>101</v>
       </c>
       <c r="D91" s="12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>102</v>
@@ -12104,7 +11834,7 @@
         <v>101</v>
       </c>
       <c r="D92" s="12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>382</v>
@@ -12169,7 +11899,7 @@
         <v>101</v>
       </c>
       <c r="D93" s="12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>382</v>
@@ -21028,7 +20758,7 @@
         <v>444</v>
       </c>
       <c r="D231" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>187</v>
@@ -21072,7 +20802,7 @@
         <v>193</v>
       </c>
       <c r="D232" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>194</v>
@@ -21137,7 +20867,7 @@
         <v>193</v>
       </c>
       <c r="D233" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>194</v>
@@ -21202,7 +20932,7 @@
         <v>193</v>
       </c>
       <c r="D234" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>194</v>
@@ -21267,7 +20997,7 @@
         <v>193</v>
       </c>
       <c r="D235" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>194</v>
@@ -21332,7 +21062,7 @@
         <v>203</v>
       </c>
       <c r="D236" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>204</v>
@@ -21400,7 +21130,7 @@
         <v>203</v>
       </c>
       <c r="D237" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>204</v>
@@ -21471,7 +21201,7 @@
         <v>203</v>
       </c>
       <c r="D238" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>204</v>
@@ -21536,7 +21266,7 @@
         <v>203</v>
       </c>
       <c r="D239" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>204</v>
@@ -21607,7 +21337,7 @@
         <v>203</v>
       </c>
       <c r="D240" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>204</v>
@@ -21675,7 +21405,7 @@
         <v>203</v>
       </c>
       <c r="D241" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>204</v>
@@ -21743,7 +21473,7 @@
         <v>203</v>
       </c>
       <c r="D242" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>204</v>
@@ -21814,7 +21544,7 @@
         <v>203</v>
       </c>
       <c r="D243" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>204</v>
@@ -21882,7 +21612,7 @@
         <v>203</v>
       </c>
       <c r="D244" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>204</v>
@@ -21947,7 +21677,7 @@
         <v>203</v>
       </c>
       <c r="D245" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>204</v>
@@ -22015,7 +21745,7 @@
         <v>203</v>
       </c>
       <c r="D246" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>204</v>
@@ -22086,7 +21816,7 @@
         <v>203</v>
       </c>
       <c r="D247" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>204</v>
@@ -22154,7 +21884,7 @@
         <v>203</v>
       </c>
       <c r="D248" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>204</v>
@@ -22219,7 +21949,7 @@
         <v>203</v>
       </c>
       <c r="D249" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>204</v>
@@ -22290,7 +22020,7 @@
         <v>203</v>
       </c>
       <c r="D250" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>204</v>
@@ -22352,7 +22082,7 @@
         <v>219</v>
       </c>
       <c r="D251" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>220</v>
@@ -22417,7 +22147,7 @@
         <v>219</v>
       </c>
       <c r="D252" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>220</v>
@@ -22479,7 +22209,7 @@
         <v>219</v>
       </c>
       <c r="D253" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>220</v>
@@ -22541,7 +22271,7 @@
         <v>219</v>
       </c>
       <c r="D254" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>220</v>
@@ -22603,7 +22333,7 @@
         <v>219</v>
       </c>
       <c r="D255" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>220</v>
@@ -22665,7 +22395,7 @@
         <v>219</v>
       </c>
       <c r="D256" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>220</v>
@@ -22727,7 +22457,7 @@
         <v>219</v>
       </c>
       <c r="D257" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>220</v>
@@ -22789,7 +22519,7 @@
         <v>219</v>
       </c>
       <c r="D258" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>220</v>
@@ -22851,7 +22581,7 @@
         <v>219</v>
       </c>
       <c r="D259" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>220</v>
@@ -22913,7 +22643,7 @@
         <v>219</v>
       </c>
       <c r="D260" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>228</v>
@@ -22954,7 +22684,7 @@
         <v>219</v>
       </c>
       <c r="D261" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>262</v>
@@ -23019,7 +22749,7 @@
         <v>219</v>
       </c>
       <c r="D262" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>262</v>
@@ -23081,7 +22811,7 @@
         <v>219</v>
       </c>
       <c r="D263" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>262</v>
@@ -23143,7 +22873,7 @@
         <v>219</v>
       </c>
       <c r="D264" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>262</v>
@@ -23205,7 +22935,7 @@
         <v>219</v>
       </c>
       <c r="D265" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>262</v>
@@ -23267,7 +22997,7 @@
         <v>219</v>
       </c>
       <c r="D266" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>262</v>
@@ -23329,7 +23059,7 @@
         <v>219</v>
       </c>
       <c r="D267" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>262</v>
@@ -23391,7 +23121,7 @@
         <v>219</v>
       </c>
       <c r="D268" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>262</v>
@@ -23453,7 +23183,7 @@
         <v>219</v>
       </c>
       <c r="D269" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>236</v>
@@ -23518,7 +23248,7 @@
         <v>219</v>
       </c>
       <c r="D270" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>236</v>
@@ -23580,7 +23310,7 @@
         <v>219</v>
       </c>
       <c r="D271" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>236</v>
@@ -23642,7 +23372,7 @@
         <v>219</v>
       </c>
       <c r="D272" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>236</v>
@@ -23707,7 +23437,7 @@
         <v>219</v>
       </c>
       <c r="D273" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>236</v>
@@ -23769,7 +23499,7 @@
         <v>219</v>
       </c>
       <c r="D274" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>236</v>
@@ -23831,7 +23561,7 @@
         <v>219</v>
       </c>
       <c r="D275" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>236</v>
@@ -23896,7 +23626,7 @@
         <v>219</v>
       </c>
       <c r="D276" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>236</v>
@@ -23958,7 +23688,7 @@
         <v>219</v>
       </c>
       <c r="D277" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>236</v>
@@ -24020,7 +23750,7 @@
         <v>219</v>
       </c>
       <c r="D278" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>236</v>
@@ -24085,7 +23815,7 @@
         <v>219</v>
       </c>
       <c r="D279" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>236</v>
@@ -24147,7 +23877,7 @@
         <v>219</v>
       </c>
       <c r="D280" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>236</v>
@@ -24209,7 +23939,7 @@
         <v>236</v>
       </c>
       <c r="D281" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>495</v>
@@ -24253,7 +23983,7 @@
         <v>236</v>
       </c>
       <c r="D282" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>237</v>
@@ -24321,7 +24051,7 @@
         <v>236</v>
       </c>
       <c r="D283" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>237</v>
@@ -24389,7 +24119,7 @@
         <v>236</v>
       </c>
       <c r="D284" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>237</v>
@@ -24457,7 +24187,7 @@
         <v>236</v>
       </c>
       <c r="D285" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>238</v>
@@ -24519,7 +24249,7 @@
         <v>236</v>
       </c>
       <c r="D286" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>238</v>
@@ -24581,7 +24311,7 @@
         <v>236</v>
       </c>
       <c r="D287" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>238</v>
@@ -24643,7 +24373,7 @@
         <v>236</v>
       </c>
       <c r="D288" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>238</v>
@@ -24705,7 +24435,7 @@
         <v>236</v>
       </c>
       <c r="D289" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>238</v>
@@ -24767,7 +24497,7 @@
         <v>236</v>
       </c>
       <c r="D290" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>238</v>
@@ -24829,7 +24559,7 @@
         <v>236</v>
       </c>
       <c r="D291" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>238</v>
@@ -24870,7 +24600,7 @@
         <v>236</v>
       </c>
       <c r="D292" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>246</v>
@@ -25075,7 +24805,7 @@
       <c r="C296" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D296" s="3">
+      <c r="D296" s="1">
         <v>2</v>
       </c>
       <c r="E296" s="1" t="s">
@@ -25116,7 +24846,7 @@
       <c r="C297" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D297" s="3">
+      <c r="D297" s="1">
         <v>2</v>
       </c>
       <c r="E297" s="1" t="s">
@@ -25181,7 +24911,7 @@
       <c r="C298" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D298" s="3">
+      <c r="D298" s="1">
         <v>2</v>
       </c>
       <c r="E298" s="1" t="s">
@@ -25241,129 +24971,129 @@
     <sortCondition ref="L2"/>
   </sortState>
   <conditionalFormatting sqref="N129:P134 N220:S223 O219:Q219 N225:S233 O224:Q224 N236:P246 O234:Q235 R236:S246 N177:S218 N174:R174 N135:S173 N1:S128 N248:S1048576">
-    <cfRule type="cellIs" dxfId="54" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U174 U177:U1048576">
-    <cfRule type="cellIs" dxfId="53" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W175:Y176 U1:Y174 X171:X210 W1:W280 U177:Y1048576">
-    <cfRule type="cellIs" dxfId="51" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R247:S247">
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N247:P247">
-    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V174 V177:V1048576">
-    <cfRule type="cellIs" dxfId="48" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N175:R176">
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U175:U176">
-    <cfRule type="cellIs" dxfId="45" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U175:V176">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="21" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V175:V176">
-    <cfRule type="cellIs" dxfId="42" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="20" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="cellIs" dxfId="40" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R129:R131">
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R132:R134">
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R219:S219">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N219">
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R224:S224">
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N224">
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N234">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R234:S235">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S174:S176">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S132:S134">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S129:S131">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD87D373-2AAA-4D3D-9877-AF5AE217E62F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8071673-0C81-40E1-97C4-6FBF13F46633}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
@@ -4579,9 +4579,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -6204,10 +6201,10 @@
   <dimension ref="A1:X298"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D292" sqref="D292"/>
+      <selection activeCell="S285" sqref="S285:S290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
@@ -6234,7 +6231,7 @@
     <col min="26" max="16384" width="63.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>802</v>
       </c>
@@ -6308,7 +6305,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6349,7 +6346,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6390,7 +6387,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6446,13 +6443,13 @@
         <v>1</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -6508,13 +6505,13 @@
         <v>2</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -6570,13 +6567,13 @@
         <v>3</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -6632,13 +6629,13 @@
         <v>1</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -6694,13 +6691,13 @@
         <v>2</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -6756,13 +6753,13 @@
         <v>3</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -6818,13 +6815,13 @@
         <v>1</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -6880,13 +6877,13 @@
         <v>2</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -6942,13 +6939,13 @@
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -7010,7 +7007,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -7072,7 +7069,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -7134,7 +7131,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -7196,7 +7193,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -7252,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>517</v>
@@ -7264,7 +7261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4</v>
       </c>
@@ -7320,13 +7317,13 @@
         <v>2</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -7382,13 +7379,13 @@
         <v>3</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -7444,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>517</v>
@@ -7456,7 +7453,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="11" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -7512,7 +7509,7 @@
         <v>2</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>517</v>
@@ -7522,7 +7519,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -7578,13 +7575,13 @@
         <v>3</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T22" s="11" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -7640,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>517</v>
@@ -7649,7 +7646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>5</v>
       </c>
@@ -7705,13 +7702,13 @@
         <v>2</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -7767,13 +7764,13 @@
         <v>3</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T25" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -7829,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>517</v>
@@ -7844,7 +7841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>5</v>
       </c>
@@ -7900,13 +7897,13 @@
         <v>2</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>5</v>
       </c>
@@ -7962,13 +7959,13 @@
         <v>3</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T28" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>5</v>
       </c>
@@ -8024,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>517</v>
@@ -8033,7 +8030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>5</v>
       </c>
@@ -8089,13 +8086,13 @@
         <v>2</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>5</v>
       </c>
@@ -8151,13 +8148,13 @@
         <v>3</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -8213,13 +8210,13 @@
         <v>1</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>5</v>
       </c>
@@ -8275,13 +8272,13 @@
         <v>2</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -8337,13 +8334,13 @@
         <v>3</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T34" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>6</v>
       </c>
@@ -8384,7 +8381,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>7</v>
       </c>
@@ -8449,7 +8446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>7</v>
       </c>
@@ -8517,7 +8514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -8582,7 +8579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>8</v>
       </c>
@@ -8647,7 +8644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>8</v>
       </c>
@@ -8712,7 +8709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -8777,7 +8774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>8</v>
       </c>
@@ -8842,7 +8839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>9</v>
       </c>
@@ -8898,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>517</v>
@@ -8907,7 +8904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>9</v>
       </c>
@@ -8963,13 +8960,13 @@
         <v>2</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>9</v>
       </c>
@@ -9025,13 +9022,13 @@
         <v>3</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>9</v>
       </c>
@@ -9087,7 +9084,7 @@
         <v>1</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>517</v>
@@ -9096,7 +9093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>9</v>
       </c>
@@ -9152,13 +9149,13 @@
         <v>2</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>9</v>
       </c>
@@ -9214,13 +9211,13 @@
         <v>3</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>9</v>
       </c>
@@ -9276,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>517</v>
@@ -9285,7 +9282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>9</v>
       </c>
@@ -9341,13 +9338,13 @@
         <v>2</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T50" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>9</v>
       </c>
@@ -9403,13 +9400,13 @@
         <v>3</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T51" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>9</v>
       </c>
@@ -9465,7 +9462,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>517</v>
@@ -9474,7 +9471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -9530,13 +9527,13 @@
         <v>2</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>9</v>
       </c>
@@ -9592,13 +9589,13 @@
         <v>3</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>9</v>
       </c>
@@ -9654,7 +9651,7 @@
         <v>1</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>517</v>
@@ -9663,7 +9660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -9719,13 +9716,13 @@
         <v>2</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>9</v>
       </c>
@@ -9781,13 +9778,13 @@
         <v>3</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>10</v>
       </c>
@@ -9858,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>10</v>
       </c>
@@ -9929,7 +9926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>10</v>
       </c>
@@ -9991,7 +9988,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>11</v>
       </c>
@@ -10056,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>11</v>
       </c>
@@ -10121,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>12</v>
       </c>
@@ -10165,7 +10162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>13</v>
       </c>
@@ -10209,7 +10206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>14</v>
       </c>
@@ -10265,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="S65" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>517</v>
@@ -10274,7 +10271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>14</v>
       </c>
@@ -10330,13 +10327,13 @@
         <v>2</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>14</v>
       </c>
@@ -10392,13 +10389,13 @@
         <v>3</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>14</v>
       </c>
@@ -10454,7 +10451,7 @@
         <v>1</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>517</v>
@@ -10463,7 +10460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>14</v>
       </c>
@@ -10519,13 +10516,13 @@
         <v>2</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>14</v>
       </c>
@@ -10581,13 +10578,13 @@
         <v>3</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>14</v>
       </c>
@@ -10643,7 +10640,7 @@
         <v>1</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>517</v>
@@ -10652,7 +10649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>14</v>
       </c>
@@ -10708,13 +10705,13 @@
         <v>2</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>14</v>
       </c>
@@ -10770,13 +10767,13 @@
         <v>3</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>14</v>
       </c>
@@ -10832,7 +10829,7 @@
         <v>1</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>517</v>
@@ -10841,7 +10838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>14</v>
       </c>
@@ -10897,13 +10894,13 @@
         <v>2</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>14</v>
       </c>
@@ -10959,13 +10956,13 @@
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>14</v>
       </c>
@@ -11021,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="S77" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T77" s="3" t="s">
         <v>517</v>
@@ -11030,7 +11027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>14</v>
       </c>
@@ -11086,13 +11083,13 @@
         <v>2</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>14</v>
       </c>
@@ -11148,13 +11145,13 @@
         <v>3</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>15</v>
       </c>
@@ -11195,7 +11192,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>16</v>
       </c>
@@ -11236,7 +11233,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>17</v>
       </c>
@@ -11298,7 +11295,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>18</v>
       </c>
@@ -11363,7 +11360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>18</v>
       </c>
@@ -11428,7 +11425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>18</v>
       </c>
@@ -11493,7 +11490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>18</v>
       </c>
@@ -11558,7 +11555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>18</v>
       </c>
@@ -11623,7 +11620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>19</v>
       </c>
@@ -11667,7 +11664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>20</v>
       </c>
@@ -11735,7 +11732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>21</v>
       </c>
@@ -11779,7 +11776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>22</v>
       </c>
@@ -11823,7 +11820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>23</v>
       </c>
@@ -11888,7 +11885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>23</v>
       </c>
@@ -11953,7 +11950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>24</v>
       </c>
@@ -12018,7 +12015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>24</v>
       </c>
@@ -12083,7 +12080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>24</v>
       </c>
@@ -12148,7 +12145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>25</v>
       </c>
@@ -12213,7 +12210,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>25</v>
       </c>
@@ -12278,7 +12275,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>26</v>
       </c>
@@ -12343,7 +12340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>26</v>
       </c>
@@ -12408,7 +12405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>26</v>
       </c>
@@ -12473,7 +12470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>27</v>
       </c>
@@ -12544,7 +12541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>27</v>
       </c>
@@ -12612,7 +12609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>27</v>
       </c>
@@ -12680,7 +12677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>28</v>
       </c>
@@ -12736,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="S105" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T105" s="3" t="s">
         <v>517</v>
@@ -12748,7 +12745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>28</v>
       </c>
@@ -12804,13 +12801,13 @@
         <v>2</v>
       </c>
       <c r="S106" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T106" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>28</v>
       </c>
@@ -12866,13 +12863,13 @@
         <v>3</v>
       </c>
       <c r="S107" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T107" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>28</v>
       </c>
@@ -12928,7 +12925,7 @@
         <v>1</v>
       </c>
       <c r="S108" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T108" s="3" t="s">
         <v>517</v>
@@ -12940,7 +12937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>28</v>
       </c>
@@ -12996,13 +12993,13 @@
         <v>2</v>
       </c>
       <c r="S109" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T109" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>28</v>
       </c>
@@ -13058,13 +13055,13 @@
         <v>3</v>
       </c>
       <c r="S110" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T110" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>28</v>
       </c>
@@ -13120,7 +13117,7 @@
         <v>1</v>
       </c>
       <c r="S111" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T111" s="3" t="s">
         <v>517</v>
@@ -13132,7 +13129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>28</v>
       </c>
@@ -13188,13 +13185,13 @@
         <v>2</v>
       </c>
       <c r="S112" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T112" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>28</v>
       </c>
@@ -13250,13 +13247,13 @@
         <v>3</v>
       </c>
       <c r="S113" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T113" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>28</v>
       </c>
@@ -13312,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="S114" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T114" s="3" t="s">
         <v>517</v>
@@ -13324,7 +13321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>28</v>
       </c>
@@ -13380,13 +13377,13 @@
         <v>2</v>
       </c>
       <c r="S115" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T115" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>28</v>
       </c>
@@ -13442,13 +13439,13 @@
         <v>3</v>
       </c>
       <c r="S116" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T116" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>28</v>
       </c>
@@ -13504,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="S117" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T117" s="3" t="s">
         <v>517</v>
@@ -13513,7 +13510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>28</v>
       </c>
@@ -13569,13 +13566,13 @@
         <v>2</v>
       </c>
       <c r="S118" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T118" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>28</v>
       </c>
@@ -13631,13 +13628,13 @@
         <v>3</v>
       </c>
       <c r="S119" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T119" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>28</v>
       </c>
@@ -13693,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="S120" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T120" s="3" t="s">
         <v>517</v>
@@ -13702,7 +13699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>28</v>
       </c>
@@ -13758,13 +13755,13 @@
         <v>2</v>
       </c>
       <c r="S121" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T121" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>28</v>
       </c>
@@ -13820,13 +13817,13 @@
         <v>3</v>
       </c>
       <c r="S122" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T122" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>28</v>
       </c>
@@ -13882,7 +13879,7 @@
         <v>1</v>
       </c>
       <c r="S123" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T123" s="3" t="s">
         <v>517</v>
@@ -13891,7 +13888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>28</v>
       </c>
@@ -13947,13 +13944,13 @@
         <v>2</v>
       </c>
       <c r="S124" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T124" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>28</v>
       </c>
@@ -14009,13 +14006,13 @@
         <v>3</v>
       </c>
       <c r="S125" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T125" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>28</v>
       </c>
@@ -14071,7 +14068,7 @@
         <v>1</v>
       </c>
       <c r="S126" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T126" s="3" t="s">
         <v>517</v>
@@ -14080,7 +14077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>28</v>
       </c>
@@ -14136,13 +14133,13 @@
         <v>2</v>
       </c>
       <c r="S127" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T127" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>28</v>
       </c>
@@ -14198,13 +14195,13 @@
         <v>3</v>
       </c>
       <c r="S128" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T128" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>28</v>
       </c>
@@ -14260,7 +14257,7 @@
         <v>1</v>
       </c>
       <c r="S129" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T129" s="3" t="s">
         <v>517</v>
@@ -14269,7 +14266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>28</v>
       </c>
@@ -14325,13 +14322,13 @@
         <v>2</v>
       </c>
       <c r="S130" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T130" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>28</v>
       </c>
@@ -14387,13 +14384,13 @@
         <v>3</v>
       </c>
       <c r="S131" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T131" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>28</v>
       </c>
@@ -14449,7 +14446,7 @@
         <v>1</v>
       </c>
       <c r="S132" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T132" s="3" t="s">
         <v>517</v>
@@ -14458,7 +14455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>28</v>
       </c>
@@ -14514,13 +14511,13 @@
         <v>2</v>
       </c>
       <c r="S133" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T133" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>28</v>
       </c>
@@ -14576,13 +14573,13 @@
         <v>3</v>
       </c>
       <c r="S134" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T134" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>29</v>
       </c>
@@ -14638,7 +14635,7 @@
         <v>1</v>
       </c>
       <c r="S135" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T135" s="3" t="s">
         <v>517</v>
@@ -14650,7 +14647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>29</v>
       </c>
@@ -14706,13 +14703,13 @@
         <v>2</v>
       </c>
       <c r="S136" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T136" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="119.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>29</v>
       </c>
@@ -14768,13 +14765,13 @@
         <v>3</v>
       </c>
       <c r="S137" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T137" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>29</v>
       </c>
@@ -14830,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="S138" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T138" s="3" t="s">
         <v>517</v>
@@ -14842,7 +14839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>29</v>
       </c>
@@ -14898,13 +14895,13 @@
         <v>2</v>
       </c>
       <c r="S139" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T139" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>29</v>
       </c>
@@ -14960,13 +14957,13 @@
         <v>3</v>
       </c>
       <c r="S140" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T140" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>29</v>
       </c>
@@ -15022,7 +15019,7 @@
         <v>1</v>
       </c>
       <c r="S141" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T141" s="3" t="s">
         <v>517</v>
@@ -15034,7 +15031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>29</v>
       </c>
@@ -15090,13 +15087,13 @@
         <v>2</v>
       </c>
       <c r="S142" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T142" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>29</v>
       </c>
@@ -15152,13 +15149,13 @@
         <v>3</v>
       </c>
       <c r="S143" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T143" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>29</v>
       </c>
@@ -15214,7 +15211,7 @@
         <v>1</v>
       </c>
       <c r="S144" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T144" s="3" t="s">
         <v>517</v>
@@ -15226,7 +15223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>29</v>
       </c>
@@ -15282,13 +15279,13 @@
         <v>2</v>
       </c>
       <c r="S145" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T145" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>29</v>
       </c>
@@ -15344,13 +15341,13 @@
         <v>3</v>
       </c>
       <c r="S146" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T146" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>29</v>
       </c>
@@ -15406,7 +15403,7 @@
         <v>1</v>
       </c>
       <c r="S147" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T147" s="3" t="s">
         <v>517</v>
@@ -15418,7 +15415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>29</v>
       </c>
@@ -15474,13 +15471,13 @@
         <v>2</v>
       </c>
       <c r="S148" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T148" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>29</v>
       </c>
@@ -15536,13 +15533,13 @@
         <v>3</v>
       </c>
       <c r="S149" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T149" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>29</v>
       </c>
@@ -15598,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="S150" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T150" s="3" t="s">
         <v>517</v>
@@ -15610,7 +15607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>29</v>
       </c>
@@ -15666,13 +15663,13 @@
         <v>2</v>
       </c>
       <c r="S151" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T151" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>29</v>
       </c>
@@ -15728,13 +15725,13 @@
         <v>3</v>
       </c>
       <c r="S152" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T152" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>29</v>
       </c>
@@ -15790,7 +15787,7 @@
         <v>1</v>
       </c>
       <c r="S153" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T153" s="3" t="s">
         <v>517</v>
@@ -15802,7 +15799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>29</v>
       </c>
@@ -15858,13 +15855,13 @@
         <v>2</v>
       </c>
       <c r="S154" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T154" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>29</v>
       </c>
@@ -15920,13 +15917,13 @@
         <v>3</v>
       </c>
       <c r="S155" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T155" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>29</v>
       </c>
@@ -15982,7 +15979,7 @@
         <v>1</v>
       </c>
       <c r="S156" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T156" s="3" t="s">
         <v>517</v>
@@ -15994,7 +15991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>29</v>
       </c>
@@ -16050,13 +16047,13 @@
         <v>2</v>
       </c>
       <c r="S157" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T157" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>29</v>
       </c>
@@ -16112,13 +16109,13 @@
         <v>3</v>
       </c>
       <c r="S158" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T158" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>29</v>
       </c>
@@ -16174,7 +16171,7 @@
         <v>1</v>
       </c>
       <c r="S159" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T159" s="3" t="s">
         <v>517</v>
@@ -16189,7 +16186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>29</v>
       </c>
@@ -16245,13 +16242,13 @@
         <v>2</v>
       </c>
       <c r="S160" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T160" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>29</v>
       </c>
@@ -16307,13 +16304,13 @@
         <v>3</v>
       </c>
       <c r="S161" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T161" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>29</v>
       </c>
@@ -16369,7 +16366,7 @@
         <v>1</v>
       </c>
       <c r="S162" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T162" s="3" t="s">
         <v>517</v>
@@ -16378,7 +16375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>29</v>
       </c>
@@ -16434,13 +16431,13 @@
         <v>2</v>
       </c>
       <c r="S163" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T163" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>29</v>
       </c>
@@ -16496,13 +16493,13 @@
         <v>3</v>
       </c>
       <c r="S164" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T164" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>29</v>
       </c>
@@ -16558,7 +16555,7 @@
         <v>1</v>
       </c>
       <c r="S165" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T165" s="3" t="s">
         <v>517</v>
@@ -16573,7 +16570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>29</v>
       </c>
@@ -16629,13 +16626,13 @@
         <v>2</v>
       </c>
       <c r="S166" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T166" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>29</v>
       </c>
@@ -16691,13 +16688,13 @@
         <v>3</v>
       </c>
       <c r="S167" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T167" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>29</v>
       </c>
@@ -16753,7 +16750,7 @@
         <v>1</v>
       </c>
       <c r="S168" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T168" s="3" t="s">
         <v>517</v>
@@ -16762,7 +16759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>29</v>
       </c>
@@ -16818,13 +16815,13 @@
         <v>2</v>
       </c>
       <c r="S169" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T169" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>29</v>
       </c>
@@ -16880,13 +16877,13 @@
         <v>3</v>
       </c>
       <c r="S170" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T170" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>29</v>
       </c>
@@ -16942,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="S171" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T171" s="3" t="s">
         <v>517</v>
@@ -16954,7 +16951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>29</v>
       </c>
@@ -17010,13 +17007,13 @@
         <v>2</v>
       </c>
       <c r="S172" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T172" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>29</v>
       </c>
@@ -17072,13 +17069,13 @@
         <v>3</v>
       </c>
       <c r="S173" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T173" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>29</v>
       </c>
@@ -17134,7 +17131,7 @@
         <v>1</v>
       </c>
       <c r="S174" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T174" s="3" t="s">
         <v>517</v>
@@ -17146,7 +17143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>29</v>
       </c>
@@ -17202,13 +17199,13 @@
         <v>2</v>
       </c>
       <c r="S175" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T175" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>29</v>
       </c>
@@ -17264,13 +17261,13 @@
         <v>3</v>
       </c>
       <c r="S176" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T176" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>30</v>
       </c>
@@ -17326,7 +17323,7 @@
         <v>1</v>
       </c>
       <c r="S177" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T177" s="3" t="s">
         <v>517</v>
@@ -17335,7 +17332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>30</v>
       </c>
@@ -17391,13 +17388,13 @@
         <v>2</v>
       </c>
       <c r="S178" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T178" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>30</v>
       </c>
@@ -17453,13 +17450,13 @@
         <v>3</v>
       </c>
       <c r="S179" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T179" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>30</v>
       </c>
@@ -17515,7 +17512,7 @@
         <v>1</v>
       </c>
       <c r="S180" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T180" s="3" t="s">
         <v>517</v>
@@ -17524,7 +17521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>30</v>
       </c>
@@ -17580,13 +17577,13 @@
         <v>2</v>
       </c>
       <c r="S181" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T181" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>30</v>
       </c>
@@ -17642,13 +17639,13 @@
         <v>3</v>
       </c>
       <c r="S182" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T182" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>30</v>
       </c>
@@ -17704,7 +17701,7 @@
         <v>1</v>
       </c>
       <c r="S183" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T183" s="3" t="s">
         <v>517</v>
@@ -17713,7 +17710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>30</v>
       </c>
@@ -17769,13 +17766,13 @@
         <v>2</v>
       </c>
       <c r="S184" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T184" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>30</v>
       </c>
@@ -17831,13 +17828,13 @@
         <v>3</v>
       </c>
       <c r="S185" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T185" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>30</v>
       </c>
@@ -17893,7 +17890,7 @@
         <v>1</v>
       </c>
       <c r="S186" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T186" s="3" t="s">
         <v>517</v>
@@ -17902,7 +17899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>30</v>
       </c>
@@ -17958,13 +17955,13 @@
         <v>2</v>
       </c>
       <c r="S187" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T187" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>30</v>
       </c>
@@ -18020,13 +18017,13 @@
         <v>3</v>
       </c>
       <c r="S188" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T188" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>31</v>
       </c>
@@ -18082,7 +18079,7 @@
         <v>1</v>
       </c>
       <c r="S189" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T189" s="3" t="s">
         <v>517</v>
@@ -18094,7 +18091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>31</v>
       </c>
@@ -18150,13 +18147,13 @@
         <v>2</v>
       </c>
       <c r="S190" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T190" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>31</v>
       </c>
@@ -18212,13 +18209,13 @@
         <v>3</v>
       </c>
       <c r="S191" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T191" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>31</v>
       </c>
@@ -18274,7 +18271,7 @@
         <v>1</v>
       </c>
       <c r="S192" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T192" s="3" t="s">
         <v>517</v>
@@ -18286,7 +18283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>31</v>
       </c>
@@ -18342,13 +18339,13 @@
         <v>2</v>
       </c>
       <c r="S193" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T193" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>31</v>
       </c>
@@ -18404,13 +18401,13 @@
         <v>3</v>
       </c>
       <c r="S194" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T194" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>31</v>
       </c>
@@ -18466,7 +18463,7 @@
         <v>1</v>
       </c>
       <c r="S195" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T195" s="3" t="s">
         <v>517</v>
@@ -18478,7 +18475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>31</v>
       </c>
@@ -18534,13 +18531,13 @@
         <v>2</v>
       </c>
       <c r="S196" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T196" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>31</v>
       </c>
@@ -18596,13 +18593,13 @@
         <v>3</v>
       </c>
       <c r="S197" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T197" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>31</v>
       </c>
@@ -18673,7 +18670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>32</v>
       </c>
@@ -18729,7 +18726,7 @@
         <v>1</v>
       </c>
       <c r="S199" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T199" s="3" t="s">
         <v>517</v>
@@ -18741,7 +18738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>32</v>
       </c>
@@ -18797,13 +18794,13 @@
         <v>2</v>
       </c>
       <c r="S200" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T200" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>32</v>
       </c>
@@ -18859,13 +18856,13 @@
         <v>3</v>
       </c>
       <c r="S201" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T201" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>32</v>
       </c>
@@ -18921,7 +18918,7 @@
         <v>1</v>
       </c>
       <c r="S202" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T202" s="3" t="s">
         <v>517</v>
@@ -18933,7 +18930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>32</v>
       </c>
@@ -18989,13 +18986,13 @@
         <v>2</v>
       </c>
       <c r="S203" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T203" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>32</v>
       </c>
@@ -19051,13 +19048,13 @@
         <v>3</v>
       </c>
       <c r="S204" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T204" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>32</v>
       </c>
@@ -19113,7 +19110,7 @@
         <v>1</v>
       </c>
       <c r="S205" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T205" s="3" t="s">
         <v>517</v>
@@ -19125,7 +19122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>32</v>
       </c>
@@ -19181,13 +19178,13 @@
         <v>2</v>
       </c>
       <c r="S206" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T206" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>32</v>
       </c>
@@ -19243,13 +19240,13 @@
         <v>3</v>
       </c>
       <c r="S207" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T207" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>33</v>
       </c>
@@ -19311,7 +19308,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>33</v>
       </c>
@@ -19373,7 +19370,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>33</v>
       </c>
@@ -19435,7 +19432,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>33</v>
       </c>
@@ -19500,7 +19497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>34</v>
       </c>
@@ -19565,7 +19562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>34</v>
       </c>
@@ -19627,7 +19624,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>34</v>
       </c>
@@ -19689,7 +19686,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>34</v>
       </c>
@@ -19751,7 +19748,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>35</v>
       </c>
@@ -19819,7 +19816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>35</v>
       </c>
@@ -19887,7 +19884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>35</v>
       </c>
@@ -19955,7 +19952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>35</v>
       </c>
@@ -20020,7 +20017,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>36</v>
       </c>
@@ -20088,7 +20085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>36</v>
       </c>
@@ -20156,7 +20153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>37</v>
       </c>
@@ -20221,7 +20218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>37</v>
       </c>
@@ -20286,7 +20283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>37</v>
       </c>
@@ -20351,7 +20348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>38</v>
       </c>
@@ -20416,7 +20413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>38</v>
       </c>
@@ -20481,7 +20478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>38</v>
       </c>
@@ -20549,7 +20546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>38</v>
       </c>
@@ -20617,7 +20614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>38</v>
       </c>
@@ -20682,7 +20679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>38</v>
       </c>
@@ -20747,7 +20744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>39</v>
       </c>
@@ -20791,7 +20788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>40</v>
       </c>
@@ -20856,7 +20853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>40</v>
       </c>
@@ -20921,7 +20918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>40</v>
       </c>
@@ -20986,7 +20983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>40</v>
       </c>
@@ -21051,7 +21048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>41</v>
       </c>
@@ -21119,7 +21116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="121.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>41</v>
       </c>
@@ -21190,7 +21187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="73.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>41</v>
       </c>
@@ -21255,7 +21252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>41</v>
       </c>
@@ -21326,7 +21323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="93.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>41</v>
       </c>
@@ -21394,7 +21391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="82.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>41</v>
       </c>
@@ -21462,7 +21459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="89.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>41</v>
       </c>
@@ -21533,7 +21530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="99.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>41</v>
       </c>
@@ -21601,7 +21598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="75.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>41</v>
       </c>
@@ -21666,7 +21663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="85.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>41</v>
       </c>
@@ -21734,7 +21731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>41</v>
       </c>
@@ -21805,7 +21802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>41</v>
       </c>
@@ -21873,7 +21870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>42</v>
       </c>
@@ -21938,7 +21935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>42</v>
       </c>
@@ -22009,7 +22006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>42</v>
       </c>
@@ -22071,7 +22068,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>43</v>
       </c>
@@ -22127,7 +22124,7 @@
         <v>1</v>
       </c>
       <c r="S251" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T251" s="3" t="s">
         <v>517</v>
@@ -22136,7 +22133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>43</v>
       </c>
@@ -22192,13 +22189,13 @@
         <v>2</v>
       </c>
       <c r="S252" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T252" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>43</v>
       </c>
@@ -22254,13 +22251,13 @@
         <v>3</v>
       </c>
       <c r="S253" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T253" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>43</v>
       </c>
@@ -22316,13 +22313,13 @@
         <v>1</v>
       </c>
       <c r="S254" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T254" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>43</v>
       </c>
@@ -22378,13 +22375,13 @@
         <v>2</v>
       </c>
       <c r="S255" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T255" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>43</v>
       </c>
@@ -22440,13 +22437,13 @@
         <v>3</v>
       </c>
       <c r="S256" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T256" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>43</v>
       </c>
@@ -22502,13 +22499,13 @@
         <v>1</v>
       </c>
       <c r="S257" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T257" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>43</v>
       </c>
@@ -22564,13 +22561,13 @@
         <v>2</v>
       </c>
       <c r="S258" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T258" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>43</v>
       </c>
@@ -22626,13 +22623,13 @@
         <v>3</v>
       </c>
       <c r="S259" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T259" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>44</v>
       </c>
@@ -22673,7 +22670,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>45</v>
       </c>
@@ -22729,7 +22726,7 @@
         <v>1</v>
       </c>
       <c r="S261" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T261" s="3" t="s">
         <v>517</v>
@@ -22738,7 +22735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>45</v>
       </c>
@@ -22794,13 +22791,13 @@
         <v>2</v>
       </c>
       <c r="S262" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T262" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>45</v>
       </c>
@@ -22856,13 +22853,13 @@
         <v>3</v>
       </c>
       <c r="S263" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T263" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>45</v>
       </c>
@@ -22918,13 +22915,13 @@
         <v>1</v>
       </c>
       <c r="S264" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T264" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>45</v>
       </c>
@@ -22980,13 +22977,13 @@
         <v>2</v>
       </c>
       <c r="S265" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T265" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>45</v>
       </c>
@@ -23042,13 +23039,13 @@
         <v>3</v>
       </c>
       <c r="S266" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T266" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>45</v>
       </c>
@@ -23110,7 +23107,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>45</v>
       </c>
@@ -23172,7 +23169,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>46</v>
       </c>
@@ -23228,7 +23225,7 @@
         <v>1</v>
       </c>
       <c r="S269" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T269" s="3" t="s">
         <v>517</v>
@@ -23237,7 +23234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>46</v>
       </c>
@@ -23293,13 +23290,13 @@
         <v>2</v>
       </c>
       <c r="S270" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T270" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>46</v>
       </c>
@@ -23355,13 +23352,13 @@
         <v>3</v>
       </c>
       <c r="S271" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T271" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>46</v>
       </c>
@@ -23417,7 +23414,7 @@
         <v>1</v>
       </c>
       <c r="S272" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T272" s="3" t="s">
         <v>517</v>
@@ -23426,7 +23423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>46</v>
       </c>
@@ -23482,13 +23479,13 @@
         <v>2</v>
       </c>
       <c r="S273" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T273" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>46</v>
       </c>
@@ -23544,13 +23541,13 @@
         <v>3</v>
       </c>
       <c r="S274" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T274" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>46</v>
       </c>
@@ -23606,7 +23603,7 @@
         <v>1</v>
       </c>
       <c r="S275" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T275" s="3" t="s">
         <v>517</v>
@@ -23615,7 +23612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>46</v>
       </c>
@@ -23671,13 +23668,13 @@
         <v>2</v>
       </c>
       <c r="S276" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T276" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>46</v>
       </c>
@@ -23733,13 +23730,13 @@
         <v>3</v>
       </c>
       <c r="S277" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T277" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>46</v>
       </c>
@@ -23795,7 +23792,7 @@
         <v>1</v>
       </c>
       <c r="S278" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T278" s="3" t="s">
         <v>517</v>
@@ -23804,7 +23801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>46</v>
       </c>
@@ -23860,13 +23857,13 @@
         <v>2</v>
       </c>
       <c r="S279" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T279" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>46</v>
       </c>
@@ -23922,13 +23919,13 @@
         <v>3</v>
       </c>
       <c r="S280" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T280" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>47</v>
       </c>
@@ -23972,7 +23969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>48</v>
       </c>
@@ -24040,7 +24037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>48</v>
       </c>
@@ -24108,7 +24105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>48</v>
       </c>
@@ -24176,7 +24173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>49</v>
       </c>
@@ -24232,13 +24229,13 @@
         <v>1</v>
       </c>
       <c r="S285" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T285" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>49</v>
       </c>
@@ -24294,13 +24291,13 @@
         <v>2</v>
       </c>
       <c r="S286" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T286" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>49</v>
       </c>
@@ -24356,13 +24353,13 @@
         <v>3</v>
       </c>
       <c r="S287" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T287" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>49</v>
       </c>
@@ -24418,13 +24415,13 @@
         <v>1</v>
       </c>
       <c r="S288" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T288" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="289" spans="1:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>49</v>
       </c>
@@ -24480,13 +24477,13 @@
         <v>2</v>
       </c>
       <c r="S289" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="T289" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="290" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>49</v>
       </c>
@@ -24542,13 +24539,13 @@
         <v>3</v>
       </c>
       <c r="S290" s="3" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T290" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="291" spans="1:21" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>50</v>
       </c>
@@ -24589,7 +24586,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="292" spans="1:21" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>51</v>
       </c>
@@ -24630,7 +24627,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="293" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>52</v>
       </c>
@@ -24692,7 +24689,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="294" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>52</v>
       </c>
@@ -24754,7 +24751,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="295" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>53</v>
       </c>
@@ -24795,7 +24792,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="296" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>54</v>
       </c>
@@ -24836,7 +24833,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="297" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>55</v>
       </c>
@@ -24901,7 +24898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:21" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>55</v>
       </c>
@@ -24970,135 +24967,135 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:L83">
     <sortCondition ref="L2"/>
   </sortState>
-  <conditionalFormatting sqref="N129:P134 N220:S223 O219:Q219 N225:S233 O224:Q224 N236:P246 O234:Q235 R236:S246 N177:S218 N174:R174 N135:S173 N1:S128 N248:S1048576">
-    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+  <conditionalFormatting sqref="N129:P134 N220:Q223 O219:Q219 N225:Q233 O224:Q224 N236:P246 O234:Q235 S236:S246 N177:Q218 N248:Q1048576 N1:Q128 N135:Q174 S225:S233 S220:S223 S1:S104 S144:S164 S177:S218 S248:S1048576">
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U174 U177:U1048576">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W175:Y176 U1:Y174 X171:X210 W1:W280 U177:Y1048576">
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R247:S247">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+  <conditionalFormatting sqref="S247">
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N247:P247">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V174 V177:V1048576">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N175:R176">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
+  <conditionalFormatting sqref="N175:Q176">
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U175:U176">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U175:V176">
-    <cfRule type="cellIs" dxfId="16" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V175:V176">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R129:R131">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R132:R134">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R219:S219">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+  <conditionalFormatting sqref="S219">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N219">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R224:S224">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+  <conditionalFormatting sqref="S224">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N224">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N234">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R234:S235">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="S234:S235">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S174:S176">
+  <conditionalFormatting sqref="C251:C280">
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S105:S119">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S132:S134">
+  <conditionalFormatting sqref="S120:S128">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S129:S131">
+  <conditionalFormatting sqref="S129:S143">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C251:C280">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="S165:S176">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="10000" scale="28" orientation="portrait" r:id="rId1"/>

--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8071673-0C81-40E1-97C4-6FBF13F46633}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4E3CC9B-CA49-4FC4-B801-8C9C1FE9D0BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="838">
   <si>
     <t>Komponen</t>
   </si>
@@ -3989,6 +3989,12 @@
   </si>
   <si>
     <t>Persentase SMK yang SDM nya DIBERDAYAKAN oleh stakeholders dalam konteks kerjasama professional</t>
+  </si>
+  <si>
+    <t>Sesuai</t>
+  </si>
+  <si>
+    <t>Tidak Sesuai</t>
   </si>
 </sst>
 </file>
@@ -6201,7 +6207,7 @@
   <dimension ref="A1:X298"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="S285" sqref="S285:S290"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10327,7 +10333,7 @@
         <v>2</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>518</v>
+        <v>836</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>517</v>
@@ -10389,7 +10395,7 @@
         <v>3</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>519</v>
+        <v>837</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>517</v>
@@ -10516,7 +10522,7 @@
         <v>2</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>518</v>
+        <v>836</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>517</v>
@@ -10578,7 +10584,7 @@
         <v>3</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>519</v>
+        <v>837</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>517</v>
@@ -10705,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>518</v>
+        <v>836</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>517</v>
@@ -10767,7 +10773,7 @@
         <v>3</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>519</v>
+        <v>837</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>517</v>
@@ -10894,7 +10900,7 @@
         <v>2</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>518</v>
+        <v>836</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>517</v>
@@ -10956,7 +10962,7 @@
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>519</v>
+        <v>837</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>517</v>
@@ -11083,7 +11089,7 @@
         <v>2</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>518</v>
+        <v>836</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>517</v>
@@ -11145,7 +11151,7 @@
         <v>3</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>519</v>
+        <v>837</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>517</v>
@@ -24967,7 +24973,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:L83">
     <sortCondition ref="L2"/>
   </sortState>
-  <conditionalFormatting sqref="N129:P134 N220:Q223 O219:Q219 N225:Q233 O224:Q224 N236:P246 O234:Q235 S236:S246 N177:Q218 N248:Q1048576 N1:Q128 N135:Q174 S225:S233 S220:S223 S1:S104 S144:S164 S177:S218 S248:S1048576">
+  <conditionalFormatting sqref="N129:P134 N220:Q223 O219:Q219 N225:Q233 O224:Q224 N236:P246 O234:Q235 S236:S246 N177:Q218 N248:Q1048576 N1:Q128 N135:Q174 S225:S233 S220:S223 S144:S164 S177:S218 S248:S1048576 S1:S104">
     <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9299B8F7-2830-4866-9D6C-12C9605AB67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E7D06A5-8F8B-41E2-9EB2-4F1B5F4D11E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" firstSheet="4" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
   <sheets>
     <sheet name="SNP" sheetId="9" r:id="rId1"/>
@@ -6640,8 +6640,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F424C2D-EB2F-46EA-AF4D-2212F3580F39}">
   <dimension ref="A1:X298"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="450" ySplit="555" activePane="bottomRight"/>
+      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1:R1048576"/>
+      <selection pane="bottomLeft" activeCell="A292" sqref="A292:XFD302"/>
+      <selection pane="bottomRight" activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11012,7 +11016,7 @@
         <v>2</v>
       </c>
       <c r="Q70" s="67" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="R70" s="3">
         <v>3</v>
@@ -11201,7 +11205,7 @@
         <v>3</v>
       </c>
       <c r="Q73" s="67" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="R73" s="3">
         <v>3</v>
@@ -11390,7 +11394,7 @@
         <v>4</v>
       </c>
       <c r="Q76" s="67" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R76" s="3">
         <v>3</v>
@@ -25407,7 +25411,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:L83">
     <sortCondition ref="L2"/>
   </sortState>
-  <conditionalFormatting sqref="N220:Q223 O219:Q219 N225:Q233 O224:Q224 N236:P246 O234:Q235 S236:S246 N177:Q218 N135:Q174 S225:S233 S220:S223 S144:S164 S177:S218 S1:S104 N1:Q22 N23:P34 N35:Q64 N65:P72 N73:Q128 N129:P134 N248:Q1048576 S248:S1048576">
+  <conditionalFormatting sqref="N220:Q223 O219:Q219 N225:Q233 O224:Q224 N236:P246 O234:Q235 S236:S246 N177:Q218 N135:Q174 S225:S233 S220:S223 S144:S164 S177:S218 S1:S104 N1:Q22 N23:P34 N35:Q64 N129:P134 N248:Q1048576 S248:S1048576 N65:P73 N74:Q128">
     <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E7D06A5-8F8B-41E2-9EB2-4F1B5F4D11E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE984F8B-3FE0-4911-AE99-E55D2E74C086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" firstSheet="4" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
   <sheets>
     <sheet name="SNP" sheetId="9" r:id="rId1"/>
@@ -258,7 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="834">
   <si>
     <t>Komponen</t>
   </si>
@@ -5657,8 +5657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEB403F-935E-4ABA-926A-2374A4A02C78}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6641,11 +6641,9 @@
   <dimension ref="A1:X298"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="450" ySplit="555" activePane="bottomRight"/>
-      <selection sqref="A1:XFD1048576"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1:R1048576"/>
-      <selection pane="bottomLeft" activeCell="A292" sqref="A292:XFD302"/>
-      <selection pane="bottomRight" activeCell="Q79" sqref="Q79"/>
+      <pane ySplit="555" activePane="bottomLeft"/>
+      <selection activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8278,8 +8276,8 @@
       <c r="U26" s="33">
         <v>2</v>
       </c>
-      <c r="W26" s="1">
-        <v>2</v>
+      <c r="W26" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="X26" s="1">
         <v>5</v>
@@ -10292,8 +10290,8 @@
       <c r="V58" s="30">
         <v>1</v>
       </c>
-      <c r="W58" s="1">
-        <v>3</v>
+      <c r="W58" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="X58" s="1">
         <v>1</v>
@@ -10363,8 +10361,8 @@
       <c r="V59" s="30">
         <v>1</v>
       </c>
-      <c r="W59" s="1">
-        <v>3</v>
+      <c r="W59" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="X59" s="1">
         <v>1</v>
@@ -13182,8 +13180,8 @@
       <c r="T105" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W105" s="1">
-        <v>2</v>
+      <c r="W105" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="X105" s="1">
         <v>5</v>
@@ -13374,8 +13372,8 @@
       <c r="T108" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W108" s="1">
-        <v>2</v>
+      <c r="W108" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="X108" s="1">
         <v>5</v>
@@ -13566,8 +13564,8 @@
       <c r="T111" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W111" s="1">
-        <v>2</v>
+      <c r="W111" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="X111" s="1">
         <v>5</v>
@@ -13758,8 +13756,8 @@
       <c r="T114" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W114" s="1">
-        <v>2</v>
+      <c r="W114" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="X114" s="1">
         <v>5</v>
@@ -16623,8 +16621,8 @@
       <c r="V159" s="30">
         <v>6</v>
       </c>
-      <c r="W159" s="1">
-        <v>2</v>
+      <c r="W159" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="X159" s="1">
         <v>5</v>
@@ -17007,8 +17005,8 @@
       <c r="V165" s="30">
         <v>6</v>
       </c>
-      <c r="W165" s="1">
-        <v>2</v>
+      <c r="W165" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="X165" s="1">
         <v>5</v>
@@ -19107,8 +19105,8 @@
       <c r="V198" s="30">
         <v>4</v>
       </c>
-      <c r="W198" s="1">
-        <v>3</v>
+      <c r="W198" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="X198" s="1">
         <v>5</v>
@@ -20983,8 +20981,8 @@
       <c r="T227" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W227" s="1">
-        <v>3</v>
+      <c r="W227" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="X227" s="1">
         <v>3</v>
@@ -21051,8 +21049,8 @@
       <c r="T228" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W228" s="1">
-        <v>3</v>
+      <c r="W228" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="X228" s="1">
         <v>3</v>
@@ -21423,8 +21421,8 @@
       <c r="T234" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W234" s="1">
-        <v>1</v>
+      <c r="W234" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="235" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21488,8 +21486,8 @@
       <c r="T235" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W235" s="1">
-        <v>1</v>
+      <c r="W235" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="236" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21760,8 +21758,8 @@
       <c r="V239" s="30">
         <v>8</v>
       </c>
-      <c r="W239" s="1">
-        <v>1</v>
+      <c r="W239" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="X239" s="1">
         <v>4</v>
@@ -21967,8 +21965,8 @@
       <c r="V242" s="30">
         <v>8</v>
       </c>
-      <c r="W242" s="1">
-        <v>3</v>
+      <c r="W242" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="X242" s="1">
         <v>4</v>
@@ -22239,8 +22237,8 @@
       <c r="V246" s="30">
         <v>8</v>
       </c>
-      <c r="W246" s="1">
-        <v>1</v>
+      <c r="W246" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="X246" s="1">
         <v>4</v>
@@ -22310,8 +22308,8 @@
       <c r="V247" s="30">
         <v>8</v>
       </c>
-      <c r="W247" s="1">
-        <v>1</v>
+      <c r="W247" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="248" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -22446,8 +22444,8 @@
       <c r="V249" s="30">
         <v>8</v>
       </c>
-      <c r="W249" s="1">
-        <v>1</v>
+      <c r="W249" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="250" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -22573,8 +22571,8 @@
       <c r="T251" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W251" s="1">
-        <v>1</v>
+      <c r="W251" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -23175,8 +23173,8 @@
       <c r="T261" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W261" s="1">
-        <v>1</v>
+      <c r="W261" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="262" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">

--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE984F8B-3FE0-4911-AE99-E55D2E74C086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAABAB6-3ABC-41DD-96CB-365C9DD12715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
@@ -18,7 +18,11 @@
     <sheet name="link&amp;match" sheetId="7" r:id="rId3"/>
     <sheet name="renstra" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$Y$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -258,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4691" uniqueCount="841">
   <si>
     <t>Komponen</t>
   </si>
@@ -4409,12 +4413,33 @@
       <t xml:space="preserve"> dalam konteks kerjasama professional</t>
     </r>
   </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>1;2;3;4;5;6;8;i</t>
+  </si>
+  <si>
+    <t>1;2;7</t>
+  </si>
+  <si>
+    <t>6;I</t>
+  </si>
+  <si>
+    <t>2;3;7</t>
+  </si>
+  <si>
+    <t>ambil dari jawaban (snp)</t>
+  </si>
+  <si>
+    <t>HITUNG DARI NILAI JAWABAN KUESIONER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4547,6 +4572,12 @@
       <color theme="1"/>
       <name val="Bookman Old Style"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -4977,7 +5008,357 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5102,36 +5483,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5657,8 +6008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEB403F-935E-4ABA-926A-2374A4A02C78}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6638,15 +6989,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F424C2D-EB2F-46EA-AF4D-2212F3580F39}">
-  <dimension ref="A1:X298"/>
+  <dimension ref="A1:Y298"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="555" activePane="bottomLeft"/>
-      <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K145" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="M290" sqref="M290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="3" customWidth="1"/>
@@ -6658,22 +7007,22 @@
     <col min="8" max="11" width="24.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" style="21" customWidth="1"/>
     <col min="13" max="13" width="109.28515625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="3" customWidth="1"/>
     <col min="15" max="15" width="23.28515625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="109.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="13" style="3" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="33" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="30" customWidth="1"/>
     <col min="23" max="23" width="8.28515625" style="1" customWidth="1"/>
     <col min="24" max="24" width="8.7109375" style="1" customWidth="1"/>
     <col min="25" max="25" width="26.7109375" style="3" customWidth="1"/>
     <col min="26" max="16384" width="63.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>768</v>
       </c>
@@ -6747,7 +7096,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6788,7 +7137,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6829,7 +7178,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6891,7 +7240,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -6953,7 +7302,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -7015,7 +7364,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -7077,7 +7426,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -7139,7 +7488,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -7201,7 +7550,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -7263,7 +7612,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -7325,7 +7674,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -7387,7 +7736,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>3</v>
       </c>
@@ -7449,7 +7798,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -7511,7 +7860,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -7573,7 +7922,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -7635,7 +7984,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -7696,14 +8045,14 @@
       <c r="T17" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V17" s="30" t="s">
-        <v>691</v>
+      <c r="V17" s="30">
+        <v>5</v>
       </c>
       <c r="X17" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4</v>
       </c>
@@ -7765,7 +8114,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -7827,7 +8176,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -7891,11 +8240,14 @@
       <c r="U20" s="33">
         <v>4</v>
       </c>
-      <c r="V20" s="30" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="30">
+        <v>5</v>
+      </c>
+      <c r="X20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -7961,7 +8313,7 @@
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
     </row>
-    <row r="22" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -8023,7 +8375,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -8084,11 +8436,17 @@
       <c r="T23" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V23" s="30">
+        <v>6</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>717</v>
+      </c>
       <c r="X23" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>5</v>
       </c>
@@ -8150,7 +8508,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>5</v>
       </c>
@@ -8212,7 +8570,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -8283,7 +8641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>5</v>
       </c>
@@ -8345,7 +8703,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>5</v>
       </c>
@@ -8407,7 +8765,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>5</v>
       </c>
@@ -8468,11 +8826,14 @@
       <c r="T29" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V29" s="30">
+        <v>6</v>
+      </c>
       <c r="X29" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>5</v>
       </c>
@@ -8534,7 +8895,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>5</v>
       </c>
@@ -8596,7 +8957,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>5</v>
       </c>
@@ -8657,8 +9018,11 @@
       <c r="T32" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V32" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>5</v>
       </c>
@@ -8720,7 +9084,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -8782,7 +9146,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>6</v>
       </c>
@@ -8823,7 +9187,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>7</v>
       </c>
@@ -8884,11 +9248,14 @@
       <c r="T36" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V36" s="30">
+        <v>7</v>
+      </c>
       <c r="X36" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>7</v>
       </c>
@@ -8949,14 +9316,14 @@
       <c r="T37" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V37" s="30" t="s">
-        <v>692</v>
+      <c r="V37" s="30">
+        <v>7</v>
       </c>
       <c r="X37" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -9021,7 +9388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>8</v>
       </c>
@@ -9086,7 +9453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>8</v>
       </c>
@@ -9151,7 +9518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -9216,7 +9583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>8</v>
       </c>
@@ -9281,7 +9648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>9</v>
       </c>
@@ -9346,7 +9713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>9</v>
       </c>
@@ -9408,7 +9775,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>9</v>
       </c>
@@ -9470,7 +9837,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>9</v>
       </c>
@@ -9535,7 +9902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>9</v>
       </c>
@@ -9597,7 +9964,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>9</v>
       </c>
@@ -9659,7 +10026,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>9</v>
       </c>
@@ -9724,7 +10091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>9</v>
       </c>
@@ -9786,7 +10153,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>9</v>
       </c>
@@ -9848,7 +10215,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>9</v>
       </c>
@@ -9913,7 +10280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -9975,7 +10342,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>9</v>
       </c>
@@ -10037,7 +10404,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>9</v>
       </c>
@@ -10102,7 +10469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -10164,7 +10531,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>9</v>
       </c>
@@ -10226,7 +10593,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>10</v>
       </c>
@@ -10297,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>10</v>
       </c>
@@ -10368,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>10</v>
       </c>
@@ -10430,7 +10797,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>11</v>
       </c>
@@ -10491,11 +10858,14 @@
       <c r="T61" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V61" s="30">
+        <v>1</v>
+      </c>
       <c r="X61" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>11</v>
       </c>
@@ -10556,11 +10926,14 @@
       <c r="T62" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V62" s="30">
+        <v>1</v>
+      </c>
       <c r="X62" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>12</v>
       </c>
@@ -10600,11 +10973,14 @@
       <c r="M63" s="1" t="s">
         <v>345</v>
       </c>
+      <c r="V63" s="30" t="s">
+        <v>834</v>
+      </c>
       <c r="X63" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>13</v>
       </c>
@@ -10644,11 +11020,14 @@
       <c r="M64" s="1" t="s">
         <v>661</v>
       </c>
+      <c r="V64" s="30" t="s">
+        <v>834</v>
+      </c>
       <c r="X64" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>14</v>
       </c>
@@ -10709,11 +11088,14 @@
       <c r="T65" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V65" s="30" t="s">
+        <v>834</v>
+      </c>
       <c r="X65" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>14</v>
       </c>
@@ -10775,7 +11157,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>14</v>
       </c>
@@ -10837,7 +11219,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>14</v>
       </c>
@@ -10898,11 +11280,14 @@
       <c r="T68" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V68" s="30" t="s">
+        <v>834</v>
+      </c>
       <c r="X68" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>14</v>
       </c>
@@ -10964,7 +11349,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>14</v>
       </c>
@@ -11026,7 +11411,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>14</v>
       </c>
@@ -11087,11 +11472,14 @@
       <c r="T71" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V71" s="30" t="s">
+        <v>834</v>
+      </c>
       <c r="X71" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>14</v>
       </c>
@@ -11153,7 +11541,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>14</v>
       </c>
@@ -11215,7 +11603,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>14</v>
       </c>
@@ -11276,11 +11664,14 @@
       <c r="T74" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V74" s="30" t="s">
+        <v>834</v>
+      </c>
       <c r="X74" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>14</v>
       </c>
@@ -11342,7 +11733,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>14</v>
       </c>
@@ -11404,7 +11795,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>14</v>
       </c>
@@ -11465,11 +11856,14 @@
       <c r="T77" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V77" s="30" t="s">
+        <v>834</v>
+      </c>
       <c r="X77" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>14</v>
       </c>
@@ -11531,7 +11925,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>14</v>
       </c>
@@ -11593,7 +11987,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>15</v>
       </c>
@@ -11634,7 +12028,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>16</v>
       </c>
@@ -11674,8 +12068,11 @@
       <c r="M81" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V81" s="30" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>17</v>
       </c>
@@ -11736,8 +12133,11 @@
       <c r="T82" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V82" s="30" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>18</v>
       </c>
@@ -11798,11 +12198,14 @@
       <c r="T83" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V83" s="30">
+        <v>1</v>
+      </c>
       <c r="X83" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>18</v>
       </c>
@@ -11863,11 +12266,14 @@
       <c r="T84" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V84" s="30">
+        <v>1</v>
+      </c>
       <c r="X84" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>18</v>
       </c>
@@ -11928,11 +12334,14 @@
       <c r="T85" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V85" s="30">
+        <v>1</v>
+      </c>
       <c r="X85" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>18</v>
       </c>
@@ -11993,11 +12402,14 @@
       <c r="T86" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V86" s="30">
+        <v>1</v>
+      </c>
       <c r="X86" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>18</v>
       </c>
@@ -12058,11 +12470,14 @@
       <c r="T87" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V87" s="30">
+        <v>1</v>
+      </c>
       <c r="X87" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>19</v>
       </c>
@@ -12102,11 +12517,14 @@
       <c r="M88" s="1" t="s">
         <v>371</v>
       </c>
+      <c r="V88" s="30">
+        <v>1</v>
+      </c>
       <c r="X88" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>20</v>
       </c>
@@ -12174,7 +12592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>21</v>
       </c>
@@ -12218,7 +12636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>22</v>
       </c>
@@ -12262,7 +12680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>23</v>
       </c>
@@ -12323,11 +12741,14 @@
       <c r="T92" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V92" s="30">
+        <v>6</v>
+      </c>
       <c r="X92" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>23</v>
       </c>
@@ -12388,11 +12809,14 @@
       <c r="T93" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V93" s="30">
+        <v>6</v>
+      </c>
       <c r="X93" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>24</v>
       </c>
@@ -12453,11 +12877,14 @@
       <c r="T94" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V94" s="30">
+      <c r="V94" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="X94" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>24</v>
       </c>
@@ -12518,11 +12945,14 @@
       <c r="T95" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V95" s="30">
+      <c r="V95" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="X95" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>24</v>
       </c>
@@ -12583,11 +13013,14 @@
       <c r="T96" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V96" s="30">
+      <c r="V96" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="X96" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>25</v>
       </c>
@@ -12648,11 +13081,14 @@
       <c r="T97" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V97" s="30">
+        <v>2</v>
+      </c>
       <c r="X97" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>25</v>
       </c>
@@ -12713,11 +13149,14 @@
       <c r="T98" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V98" s="30">
+        <v>2</v>
+      </c>
       <c r="X98" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>26</v>
       </c>
@@ -12778,11 +13217,14 @@
       <c r="T99" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V99" s="30" t="s">
+        <v>835</v>
+      </c>
       <c r="X99" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>26</v>
       </c>
@@ -12843,11 +13285,14 @@
       <c r="T100" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V100" s="30" t="s">
+        <v>835</v>
+      </c>
       <c r="X100" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>26</v>
       </c>
@@ -12908,11 +13353,14 @@
       <c r="T101" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V101" s="30" t="s">
+        <v>835</v>
+      </c>
       <c r="X101" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>27</v>
       </c>
@@ -12976,14 +13424,14 @@
       <c r="U102" s="33">
         <v>4</v>
       </c>
-      <c r="V102" s="30">
-        <v>2</v>
+      <c r="V102" s="30" t="s">
+        <v>836</v>
       </c>
       <c r="X102" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>27</v>
       </c>
@@ -13044,14 +13492,14 @@
       <c r="T103" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V103" s="30">
-        <v>2</v>
+      <c r="V103" s="30" t="s">
+        <v>836</v>
       </c>
       <c r="X103" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>27</v>
       </c>
@@ -13112,14 +13560,14 @@
       <c r="T104" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V104" s="30">
-        <v>2</v>
+      <c r="V104" s="30" t="s">
+        <v>836</v>
       </c>
       <c r="X104" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>28</v>
       </c>
@@ -13187,7 +13635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>28</v>
       </c>
@@ -13249,7 +13697,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>28</v>
       </c>
@@ -13311,7 +13759,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>28</v>
       </c>
@@ -13379,7 +13827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>28</v>
       </c>
@@ -13441,7 +13889,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>28</v>
       </c>
@@ -13503,7 +13951,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>28</v>
       </c>
@@ -13571,7 +14019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>28</v>
       </c>
@@ -13633,7 +14081,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>28</v>
       </c>
@@ -13695,7 +14143,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>28</v>
       </c>
@@ -13756,14 +14204,11 @@
       <c r="T114" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W114" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="X114" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>28</v>
       </c>
@@ -13825,7 +14270,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>28</v>
       </c>
@@ -13887,7 +14332,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>28</v>
       </c>
@@ -13952,7 +14397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>28</v>
       </c>
@@ -14014,7 +14459,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>28</v>
       </c>
@@ -14076,7 +14521,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>28</v>
       </c>
@@ -14137,11 +14582,14 @@
       <c r="T120" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="W120" s="1" t="s">
+        <v>717</v>
+      </c>
       <c r="X120" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>28</v>
       </c>
@@ -14203,7 +14651,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>28</v>
       </c>
@@ -14265,7 +14713,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>28</v>
       </c>
@@ -14330,7 +14778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>28</v>
       </c>
@@ -14392,7 +14840,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>28</v>
       </c>
@@ -14454,7 +14902,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>28</v>
       </c>
@@ -14519,7 +14967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>28</v>
       </c>
@@ -14581,7 +15029,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>28</v>
       </c>
@@ -14643,7 +15091,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>28</v>
       </c>
@@ -14704,11 +15152,8 @@
       <c r="T129" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X129" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>28</v>
       </c>
@@ -14770,7 +15215,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>28</v>
       </c>
@@ -14832,7 +15277,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>28</v>
       </c>
@@ -14893,11 +15338,8 @@
       <c r="T132" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X132" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>28</v>
       </c>
@@ -14959,7 +15401,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>28</v>
       </c>
@@ -15021,7 +15463,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>29</v>
       </c>
@@ -15082,14 +15524,14 @@
       <c r="T135" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V135" s="30">
-        <v>6</v>
+      <c r="V135" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="X135" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>29</v>
       </c>
@@ -15151,7 +15593,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>29</v>
       </c>
@@ -15213,7 +15655,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>29</v>
       </c>
@@ -15274,14 +15716,14 @@
       <c r="T138" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V138" s="30">
-        <v>6</v>
+      <c r="V138" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="X138" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>29</v>
       </c>
@@ -15343,7 +15785,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>29</v>
       </c>
@@ -15405,7 +15847,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>29</v>
       </c>
@@ -15466,14 +15908,14 @@
       <c r="T141" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V141" s="30">
-        <v>6</v>
+      <c r="V141" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="X141" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>29</v>
       </c>
@@ -15535,7 +15977,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>29</v>
       </c>
@@ -15597,7 +16039,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>29</v>
       </c>
@@ -15658,14 +16100,14 @@
       <c r="T144" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V144" s="30">
-        <v>6</v>
+      <c r="V144" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="X144" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>29</v>
       </c>
@@ -15727,7 +16169,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>29</v>
       </c>
@@ -15789,7 +16231,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>29</v>
       </c>
@@ -15850,14 +16292,14 @@
       <c r="T147" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V147" s="30">
-        <v>6</v>
+      <c r="V147" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="X147" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>29</v>
       </c>
@@ -15919,7 +16361,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>29</v>
       </c>
@@ -15981,7 +16423,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>29</v>
       </c>
@@ -16042,14 +16484,14 @@
       <c r="T150" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V150" s="30">
-        <v>6</v>
+      <c r="V150" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="X150" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>29</v>
       </c>
@@ -16111,7 +16553,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>29</v>
       </c>
@@ -16173,7 +16615,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>29</v>
       </c>
@@ -16234,14 +16676,14 @@
       <c r="T153" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V153" s="30">
-        <v>6</v>
+      <c r="V153" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="X153" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>29</v>
       </c>
@@ -16303,7 +16745,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>29</v>
       </c>
@@ -16365,7 +16807,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>29</v>
       </c>
@@ -16426,14 +16868,14 @@
       <c r="T156" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V156" s="30">
-        <v>6</v>
+      <c r="V156" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="X156" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>29</v>
       </c>
@@ -16495,7 +16937,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>29</v>
       </c>
@@ -16557,7 +16999,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>29</v>
       </c>
@@ -16618,8 +17060,8 @@
       <c r="T159" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V159" s="30">
-        <v>6</v>
+      <c r="V159" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="W159" s="1" t="s">
         <v>717</v>
@@ -16628,7 +17070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>29</v>
       </c>
@@ -16690,7 +17132,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>29</v>
       </c>
@@ -16752,7 +17194,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>29</v>
       </c>
@@ -16813,11 +17255,14 @@
       <c r="T162" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V162" s="30" t="s">
+        <v>691</v>
+      </c>
       <c r="X162" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>29</v>
       </c>
@@ -16879,7 +17324,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>29</v>
       </c>
@@ -16941,7 +17386,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>29</v>
       </c>
@@ -17002,8 +17447,8 @@
       <c r="T165" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V165" s="30">
-        <v>6</v>
+      <c r="V165" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="W165" s="1" t="s">
         <v>717</v>
@@ -17012,7 +17457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>29</v>
       </c>
@@ -17074,7 +17519,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>29</v>
       </c>
@@ -17136,7 +17581,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>29</v>
       </c>
@@ -17197,11 +17642,14 @@
       <c r="T168" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V168" s="30" t="s">
+        <v>691</v>
+      </c>
       <c r="X168" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>29</v>
       </c>
@@ -17263,7 +17711,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>29</v>
       </c>
@@ -17325,7 +17773,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>29</v>
       </c>
@@ -17386,14 +17834,14 @@
       <c r="T171" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V171" s="30">
-        <v>6</v>
+      <c r="V171" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="X171" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>29</v>
       </c>
@@ -17455,7 +17903,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>29</v>
       </c>
@@ -17517,7 +17965,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>29</v>
       </c>
@@ -17578,14 +18026,14 @@
       <c r="T174" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V174" s="30">
-        <v>6</v>
+      <c r="V174" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="X174" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>29</v>
       </c>
@@ -17647,7 +18095,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>29</v>
       </c>
@@ -17709,7 +18157,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>30</v>
       </c>
@@ -17770,11 +18218,14 @@
       <c r="T177" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V177" s="30" t="s">
+        <v>691</v>
+      </c>
       <c r="X177" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>30</v>
       </c>
@@ -17836,7 +18287,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>30</v>
       </c>
@@ -17898,7 +18349,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>30</v>
       </c>
@@ -17959,11 +18410,14 @@
       <c r="T180" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V180" s="30" t="s">
+        <v>691</v>
+      </c>
       <c r="X180" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>30</v>
       </c>
@@ -18025,7 +18479,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>30</v>
       </c>
@@ -18087,7 +18541,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>30</v>
       </c>
@@ -18148,11 +18602,14 @@
       <c r="T183" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V183" s="30" t="s">
+        <v>691</v>
+      </c>
       <c r="X183" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>30</v>
       </c>
@@ -18214,7 +18671,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>30</v>
       </c>
@@ -18276,7 +18733,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>30</v>
       </c>
@@ -18337,11 +18794,14 @@
       <c r="T186" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V186" s="30" t="s">
+        <v>691</v>
+      </c>
       <c r="X186" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>30</v>
       </c>
@@ -18403,7 +18863,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>30</v>
       </c>
@@ -18465,7 +18925,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>31</v>
       </c>
@@ -18526,14 +18986,17 @@
       <c r="T189" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V189" s="30">
-        <v>4</v>
+      <c r="V189" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="W189" s="1" t="s">
+        <v>731</v>
       </c>
       <c r="X189" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>31</v>
       </c>
@@ -18595,7 +19058,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>31</v>
       </c>
@@ -18657,7 +19120,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>31</v>
       </c>
@@ -18718,14 +19181,14 @@
       <c r="T192" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V192" s="30">
-        <v>4</v>
+      <c r="V192" s="30" t="s">
+        <v>834</v>
       </c>
       <c r="X192" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>31</v>
       </c>
@@ -18787,7 +19250,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>31</v>
       </c>
@@ -18849,7 +19312,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>31</v>
       </c>
@@ -18910,14 +19373,14 @@
       <c r="T195" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V195" s="30">
-        <v>4</v>
+      <c r="V195" s="30" t="s">
+        <v>834</v>
       </c>
       <c r="X195" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>31</v>
       </c>
@@ -18979,7 +19442,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>31</v>
       </c>
@@ -19041,7 +19504,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>31</v>
       </c>
@@ -19102,17 +19565,17 @@
       <c r="T198" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V198" s="30">
-        <v>4</v>
+      <c r="V198" s="30" t="s">
+        <v>834</v>
       </c>
       <c r="W198" s="1" t="s">
         <v>731</v>
       </c>
       <c r="X198" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>32</v>
       </c>
@@ -19174,13 +19637,13 @@
         <v>496</v>
       </c>
       <c r="V199" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X199" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>32</v>
       </c>
@@ -19242,7 +19705,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>32</v>
       </c>
@@ -19304,7 +19767,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>32</v>
       </c>
@@ -19366,13 +19829,13 @@
         <v>496</v>
       </c>
       <c r="V202" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X202" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>32</v>
       </c>
@@ -19434,7 +19897,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>32</v>
       </c>
@@ -19496,7 +19959,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>32</v>
       </c>
@@ -19558,13 +20021,13 @@
         <v>496</v>
       </c>
       <c r="V205" s="30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X205" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>32</v>
       </c>
@@ -19626,7 +20089,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>32</v>
       </c>
@@ -19688,7 +20151,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>33</v>
       </c>
@@ -19749,8 +20212,17 @@
       <c r="T208" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="209" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V208" s="30">
+        <v>3</v>
+      </c>
+      <c r="W208" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y208" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>33</v>
       </c>
@@ -19811,8 +20283,11 @@
       <c r="T209" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="210" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V209" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>33</v>
       </c>
@@ -19873,8 +20348,11 @@
       <c r="T210" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="211" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V210" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>33</v>
       </c>
@@ -19939,7 +20417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>34</v>
       </c>
@@ -20004,7 +20482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>34</v>
       </c>
@@ -20065,8 +20543,11 @@
       <c r="T213" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="214" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V213" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>34</v>
       </c>
@@ -20127,8 +20608,11 @@
       <c r="T214" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="215" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V214" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>34</v>
       </c>
@@ -20189,8 +20673,11 @@
       <c r="T215" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="216" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V215" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>35</v>
       </c>
@@ -20252,13 +20739,13 @@
         <v>496</v>
       </c>
       <c r="V216" s="30" t="s">
-        <v>674</v>
+        <v>837</v>
       </c>
       <c r="X216" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>35</v>
       </c>
@@ -20320,13 +20807,13 @@
         <v>496</v>
       </c>
       <c r="V217" s="30" t="s">
-        <v>674</v>
+        <v>837</v>
       </c>
       <c r="X217" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>35</v>
       </c>
@@ -20388,13 +20875,13 @@
         <v>496</v>
       </c>
       <c r="V218" s="30" t="s">
-        <v>674</v>
+        <v>837</v>
       </c>
       <c r="X218" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>35</v>
       </c>
@@ -20455,11 +20942,8 @@
       <c r="T219" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V219" s="30" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="220" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>36</v>
       </c>
@@ -20520,14 +21004,14 @@
       <c r="T220" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V220" s="30">
-        <v>2</v>
+      <c r="V220" s="30" t="s">
+        <v>838</v>
       </c>
       <c r="X220" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>36</v>
       </c>
@@ -20588,14 +21072,14 @@
       <c r="T221" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V221" s="30">
-        <v>2</v>
+      <c r="V221" s="30" t="s">
+        <v>838</v>
       </c>
       <c r="X221" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>37</v>
       </c>
@@ -20656,11 +21140,17 @@
       <c r="T222" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X222" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V222" s="30">
+        <v>2</v>
+      </c>
+      <c r="W222" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y222" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>37</v>
       </c>
@@ -20721,11 +21211,14 @@
       <c r="T223" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V223" s="30">
+        <v>2</v>
+      </c>
       <c r="X223" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>37</v>
       </c>
@@ -20786,11 +21279,8 @@
       <c r="T224" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X224" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>38</v>
       </c>
@@ -20851,11 +21341,17 @@
       <c r="T225" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V225" s="30">
+        <v>5</v>
+      </c>
+      <c r="W225" s="1" t="s">
+        <v>731</v>
+      </c>
       <c r="X225" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>38</v>
       </c>
@@ -20916,11 +21412,14 @@
       <c r="T226" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V226" s="30">
+        <v>5</v>
+      </c>
       <c r="X226" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>38</v>
       </c>
@@ -20981,6 +21480,9 @@
       <c r="T227" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V227" s="30">
+        <v>5</v>
+      </c>
       <c r="W227" s="1" t="s">
         <v>731</v>
       </c>
@@ -20988,7 +21490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>38</v>
       </c>
@@ -21049,14 +21551,14 @@
       <c r="T228" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W228" s="1" t="s">
-        <v>731</v>
+      <c r="V228" s="30">
+        <v>5</v>
       </c>
       <c r="X228" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>38</v>
       </c>
@@ -21117,11 +21619,14 @@
       <c r="T229" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V229" s="30">
+        <v>5</v>
+      </c>
       <c r="X229" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>38</v>
       </c>
@@ -21182,11 +21687,14 @@
       <c r="T230" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V230" s="30">
+        <v>5</v>
+      </c>
       <c r="X230" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>39</v>
       </c>
@@ -21226,11 +21734,14 @@
       <c r="M231" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="V231" s="30">
+        <v>5</v>
+      </c>
       <c r="X231" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>40</v>
       </c>
@@ -21291,11 +21802,17 @@
       <c r="T232" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V232" s="30">
+        <v>5</v>
+      </c>
+      <c r="W232" s="1" t="s">
+        <v>695</v>
+      </c>
       <c r="X232" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>40</v>
       </c>
@@ -21356,11 +21873,14 @@
       <c r="T233" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V233" s="30">
+        <v>5</v>
+      </c>
       <c r="X233" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>40</v>
       </c>
@@ -21421,11 +21941,8 @@
       <c r="T234" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W234" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>40</v>
       </c>
@@ -21486,11 +22003,8 @@
       <c r="T235" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W235" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="236" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>41</v>
       </c>
@@ -21554,11 +22068,14 @@
       <c r="U236" s="33" t="s">
         <v>664</v>
       </c>
+      <c r="V236" s="30">
+        <v>8</v>
+      </c>
       <c r="X236" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>41</v>
       </c>
@@ -21629,7 +22146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>41</v>
       </c>
@@ -21690,11 +22207,14 @@
       <c r="T238" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V238" s="30">
+        <v>8</v>
+      </c>
       <c r="X238" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>41</v>
       </c>
@@ -21765,7 +22285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>41</v>
       </c>
@@ -21833,7 +22353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>41</v>
       </c>
@@ -21901,7 +22421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>41</v>
       </c>
@@ -21972,7 +22492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>41</v>
       </c>
@@ -22040,7 +22560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>41</v>
       </c>
@@ -22101,11 +22621,14 @@
       <c r="T244" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="V244" s="30">
+        <v>8</v>
+      </c>
       <c r="X244" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>41</v>
       </c>
@@ -22173,7 +22696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>41</v>
       </c>
@@ -22244,7 +22767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>41</v>
       </c>
@@ -22305,14 +22828,8 @@
       <c r="T247" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="V247" s="30">
-        <v>8</v>
-      </c>
-      <c r="W247" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>42</v>
       </c>
@@ -22377,7 +22894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>42</v>
       </c>
@@ -22448,7 +22965,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>42</v>
       </c>
@@ -22509,8 +23026,11 @@
       <c r="T250" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="251" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V250" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>43</v>
       </c>
@@ -22575,7 +23095,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>43</v>
       </c>
@@ -22637,7 +23157,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>43</v>
       </c>
@@ -22699,7 +23219,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>43</v>
       </c>
@@ -22761,7 +23281,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>43</v>
       </c>
@@ -22823,7 +23343,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>43</v>
       </c>
@@ -22885,7 +23405,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>43</v>
       </c>
@@ -22947,7 +23467,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>43</v>
       </c>
@@ -23009,7 +23529,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>43</v>
       </c>
@@ -23071,7 +23591,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>44</v>
       </c>
@@ -23112,7 +23632,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>45</v>
       </c>
@@ -23173,11 +23693,8 @@
       <c r="T261" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="W261" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="262" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>45</v>
       </c>
@@ -23239,7 +23756,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>45</v>
       </c>
@@ -23301,7 +23818,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>45</v>
       </c>
@@ -23362,8 +23879,11 @@
       <c r="T264" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="265" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W264" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>45</v>
       </c>
@@ -23425,7 +23945,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>45</v>
       </c>
@@ -23487,7 +24007,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>45</v>
       </c>
@@ -23549,7 +24069,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>45</v>
       </c>
@@ -23611,7 +24131,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>46</v>
       </c>
@@ -23651,11 +24171,17 @@
       <c r="M269" s="1" t="s">
         <v>820</v>
       </c>
+      <c r="V269" s="30">
+        <v>7</v>
+      </c>
       <c r="X269" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="270" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y269" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>47</v>
       </c>
@@ -23717,13 +24243,13 @@
         <v>496</v>
       </c>
       <c r="V270" s="30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X270" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>47</v>
       </c>
@@ -23785,13 +24311,13 @@
         <v>496</v>
       </c>
       <c r="V271" s="30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X271" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>47</v>
       </c>
@@ -23853,13 +24379,13 @@
         <v>496</v>
       </c>
       <c r="V272" s="30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X272" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>48</v>
       </c>
@@ -23921,7 +24447,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="274" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>48</v>
       </c>
@@ -23983,7 +24509,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="275" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>48</v>
       </c>
@@ -24045,7 +24571,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>48</v>
       </c>
@@ -24107,7 +24633,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="277" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>48</v>
       </c>
@@ -24169,7 +24695,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="278" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>48</v>
       </c>
@@ -24231,7 +24757,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="279" spans="1:21" ht="213" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>49</v>
       </c>
@@ -24272,7 +24798,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="280" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>50</v>
       </c>
@@ -24336,8 +24862,11 @@
       <c r="U280" s="33">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V280" s="30" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>50</v>
       </c>
@@ -24399,7 +24928,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="282" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>50</v>
       </c>
@@ -24461,7 +24990,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="283" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>50</v>
       </c>
@@ -24526,7 +25055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>50</v>
       </c>
@@ -24588,7 +25117,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="285" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>50</v>
       </c>
@@ -24650,7 +25179,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="286" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>50</v>
       </c>
@@ -24715,7 +25244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>50</v>
       </c>
@@ -24777,7 +25306,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="288" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>50</v>
       </c>
@@ -24839,7 +25368,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="289" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>50</v>
       </c>
@@ -24904,7 +25433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>50</v>
       </c>
@@ -24966,7 +25495,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="291" spans="1:21" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>50</v>
       </c>
@@ -25028,7 +25557,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="292" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>51</v>
       </c>
@@ -25068,8 +25597,11 @@
       <c r="M292" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="293" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V292" s="30" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>52</v>
       </c>
@@ -25131,7 +25663,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="294" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>52</v>
       </c>
@@ -25193,7 +25725,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="295" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>53</v>
       </c>
@@ -25234,7 +25766,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="296" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>54</v>
       </c>
@@ -25275,7 +25807,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="297" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>55</v>
       </c>
@@ -25340,7 +25872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>55</v>
       </c>
@@ -25406,138 +25938,231 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y1" xr:uid="{057186D4-4696-4063-9BCA-7AA0AB6DA382}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:L83">
     <sortCondition ref="L2"/>
   </sortState>
-  <conditionalFormatting sqref="N220:Q223 O219:Q219 N225:Q233 O224:Q224 N236:P246 O234:Q235 S236:S246 N177:Q218 N135:Q174 S225:S233 S220:S223 S144:S164 S177:S218 S1:S104 N1:Q22 N23:P34 N35:Q64 N129:P134 N248:Q1048576 S248:S1048576 N65:P73 N74:Q128">
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+  <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="N220:Q223 O219:Q219 N225:Q233 O224:Q224 N236:P246 O234:Q235 S236:S246 N177:Q218 N135:Q174 S225:S233 S220:S223 S144:S164 S177:S218 S1:S104 N1:Q22 N23:P34 N35:Q64 N129:P134 N65:P73 N74:Q128 N248:Q1048576 S248:S1048576">
+    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U174 U177:U1048576">
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W175:Y176 U1:Y174 X171:X210 W1:W279 U177:Y1048576">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="greaterThan">
+  <conditionalFormatting sqref="X171:X210 W1:W279 U165 U171 U174 U168 U177 U180 U183 U186 W165:Y165 W171:Y171 W174:Y174 W168:Y168 W177:Y177 W180:Y180 W183:Y183 W186:Y186 U178:Y179 U166:Y167 U172:Y173 U169:Y170 U181:Y182 U184:Y185 U175:Y176 U1:Y164 U187:Y1048576">
+    <cfRule type="cellIs" dxfId="56" priority="66" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S247">
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N247:P247">
-    <cfRule type="cellIs" dxfId="22" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V174 V177:V1048576">
-    <cfRule type="cellIs" dxfId="21" priority="33" operator="greaterThan">
+  <conditionalFormatting sqref="V178:V179 V166:V167 V172:V173 V1:V164 V169:V170 V181:V182 V184:V185 V175:V176 V187:V1048576">
+    <cfRule type="cellIs" dxfId="53" priority="62" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="63" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N175:Q176">
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U175:U176">
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U175:V176">
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V175:V176">
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S219">
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N219">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S224">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N224">
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N234">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S234:S235">
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S105:S119">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120:S128">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S129:S143">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S165:S176">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C280:C292 C251:C268">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V165">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V165">
+    <cfRule type="cellIs" dxfId="33" priority="24" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V171">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V171">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V174">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V174">
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V168">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V168">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V177">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V177">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V180">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V180">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V183">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V183">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V186">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V186">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="10000" scale="28" orientation="portrait" r:id="rId1"/>
@@ -25546,4 +26171,953 @@
     <brk id="31" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47933373-8A0E-4C8D-81CC-8EDC22DDE6A1}">
+  <dimension ref="A1:D298"/>
+  <sheetViews>
+    <sheetView topLeftCell="A364" workbookViewId="0">
+      <selection sqref="A1:D372"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="46.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="30" t="s">
+        <v>691</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>4</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="30">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="30">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="30">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="33">
+        <v>4</v>
+      </c>
+      <c r="B102" s="30">
+        <v>2</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="30">
+        <v>2</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="30">
+        <v>2</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="1">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="1">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="1">
+        <v>2</v>
+      </c>
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="30">
+        <v>6</v>
+      </c>
+      <c r="D135" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="30">
+        <v>6</v>
+      </c>
+      <c r="D138" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="30">
+        <v>6</v>
+      </c>
+      <c r="D141" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="30">
+        <v>6</v>
+      </c>
+      <c r="D144" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="30">
+        <v>6</v>
+      </c>
+      <c r="D147" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="30">
+        <v>6</v>
+      </c>
+      <c r="D150" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="30">
+        <v>6</v>
+      </c>
+      <c r="D153" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="30">
+        <v>6</v>
+      </c>
+      <c r="D156" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="30">
+        <v>6</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2</v>
+      </c>
+      <c r="D159" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="30">
+        <v>6</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="30">
+        <v>6</v>
+      </c>
+      <c r="D171" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="30">
+        <v>6</v>
+      </c>
+      <c r="D174" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="30">
+        <v>4</v>
+      </c>
+      <c r="D189" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="30">
+        <v>4</v>
+      </c>
+      <c r="D192" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="30">
+        <v>4</v>
+      </c>
+      <c r="D195" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="30">
+        <v>4</v>
+      </c>
+      <c r="C198" s="1">
+        <v>3</v>
+      </c>
+      <c r="D198" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="30">
+        <v>3</v>
+      </c>
+      <c r="D199" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="30">
+        <v>3</v>
+      </c>
+      <c r="D202" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="30">
+        <v>3</v>
+      </c>
+      <c r="D205" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="D216" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="D217" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218" s="30" t="s">
+        <v>674</v>
+      </c>
+      <c r="D218" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="30" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220" s="30">
+        <v>2</v>
+      </c>
+      <c r="D220" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221" s="30">
+        <v>2</v>
+      </c>
+      <c r="D221" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D222" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D223" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D224" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D225" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D226" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C227" s="1">
+        <v>3</v>
+      </c>
+      <c r="D227" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C228" s="1">
+        <v>3</v>
+      </c>
+      <c r="D228" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D229" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D230" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D231" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D232" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D233" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C234" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C235" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A236" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="D236" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="93" x14ac:dyDescent="0.25">
+      <c r="A237" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="B237" s="30">
+        <v>8</v>
+      </c>
+      <c r="D237" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D238" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B239" s="30">
+        <v>8</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1</v>
+      </c>
+      <c r="D239" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B240" s="30">
+        <v>8</v>
+      </c>
+      <c r="D240" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B241" s="30">
+        <v>8</v>
+      </c>
+      <c r="D241" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="30">
+        <v>8</v>
+      </c>
+      <c r="C242" s="1">
+        <v>3</v>
+      </c>
+      <c r="D242" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B243" s="30">
+        <v>8</v>
+      </c>
+      <c r="D243" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D244" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B245" s="30">
+        <v>8</v>
+      </c>
+      <c r="D245" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B246" s="30">
+        <v>8</v>
+      </c>
+      <c r="C246" s="1">
+        <v>1</v>
+      </c>
+      <c r="D246" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B247" s="30">
+        <v>8</v>
+      </c>
+      <c r="C247" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B248" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="33">
+        <v>3</v>
+      </c>
+      <c r="B249" s="30">
+        <v>8</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C251" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C261" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D269" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B270" s="30">
+        <v>2</v>
+      </c>
+      <c r="D270" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271" s="30">
+        <v>2</v>
+      </c>
+      <c r="D271" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" s="30">
+        <v>2</v>
+      </c>
+      <c r="D272" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="33">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A174 A177:A1048576">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175:D176 A1:D174 A177:D1048576">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B174 B177:B1048576">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:A176">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:B176">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B175:B176">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAAABAB6-3ABC-41DD-96CB-365C9DD12715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C0475E-652E-4A8B-AE8C-9DABDC2EE0AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="link&amp;match" sheetId="7" r:id="rId3"/>
     <sheet name="renstra" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$Y$1</definedName>
@@ -262,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4691" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="840">
   <si>
     <t>Komponen</t>
   </si>
@@ -4414,18 +4413,12 @@
     </r>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>1;2;3;4;5;6;8;i</t>
   </si>
   <si>
     <t>1;2;7</t>
   </si>
   <si>
-    <t>6;I</t>
-  </si>
-  <si>
     <t>2;3;7</t>
   </si>
   <si>
@@ -4433,6 +4426,9 @@
   </si>
   <si>
     <t>HITUNG DARI NILAI JAWABAN KUESIONER</t>
+  </si>
+  <si>
+    <t>6;i</t>
   </si>
 </sst>
 </file>
@@ -4796,7 +4792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4906,9 +4902,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5008,7 +5001,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5061,6 +5074,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -5106,6 +5129,136 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5919,7 +6072,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6008,8 +6161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEB403F-935E-4ABA-926A-2374A4A02C78}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6050,22 +6203,22 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>748</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>755</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>697</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>698</v>
       </c>
     </row>
@@ -6073,22 +6226,22 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>748</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="41" t="s">
         <v>755</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>699</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>700</v>
       </c>
     </row>
@@ -6096,22 +6249,22 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>748</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>755</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>701</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>702</v>
       </c>
     </row>
@@ -6119,22 +6272,22 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>748</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>755</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>703</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>704</v>
       </c>
     </row>
@@ -6142,22 +6295,22 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>748</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="41" t="s">
         <v>755</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="42" t="s">
         <v>705</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6165,22 +6318,22 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>749</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>756</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>707</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="45" t="s">
         <v>708</v>
       </c>
     </row>
@@ -6188,22 +6341,22 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>749</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>756</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>709</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="45" t="s">
         <v>700</v>
       </c>
     </row>
@@ -6211,22 +6364,22 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>749</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>756</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>702</v>
       </c>
     </row>
@@ -6234,22 +6387,22 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="47" t="s">
         <v>757</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="48" t="s">
         <v>711</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="47" t="s">
         <v>712</v>
       </c>
     </row>
@@ -6257,22 +6410,22 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="47" t="s">
         <v>757</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="48" t="s">
         <v>713</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="47" t="s">
         <v>714</v>
       </c>
     </row>
@@ -6280,22 +6433,22 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>696</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="47" t="s">
         <v>757</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="48" t="s">
         <v>715</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="49" t="s">
         <v>716</v>
       </c>
     </row>
@@ -6303,22 +6456,22 @@
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>718</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="50" t="s">
         <v>758</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="51" t="s">
         <v>719</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="50" t="s">
         <v>720</v>
       </c>
     </row>
@@ -6326,22 +6479,22 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>717</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="52" t="s">
         <v>718</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>751</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="49" t="s">
         <v>758</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="53" t="s">
         <v>721</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="54" t="s">
         <v>722</v>
       </c>
     </row>
@@ -6349,22 +6502,22 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="40" t="s">
         <v>718</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="55" t="s">
         <v>752</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="55" t="s">
         <v>759</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="56" t="s">
         <v>723</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="49" t="s">
         <v>724</v>
       </c>
     </row>
@@ -6372,22 +6525,22 @@
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="40" t="s">
         <v>718</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="55" t="s">
         <v>752</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="55" t="s">
         <v>759</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="56" t="s">
         <v>725</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="49" t="s">
         <v>726</v>
       </c>
     </row>
@@ -6395,22 +6548,22 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="40" t="s">
         <v>718</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="52" t="s">
         <v>753</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>760</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="57" t="s">
         <v>727</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="58" t="s">
         <v>728</v>
       </c>
     </row>
@@ -6418,22 +6571,22 @@
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="40" t="s">
         <v>718</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>753</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>760</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="57" t="s">
         <v>729</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="58" t="s">
         <v>730</v>
       </c>
     </row>
@@ -6441,22 +6594,22 @@
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="59" t="s">
         <v>754</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="59" t="s">
         <v>761</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="50" t="s">
         <v>733</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="49" t="s">
         <v>734</v>
       </c>
     </row>
@@ -6464,22 +6617,22 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="59" t="s">
         <v>754</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="59" t="s">
         <v>761</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="50" t="s">
         <v>733</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="49" t="s">
         <v>735</v>
       </c>
     </row>
@@ -6487,22 +6640,22 @@
       <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="59" t="s">
         <v>754</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="59" t="s">
         <v>761</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="50" t="s">
         <v>733</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="49" t="s">
         <v>736</v>
       </c>
     </row>
@@ -6510,22 +6663,22 @@
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="59" t="s">
         <v>754</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="59" t="s">
         <v>761</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="50" t="s">
         <v>733</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="49" t="s">
         <v>737</v>
       </c>
     </row>
@@ -6533,22 +6686,22 @@
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="59" t="s">
         <v>754</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="59" t="s">
         <v>761</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="50" t="s">
         <v>733</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="49" t="s">
         <v>738</v>
       </c>
     </row>
@@ -6556,22 +6709,22 @@
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="40" t="s">
         <v>732</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="59" t="s">
         <v>754</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="59" t="s">
         <v>761</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="50" t="s">
         <v>733</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="49" t="s">
         <v>739</v>
       </c>
     </row>
@@ -6583,10 +6736,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72524BA0-FA9A-4DB3-A7BF-3E681637827C}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6674,185 +6827,9 @@
         <v>675</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="36"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36"/>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="37"/>
-    </row>
-    <row r="16" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="36"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="36"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="36"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="37"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="36"/>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="36"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="37"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-    </row>
-    <row r="27" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="36"/>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="36"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="36"/>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="36"/>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="36"/>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="36"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="36"/>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="36"/>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="36"/>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="36"/>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="36"/>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="37"/>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="36"/>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="36"/>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="36"/>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="36"/>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="36"/>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="36"/>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="36"/>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="36"/>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="36"/>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="37"/>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="36"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="37"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B54">
-    <sortCondition ref="A2:A54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B10">
+    <sortCondition ref="A2:A10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6862,9 +6839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF40CC8A-2B19-468A-9DF8-2AB3B0BD711A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6876,7 +6851,7 @@
       <c r="A1" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>689</v>
       </c>
       <c r="C1" t="s">
@@ -6909,7 +6884,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>680</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -6920,7 +6895,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>680</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -6991,8 +6966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F424C2D-EB2F-46EA-AF4D-2212F3580F39}">
   <dimension ref="A1:Y298"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K145" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="M290" sqref="M290"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8424,7 +8399,7 @@
       <c r="P23" s="3">
         <v>1</v>
       </c>
-      <c r="Q23" s="65" t="s">
+      <c r="Q23" s="64" t="s">
         <v>802</v>
       </c>
       <c r="R23" s="3">
@@ -8495,7 +8470,7 @@
       <c r="P24" s="3">
         <v>1</v>
       </c>
-      <c r="Q24" s="65" t="s">
+      <c r="Q24" s="64" t="s">
         <v>802</v>
       </c>
       <c r="R24" s="3">
@@ -8557,7 +8532,7 @@
       <c r="P25" s="3">
         <v>1</v>
       </c>
-      <c r="Q25" s="65" t="s">
+      <c r="Q25" s="64" t="s">
         <v>802</v>
       </c>
       <c r="R25" s="3">
@@ -8619,7 +8594,7 @@
       <c r="P26" s="3">
         <v>2</v>
       </c>
-      <c r="Q26" s="64" t="s">
+      <c r="Q26" s="63" t="s">
         <v>803</v>
       </c>
       <c r="R26" s="3">
@@ -8690,7 +8665,7 @@
       <c r="P27" s="3">
         <v>2</v>
       </c>
-      <c r="Q27" s="64" t="s">
+      <c r="Q27" s="63" t="s">
         <v>803</v>
       </c>
       <c r="R27" s="3">
@@ -8752,7 +8727,7 @@
       <c r="P28" s="3">
         <v>2</v>
       </c>
-      <c r="Q28" s="64" t="s">
+      <c r="Q28" s="63" t="s">
         <v>803</v>
       </c>
       <c r="R28" s="3">
@@ -8814,7 +8789,7 @@
       <c r="P29" s="3">
         <v>3</v>
       </c>
-      <c r="Q29" s="65" t="s">
+      <c r="Q29" s="64" t="s">
         <v>804</v>
       </c>
       <c r="R29" s="3">
@@ -8882,7 +8857,7 @@
       <c r="P30" s="3">
         <v>3</v>
       </c>
-      <c r="Q30" s="65" t="s">
+      <c r="Q30" s="64" t="s">
         <v>804</v>
       </c>
       <c r="R30" s="3">
@@ -8944,7 +8919,7 @@
       <c r="P31" s="3">
         <v>3</v>
       </c>
-      <c r="Q31" s="65" t="s">
+      <c r="Q31" s="64" t="s">
         <v>804</v>
       </c>
       <c r="R31" s="3">
@@ -9006,7 +8981,7 @@
       <c r="P32" s="3">
         <v>4</v>
       </c>
-      <c r="Q32" s="66" t="s">
+      <c r="Q32" s="65" t="s">
         <v>805</v>
       </c>
       <c r="R32" s="3">
@@ -9071,7 +9046,7 @@
       <c r="P33" s="3">
         <v>4</v>
       </c>
-      <c r="Q33" s="66" t="s">
+      <c r="Q33" s="65" t="s">
         <v>805</v>
       </c>
       <c r="R33" s="3">
@@ -9133,7 +9108,7 @@
       <c r="P34" s="3">
         <v>4</v>
       </c>
-      <c r="Q34" s="66" t="s">
+      <c r="Q34" s="65" t="s">
         <v>805</v>
       </c>
       <c r="R34" s="3">
@@ -10974,7 +10949,7 @@
         <v>345</v>
       </c>
       <c r="V63" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
       <c r="X63" s="1">
         <v>8</v>
@@ -11021,7 +10996,7 @@
         <v>661</v>
       </c>
       <c r="V64" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
       <c r="X64" s="1">
         <v>8</v>
@@ -11076,7 +11051,7 @@
       <c r="P65" s="3">
         <v>1</v>
       </c>
-      <c r="Q65" s="65" t="s">
+      <c r="Q65" s="64" t="s">
         <v>807</v>
       </c>
       <c r="R65" s="3">
@@ -11089,7 +11064,7 @@
         <v>496</v>
       </c>
       <c r="V65" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
       <c r="X65" s="1">
         <v>8</v>
@@ -11144,7 +11119,7 @@
       <c r="P66" s="3">
         <v>1</v>
       </c>
-      <c r="Q66" s="65" t="s">
+      <c r="Q66" s="64" t="s">
         <v>807</v>
       </c>
       <c r="R66" s="3">
@@ -11206,7 +11181,7 @@
       <c r="P67" s="3">
         <v>1</v>
       </c>
-      <c r="Q67" s="65" t="s">
+      <c r="Q67" s="64" t="s">
         <v>807</v>
       </c>
       <c r="R67" s="3">
@@ -11268,7 +11243,7 @@
       <c r="P68" s="3">
         <v>2</v>
       </c>
-      <c r="Q68" s="67" t="s">
+      <c r="Q68" s="66" t="s">
         <v>808</v>
       </c>
       <c r="R68" s="3">
@@ -11281,7 +11256,7 @@
         <v>496</v>
       </c>
       <c r="V68" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
       <c r="X68" s="1">
         <v>8</v>
@@ -11336,7 +11311,7 @@
       <c r="P69" s="3">
         <v>2</v>
       </c>
-      <c r="Q69" s="67" t="s">
+      <c r="Q69" s="66" t="s">
         <v>808</v>
       </c>
       <c r="R69" s="3">
@@ -11398,7 +11373,7 @@
       <c r="P70" s="3">
         <v>2</v>
       </c>
-      <c r="Q70" s="67" t="s">
+      <c r="Q70" s="66" t="s">
         <v>808</v>
       </c>
       <c r="R70" s="3">
@@ -11460,7 +11435,7 @@
       <c r="P71" s="3">
         <v>3</v>
       </c>
-      <c r="Q71" s="67" t="s">
+      <c r="Q71" s="66" t="s">
         <v>809</v>
       </c>
       <c r="R71" s="3">
@@ -11473,7 +11448,7 @@
         <v>496</v>
       </c>
       <c r="V71" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
       <c r="X71" s="1">
         <v>8</v>
@@ -11528,7 +11503,7 @@
       <c r="P72" s="3">
         <v>3</v>
       </c>
-      <c r="Q72" s="67" t="s">
+      <c r="Q72" s="66" t="s">
         <v>809</v>
       </c>
       <c r="R72" s="3">
@@ -11590,7 +11565,7 @@
       <c r="P73" s="3">
         <v>3</v>
       </c>
-      <c r="Q73" s="67" t="s">
+      <c r="Q73" s="66" t="s">
         <v>809</v>
       </c>
       <c r="R73" s="3">
@@ -11652,7 +11627,7 @@
       <c r="P74" s="3">
         <v>4</v>
       </c>
-      <c r="Q74" s="67" t="s">
+      <c r="Q74" s="66" t="s">
         <v>810</v>
       </c>
       <c r="R74" s="3">
@@ -11665,7 +11640,7 @@
         <v>496</v>
       </c>
       <c r="V74" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
       <c r="X74" s="1">
         <v>8</v>
@@ -11720,7 +11695,7 @@
       <c r="P75" s="3">
         <v>4</v>
       </c>
-      <c r="Q75" s="67" t="s">
+      <c r="Q75" s="66" t="s">
         <v>810</v>
       </c>
       <c r="R75" s="3">
@@ -11782,7 +11757,7 @@
       <c r="P76" s="3">
         <v>4</v>
       </c>
-      <c r="Q76" s="67" t="s">
+      <c r="Q76" s="66" t="s">
         <v>810</v>
       </c>
       <c r="R76" s="3">
@@ -11844,7 +11819,7 @@
       <c r="P77" s="3">
         <v>5</v>
       </c>
-      <c r="Q77" s="67" t="s">
+      <c r="Q77" s="66" t="s">
         <v>811</v>
       </c>
       <c r="R77" s="3">
@@ -11857,7 +11832,7 @@
         <v>496</v>
       </c>
       <c r="V77" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
       <c r="X77" s="1">
         <v>8</v>
@@ -11912,7 +11887,7 @@
       <c r="P78" s="3">
         <v>5</v>
       </c>
-      <c r="Q78" s="67" t="s">
+      <c r="Q78" s="66" t="s">
         <v>811</v>
       </c>
       <c r="R78" s="3">
@@ -11974,7 +11949,7 @@
       <c r="P79" s="3">
         <v>5</v>
       </c>
-      <c r="Q79" s="67" t="s">
+      <c r="Q79" s="66" t="s">
         <v>811</v>
       </c>
       <c r="R79" s="3">
@@ -12069,7 +12044,7 @@
         <v>356</v>
       </c>
       <c r="V81" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12134,7 +12109,7 @@
         <v>496</v>
       </c>
       <c r="V82" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13218,7 +13193,7 @@
         <v>496</v>
       </c>
       <c r="V99" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="X99" s="1">
         <v>2</v>
@@ -13286,7 +13261,7 @@
         <v>496</v>
       </c>
       <c r="V100" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="X100" s="1">
         <v>2</v>
@@ -13354,7 +13329,7 @@
         <v>496</v>
       </c>
       <c r="V101" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="X101" s="1">
         <v>2</v>
@@ -13425,7 +13400,7 @@
         <v>4</v>
       </c>
       <c r="V102" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="X102" s="1">
         <v>2</v>
@@ -13493,7 +13468,7 @@
         <v>496</v>
       </c>
       <c r="V103" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="X103" s="1">
         <v>2</v>
@@ -13561,7 +13536,7 @@
         <v>496</v>
       </c>
       <c r="V104" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="X104" s="1">
         <v>2</v>
@@ -15140,7 +15115,7 @@
       <c r="P129" s="3">
         <v>1</v>
       </c>
-      <c r="Q129" s="68" t="s">
+      <c r="Q129" s="67" t="s">
         <v>780</v>
       </c>
       <c r="R129" s="3">
@@ -15202,7 +15177,7 @@
       <c r="P130" s="3">
         <v>1</v>
       </c>
-      <c r="Q130" s="68" t="s">
+      <c r="Q130" s="67" t="s">
         <v>780</v>
       </c>
       <c r="R130" s="3">
@@ -15264,7 +15239,7 @@
       <c r="P131" s="3">
         <v>1</v>
       </c>
-      <c r="Q131" s="68" t="s">
+      <c r="Q131" s="67" t="s">
         <v>780</v>
       </c>
       <c r="R131" s="3">
@@ -15326,7 +15301,7 @@
       <c r="P132" s="3">
         <v>2</v>
       </c>
-      <c r="Q132" s="69" t="s">
+      <c r="Q132" s="68" t="s">
         <v>781</v>
       </c>
       <c r="R132" s="3">
@@ -15388,7 +15363,7 @@
       <c r="P133" s="3">
         <v>2</v>
       </c>
-      <c r="Q133" s="69" t="s">
+      <c r="Q133" s="68" t="s">
         <v>781</v>
       </c>
       <c r="R133" s="3">
@@ -15450,7 +15425,7 @@
       <c r="P134" s="3">
         <v>2</v>
       </c>
-      <c r="Q134" s="69" t="s">
+      <c r="Q134" s="68" t="s">
         <v>781</v>
       </c>
       <c r="R134" s="3">
@@ -18987,7 +18962,7 @@
         <v>496</v>
       </c>
       <c r="V189" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
       <c r="W189" s="1" t="s">
         <v>731</v>
@@ -19182,7 +19157,7 @@
         <v>496</v>
       </c>
       <c r="V192" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
       <c r="X192" s="1">
         <v>2</v>
@@ -19374,7 +19349,7 @@
         <v>496</v>
       </c>
       <c r="V195" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
       <c r="X195" s="1">
         <v>2</v>
@@ -19566,7 +19541,7 @@
         <v>496</v>
       </c>
       <c r="V198" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
       <c r="W198" s="1" t="s">
         <v>731</v>
@@ -20219,7 +20194,7 @@
         <v>731</v>
       </c>
       <c r="Y208" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="209" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20739,7 +20714,7 @@
         <v>496</v>
       </c>
       <c r="V216" s="30" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="X216" s="1">
         <v>8</v>
@@ -20807,7 +20782,7 @@
         <v>496</v>
       </c>
       <c r="V217" s="30" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="X217" s="1">
         <v>8</v>
@@ -20875,7 +20850,7 @@
         <v>496</v>
       </c>
       <c r="V218" s="30" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="X218" s="1">
         <v>8</v>
@@ -21005,7 +20980,7 @@
         <v>496</v>
       </c>
       <c r="V220" s="30" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="X220" s="1">
         <v>2</v>
@@ -21073,7 +21048,7 @@
         <v>496</v>
       </c>
       <c r="V221" s="30" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="X221" s="1">
         <v>2</v>
@@ -21147,7 +21122,7 @@
         <v>695</v>
       </c>
       <c r="Y222" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="223" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -22053,7 +22028,7 @@
       <c r="P236" s="3">
         <v>1</v>
       </c>
-      <c r="Q236" s="61" t="s">
+      <c r="Q236" s="60" t="s">
         <v>790</v>
       </c>
       <c r="R236" s="3">
@@ -22124,7 +22099,7 @@
       <c r="P237" s="3">
         <v>2</v>
       </c>
-      <c r="Q237" s="62" t="s">
+      <c r="Q237" s="61" t="s">
         <v>791</v>
       </c>
       <c r="R237" s="3">
@@ -22195,7 +22170,7 @@
       <c r="P238" s="3">
         <v>3</v>
       </c>
-      <c r="Q238" s="62" t="s">
+      <c r="Q238" s="61" t="s">
         <v>792</v>
       </c>
       <c r="R238" s="3">
@@ -22263,7 +22238,7 @@
       <c r="P239" s="3">
         <v>4</v>
       </c>
-      <c r="Q239" s="62" t="s">
+      <c r="Q239" s="61" t="s">
         <v>793</v>
       </c>
       <c r="R239" s="3">
@@ -22334,7 +22309,7 @@
       <c r="P240" s="3">
         <v>5</v>
       </c>
-      <c r="Q240" s="62" t="s">
+      <c r="Q240" s="61" t="s">
         <v>794</v>
       </c>
       <c r="R240" s="3">
@@ -22402,7 +22377,7 @@
       <c r="P241" s="3">
         <v>6</v>
       </c>
-      <c r="Q241" s="62" t="s">
+      <c r="Q241" s="61" t="s">
         <v>795</v>
       </c>
       <c r="R241" s="3">
@@ -22470,7 +22445,7 @@
       <c r="P242" s="3">
         <v>7</v>
       </c>
-      <c r="Q242" s="62" t="s">
+      <c r="Q242" s="61" t="s">
         <v>796</v>
       </c>
       <c r="R242" s="3">
@@ -22541,7 +22516,7 @@
       <c r="P243" s="3">
         <v>8</v>
       </c>
-      <c r="Q243" s="62" t="s">
+      <c r="Q243" s="61" t="s">
         <v>797</v>
       </c>
       <c r="R243" s="3">
@@ -22609,7 +22584,7 @@
       <c r="P244" s="3">
         <v>9</v>
       </c>
-      <c r="Q244" s="62" t="s">
+      <c r="Q244" s="61" t="s">
         <v>798</v>
       </c>
       <c r="R244" s="3">
@@ -22677,7 +22652,7 @@
       <c r="P245" s="3">
         <v>10</v>
       </c>
-      <c r="Q245" s="62" t="s">
+      <c r="Q245" s="61" t="s">
         <v>799</v>
       </c>
       <c r="R245" s="3">
@@ -22745,7 +22720,7 @@
       <c r="P246" s="3">
         <v>11</v>
       </c>
-      <c r="Q246" s="62" t="s">
+      <c r="Q246" s="61" t="s">
         <v>633</v>
       </c>
       <c r="R246" s="3">
@@ -22816,7 +22791,7 @@
       <c r="P247" s="3">
         <v>12</v>
       </c>
-      <c r="Q247" s="63" t="s">
+      <c r="Q247" s="62" t="s">
         <v>665</v>
       </c>
       <c r="R247" s="3">
@@ -24178,7 +24153,7 @@
         <v>2</v>
       </c>
       <c r="Y269" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="270" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24773,7 +24748,7 @@
       <c r="E279" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F279" s="70" t="s">
+      <c r="F279" s="69" t="s">
         <v>825</v>
       </c>
       <c r="G279" s="1" t="s">
@@ -24811,13 +24786,13 @@
       <c r="D280" s="1">
         <v>5</v>
       </c>
-      <c r="E280" s="70" t="s">
+      <c r="E280" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F280" s="70" t="s">
+      <c r="F280" s="69" t="s">
         <v>832</v>
       </c>
-      <c r="G280" s="70" t="s">
+      <c r="G280" s="69" t="s">
         <v>833</v>
       </c>
       <c r="H280" s="27" t="s">
@@ -24863,7 +24838,7 @@
         <v>4</v>
       </c>
       <c r="V280" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
     </row>
     <row r="281" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24879,13 +24854,13 @@
       <c r="D281" s="1">
         <v>5</v>
       </c>
-      <c r="E281" s="70" t="s">
+      <c r="E281" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F281" s="70" t="s">
+      <c r="F281" s="69" t="s">
         <v>832</v>
       </c>
-      <c r="G281" s="70" t="s">
+      <c r="G281" s="69" t="s">
         <v>833</v>
       </c>
       <c r="H281" s="27" t="s">
@@ -24941,13 +24916,13 @@
       <c r="D282" s="1">
         <v>5</v>
       </c>
-      <c r="E282" s="70" t="s">
+      <c r="E282" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F282" s="70" t="s">
+      <c r="F282" s="69" t="s">
         <v>832</v>
       </c>
-      <c r="G282" s="70" t="s">
+      <c r="G282" s="69" t="s">
         <v>833</v>
       </c>
       <c r="H282" s="27" t="s">
@@ -25003,13 +24978,13 @@
       <c r="D283" s="1">
         <v>5</v>
       </c>
-      <c r="E283" s="70" t="s">
+      <c r="E283" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F283" s="70" t="s">
+      <c r="F283" s="69" t="s">
         <v>832</v>
       </c>
-      <c r="G283" s="70" t="s">
+      <c r="G283" s="69" t="s">
         <v>833</v>
       </c>
       <c r="H283" s="27" t="s">
@@ -25068,13 +25043,13 @@
       <c r="D284" s="1">
         <v>5</v>
       </c>
-      <c r="E284" s="70" t="s">
+      <c r="E284" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F284" s="70" t="s">
+      <c r="F284" s="69" t="s">
         <v>832</v>
       </c>
-      <c r="G284" s="70" t="s">
+      <c r="G284" s="69" t="s">
         <v>833</v>
       </c>
       <c r="H284" s="27" t="s">
@@ -25130,13 +25105,13 @@
       <c r="D285" s="1">
         <v>5</v>
       </c>
-      <c r="E285" s="70" t="s">
+      <c r="E285" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F285" s="70" t="s">
+      <c r="F285" s="69" t="s">
         <v>832</v>
       </c>
-      <c r="G285" s="70" t="s">
+      <c r="G285" s="69" t="s">
         <v>833</v>
       </c>
       <c r="H285" s="27" t="s">
@@ -25192,13 +25167,13 @@
       <c r="D286" s="1">
         <v>5</v>
       </c>
-      <c r="E286" s="70" t="s">
+      <c r="E286" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F286" s="70" t="s">
+      <c r="F286" s="69" t="s">
         <v>832</v>
       </c>
-      <c r="G286" s="70" t="s">
+      <c r="G286" s="69" t="s">
         <v>833</v>
       </c>
       <c r="H286" s="27" t="s">
@@ -25257,13 +25232,13 @@
       <c r="D287" s="1">
         <v>5</v>
       </c>
-      <c r="E287" s="70" t="s">
+      <c r="E287" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F287" s="70" t="s">
+      <c r="F287" s="69" t="s">
         <v>832</v>
       </c>
-      <c r="G287" s="70" t="s">
+      <c r="G287" s="69" t="s">
         <v>833</v>
       </c>
       <c r="H287" s="27" t="s">
@@ -25319,13 +25294,13 @@
       <c r="D288" s="1">
         <v>5</v>
       </c>
-      <c r="E288" s="70" t="s">
+      <c r="E288" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F288" s="70" t="s">
+      <c r="F288" s="69" t="s">
         <v>832</v>
       </c>
-      <c r="G288" s="70" t="s">
+      <c r="G288" s="69" t="s">
         <v>833</v>
       </c>
       <c r="H288" s="27" t="s">
@@ -25381,13 +25356,13 @@
       <c r="D289" s="1">
         <v>5</v>
       </c>
-      <c r="E289" s="70" t="s">
+      <c r="E289" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F289" s="70" t="s">
+      <c r="F289" s="69" t="s">
         <v>832</v>
       </c>
-      <c r="G289" s="70" t="s">
+      <c r="G289" s="69" t="s">
         <v>833</v>
       </c>
       <c r="H289" s="27" t="s">
@@ -25446,13 +25421,13 @@
       <c r="D290" s="1">
         <v>5</v>
       </c>
-      <c r="E290" s="70" t="s">
+      <c r="E290" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F290" s="70" t="s">
+      <c r="F290" s="69" t="s">
         <v>832</v>
       </c>
-      <c r="G290" s="70" t="s">
+      <c r="G290" s="69" t="s">
         <v>833</v>
       </c>
       <c r="H290" s="27" t="s">
@@ -25508,13 +25483,13 @@
       <c r="D291" s="1">
         <v>5</v>
       </c>
-      <c r="E291" s="70" t="s">
+      <c r="E291" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F291" s="70" t="s">
+      <c r="F291" s="69" t="s">
         <v>832</v>
       </c>
-      <c r="G291" s="70" t="s">
+      <c r="G291" s="69" t="s">
         <v>833</v>
       </c>
       <c r="H291" s="27" t="s">
@@ -25598,7 +25573,7 @@
         <v>295</v>
       </c>
       <c r="V292" s="30" t="s">
-        <v>834</v>
+        <v>674</v>
       </c>
     </row>
     <row r="293" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -25944,223 +25919,228 @@
   </sortState>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="N220:Q223 O219:Q219 N225:Q233 O224:Q224 N236:P246 O234:Q235 S236:S246 N177:Q218 N135:Q174 S225:S233 S220:S223 S144:S164 S177:S218 S1:S104 N1:Q22 N23:P34 N35:Q64 N129:P134 N65:P73 N74:Q128 N248:Q1048576 S248:S1048576">
-    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="96" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U174 U177:U1048576">
-    <cfRule type="cellIs" dxfId="58" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="94" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X171:X210 W1:W279 U165 U171 U174 U168 U177 U180 U183 U186 W165:Y165 W171:Y171 W174:Y174 W168:Y168 W177:Y177 W180:Y180 W183:Y183 W186:Y186 U178:Y179 U166:Y167 U172:Y173 U169:Y170 U181:Y182 U184:Y185 U175:Y176 U1:Y164 U187:Y1048576">
-    <cfRule type="cellIs" dxfId="56" priority="66" operator="greaterThan">
+  <conditionalFormatting sqref="U1:U1048576 W1:Y1048576">
+    <cfRule type="cellIs" dxfId="72" priority="93" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S247">
-    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N247:P247">
-    <cfRule type="cellIs" dxfId="54" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V178:V179 V166:V167 V172:V173 V1:V164 V169:V170 V181:V182 V184:V185 V175:V176 V187:V1048576">
-    <cfRule type="cellIs" dxfId="53" priority="62" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="63" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N175:Q176">
-    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U175:U176">
-    <cfRule type="cellIs" dxfId="50" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="cellIs" dxfId="48" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S219">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N219">
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S224">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N224">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N234">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S234:S235">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S105:S119">
-    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120:S128">
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S129:S143">
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S165:S176">
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C280:C292 C251:C268">
-    <cfRule type="duplicateValues" dxfId="35" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="115"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V165">
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="greaterThan">
+  <conditionalFormatting sqref="V178:V179 V166:V167 V172:V173 V169:V170 V181:V182 V184:V185 V175:V176 V1:V164 V187:V1048576">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V178:V179 V166:V167 V172:V173 V1:V164 V169:V170 V181:V182 V184:V185 V175:V176 V187:V1048576">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V165">
-    <cfRule type="cellIs" dxfId="33" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V165">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V171">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V171">
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V174">
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V174">
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V168">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V168">
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V177">
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V177">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V180">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V180">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V183">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V183">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V186">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V186">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26171,953 +26151,4 @@
     <brk id="31" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47933373-8A0E-4C8D-81CC-8EDC22DDE6A1}">
-  <dimension ref="A1:D298"/>
-  <sheetViews>
-    <sheetView topLeftCell="A364" workbookViewId="0">
-      <selection sqref="A1:D372"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="46.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>689</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>778</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
-        <v>4</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D46" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="30">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1">
-        <v>3</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="30">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1">
-        <v>3</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D77" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="30">
-        <v>2</v>
-      </c>
-      <c r="D89" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D90" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D91" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D92" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D93" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D101" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="33">
-        <v>4</v>
-      </c>
-      <c r="B102" s="30">
-        <v>2</v>
-      </c>
-      <c r="D102" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="30">
-        <v>2</v>
-      </c>
-      <c r="D103" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="30">
-        <v>2</v>
-      </c>
-      <c r="D104" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="1">
-        <v>2</v>
-      </c>
-      <c r="D105" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="1">
-        <v>2</v>
-      </c>
-      <c r="D108" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="1">
-        <v>2</v>
-      </c>
-      <c r="D111" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="1">
-        <v>2</v>
-      </c>
-      <c r="D114" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D117" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D120" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D123" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D126" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D129" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D132" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="30">
-        <v>6</v>
-      </c>
-      <c r="D135" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="30">
-        <v>6</v>
-      </c>
-      <c r="D138" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="30">
-        <v>6</v>
-      </c>
-      <c r="D141" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="30">
-        <v>6</v>
-      </c>
-      <c r="D144" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="30">
-        <v>6</v>
-      </c>
-      <c r="D147" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="30">
-        <v>6</v>
-      </c>
-      <c r="D150" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="30">
-        <v>6</v>
-      </c>
-      <c r="D153" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="30">
-        <v>6</v>
-      </c>
-      <c r="D156" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="30">
-        <v>6</v>
-      </c>
-      <c r="C159" s="1">
-        <v>2</v>
-      </c>
-      <c r="D159" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D162" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="30">
-        <v>6</v>
-      </c>
-      <c r="C165" s="1">
-        <v>2</v>
-      </c>
-      <c r="D165" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D168" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="30">
-        <v>6</v>
-      </c>
-      <c r="D171" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="30">
-        <v>6</v>
-      </c>
-      <c r="D174" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D177" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D180" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D183" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D186" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B189" s="30">
-        <v>4</v>
-      </c>
-      <c r="D189" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="30">
-        <v>4</v>
-      </c>
-      <c r="D192" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="30">
-        <v>4</v>
-      </c>
-      <c r="D195" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="30">
-        <v>4</v>
-      </c>
-      <c r="C198" s="1">
-        <v>3</v>
-      </c>
-      <c r="D198" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B199" s="30">
-        <v>3</v>
-      </c>
-      <c r="D199" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B202" s="30">
-        <v>3</v>
-      </c>
-      <c r="D202" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B205" s="30">
-        <v>3</v>
-      </c>
-      <c r="D205" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B211" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B212" s="30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B216" s="30" t="s">
-        <v>674</v>
-      </c>
-      <c r="D216" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B217" s="30" t="s">
-        <v>674</v>
-      </c>
-      <c r="D217" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B218" s="30" t="s">
-        <v>674</v>
-      </c>
-      <c r="D218" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B219" s="30" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B220" s="30">
-        <v>2</v>
-      </c>
-      <c r="D220" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B221" s="30">
-        <v>2</v>
-      </c>
-      <c r="D221" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D222" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D223" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D224" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D225" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D226" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C227" s="1">
-        <v>3</v>
-      </c>
-      <c r="D227" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C228" s="1">
-        <v>3</v>
-      </c>
-      <c r="D228" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D229" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D230" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D231" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D232" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D233" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C234" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C235" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="93" x14ac:dyDescent="0.25">
-      <c r="A236" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="D236" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="93" x14ac:dyDescent="0.25">
-      <c r="A237" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="B237" s="30">
-        <v>8</v>
-      </c>
-      <c r="D237" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D238" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B239" s="30">
-        <v>8</v>
-      </c>
-      <c r="C239" s="1">
-        <v>1</v>
-      </c>
-      <c r="D239" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B240" s="30">
-        <v>8</v>
-      </c>
-      <c r="D240" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B241" s="30">
-        <v>8</v>
-      </c>
-      <c r="D241" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B242" s="30">
-        <v>8</v>
-      </c>
-      <c r="C242" s="1">
-        <v>3</v>
-      </c>
-      <c r="D242" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B243" s="30">
-        <v>8</v>
-      </c>
-      <c r="D243" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D244" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B245" s="30">
-        <v>8</v>
-      </c>
-      <c r="D245" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B246" s="30">
-        <v>8</v>
-      </c>
-      <c r="C246" s="1">
-        <v>1</v>
-      </c>
-      <c r="D246" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B247" s="30">
-        <v>8</v>
-      </c>
-      <c r="C247" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B248" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="33">
-        <v>3</v>
-      </c>
-      <c r="B249" s="30">
-        <v>8</v>
-      </c>
-      <c r="C249" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C251" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C261" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D269" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B270" s="30">
-        <v>2</v>
-      </c>
-      <c r="D270" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B271" s="30">
-        <v>2</v>
-      </c>
-      <c r="D271" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B272" s="30">
-        <v>2</v>
-      </c>
-      <c r="D272" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="33">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A174 A177:A1048576">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C175:D176 A1:D174 A177:D1048576">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B174 B177:B1048576">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:A176">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175:B176">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B175:B176">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C0475E-652E-4A8B-AE8C-9DABDC2EE0AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6036CB99-6E87-4AE5-B145-E482670C95A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
@@ -2714,9 +2714,6 @@
     <t>Jumlah  yang berkaitan dengan PRODUK yang dihasilkan TEFA</t>
   </si>
   <si>
-    <t>TEFA yang diselenggarakan Sekolah (DROP LIST SISTEM)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jumlah PRODUK TEFA </t>
   </si>
   <si>
@@ -4429,6 +4426,9 @@
   </si>
   <si>
     <t>6;i</t>
+  </si>
+  <si>
+    <t>TEFA yang diselenggarakan Sekolah</t>
   </si>
 </sst>
 </file>
@@ -5001,247 +5001,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5691,26 +5451,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -6082,10 +5822,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1" t="s">
         <v>775</v>
-      </c>
-      <c r="B1" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6093,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6101,7 +5841,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6109,7 +5849,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6117,7 +5857,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6125,7 +5865,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6133,7 +5873,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6141,7 +5881,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6149,7 +5889,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -6178,25 +5918,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="20" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>762</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>763</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>766</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -6204,22 +5944,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="41" t="s">
+        <v>747</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>696</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>748</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>755</v>
-      </c>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="43" t="s">
         <v>697</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -6227,22 +5967,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>696</v>
-      </c>
       <c r="D3" s="41" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F3" s="42" t="s">
+        <v>698</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>699</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -6250,22 +5990,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>696</v>
-      </c>
       <c r="D4" s="41" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F4" s="42" t="s">
+        <v>700</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>701</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -6273,22 +6013,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>696</v>
-      </c>
       <c r="D5" s="41" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F5" s="41" t="s">
+        <v>702</v>
+      </c>
+      <c r="G5" s="43" t="s">
         <v>703</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6296,22 +6036,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>696</v>
-      </c>
       <c r="D6" s="41" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F6" s="42" t="s">
+        <v>704</v>
+      </c>
+      <c r="G6" s="43" t="s">
         <v>705</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6319,22 +6059,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>696</v>
-      </c>
       <c r="D7" s="44" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F7" s="44" t="s">
+        <v>706</v>
+      </c>
+      <c r="G7" s="45" t="s">
         <v>707</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6342,22 +6082,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>696</v>
-      </c>
       <c r="D8" s="44" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6365,22 +6105,22 @@
         <v>1</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>696</v>
-      </c>
       <c r="D9" s="44" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6388,22 +6128,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>696</v>
-      </c>
       <c r="D10" s="47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F10" s="48" t="s">
+        <v>710</v>
+      </c>
+      <c r="G10" s="47" t="s">
         <v>711</v>
-      </c>
-      <c r="G10" s="47" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6411,22 +6151,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>696</v>
-      </c>
       <c r="D11" s="47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F11" s="48" t="s">
+        <v>712</v>
+      </c>
+      <c r="G11" s="47" t="s">
         <v>713</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6434,22 +6174,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>695</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>696</v>
-      </c>
       <c r="D12" s="47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F12" s="48" t="s">
+        <v>714</v>
+      </c>
+      <c r="G12" s="49" t="s">
         <v>715</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -6457,22 +6197,22 @@
         <v>2</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>716</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="D13" s="50" t="s">
+        <v>750</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>757</v>
+      </c>
+      <c r="F13" s="51" t="s">
         <v>718</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>751</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>758</v>
-      </c>
-      <c r="F13" s="51" t="s">
+      <c r="G13" s="50" t="s">
         <v>719</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6480,22 +6220,22 @@
         <v>2</v>
       </c>
       <c r="B14" s="52" t="s">
+        <v>716</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>717</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>718</v>
-      </c>
       <c r="D14" s="49" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F14" s="53" t="s">
+        <v>720</v>
+      </c>
+      <c r="G14" s="54" t="s">
         <v>721</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -6503,22 +6243,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>716</v>
+      </c>
+      <c r="C15" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>718</v>
-      </c>
       <c r="D15" s="55" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F15" s="56" t="s">
+        <v>722</v>
+      </c>
+      <c r="G15" s="49" t="s">
         <v>723</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6526,22 +6266,22 @@
         <v>2</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>716</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>718</v>
-      </c>
       <c r="D16" s="55" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F16" s="56" t="s">
+        <v>724</v>
+      </c>
+      <c r="G16" s="49" t="s">
         <v>725</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -6549,22 +6289,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>716</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>718</v>
-      </c>
       <c r="D17" s="52" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F17" s="57" t="s">
+        <v>726</v>
+      </c>
+      <c r="G17" s="58" t="s">
         <v>727</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
@@ -6572,22 +6312,22 @@
         <v>2</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>716</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>718</v>
-      </c>
       <c r="D18" s="52" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F18" s="57" t="s">
+        <v>728</v>
+      </c>
+      <c r="G18" s="58" t="s">
         <v>729</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -6595,22 +6335,22 @@
         <v>3</v>
       </c>
       <c r="B19" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="D19" s="59" t="s">
+        <v>753</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>760</v>
+      </c>
+      <c r="F19" s="50" t="s">
         <v>732</v>
       </c>
-      <c r="D19" s="59" t="s">
-        <v>754</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>761</v>
-      </c>
-      <c r="F19" s="50" t="s">
+      <c r="G19" s="49" t="s">
         <v>733</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6618,22 +6358,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="D20" s="59" t="s">
+        <v>753</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>760</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>732</v>
       </c>
-      <c r="D20" s="59" t="s">
-        <v>754</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>761</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>733</v>
-      </c>
       <c r="G20" s="49" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -6641,22 +6381,22 @@
         <v>3</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="59" t="s">
+        <v>753</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>760</v>
+      </c>
+      <c r="F21" s="50" t="s">
         <v>732</v>
       </c>
-      <c r="D21" s="59" t="s">
-        <v>754</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>761</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>733</v>
-      </c>
       <c r="G21" s="49" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6664,22 +6404,22 @@
         <v>3</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="59" t="s">
+        <v>753</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>760</v>
+      </c>
+      <c r="F22" s="50" t="s">
         <v>732</v>
       </c>
-      <c r="D22" s="59" t="s">
-        <v>754</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>761</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>733</v>
-      </c>
       <c r="G22" s="49" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6687,22 +6427,22 @@
         <v>3</v>
       </c>
       <c r="B23" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="59" t="s">
+        <v>753</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>760</v>
+      </c>
+      <c r="F23" s="50" t="s">
         <v>732</v>
       </c>
-      <c r="D23" s="59" t="s">
-        <v>754</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>761</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>733</v>
-      </c>
       <c r="G23" s="49" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -6710,22 +6450,22 @@
         <v>3</v>
       </c>
       <c r="B24" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="D24" s="59" t="s">
+        <v>753</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>760</v>
+      </c>
+      <c r="F24" s="50" t="s">
         <v>732</v>
       </c>
-      <c r="D24" s="59" t="s">
-        <v>754</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>761</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>733</v>
-      </c>
       <c r="G24" s="49" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -6749,10 +6489,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1" t="s">
         <v>775</v>
-      </c>
-      <c r="B1" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -6760,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6768,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="63" x14ac:dyDescent="0.25">
@@ -6776,7 +6516,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -6784,7 +6524,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -6792,7 +6532,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -6800,7 +6540,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
@@ -6808,7 +6548,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -6816,15 +6556,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
+        <v>673</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>674</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -6849,13 +6589,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6863,10 +6603,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>676</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -6874,10 +6614,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
+        <v>677</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>678</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -6885,10 +6625,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>679</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>680</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -6896,10 +6636,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6907,10 +6647,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>682</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>683</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6918,10 +6658,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -6929,10 +6669,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6940,10 +6680,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6951,10 +6691,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -6966,8 +6706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F424C2D-EB2F-46EA-AF4D-2212F3580F39}">
   <dimension ref="A1:Y298"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J80" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q103" sqref="Q103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6999,7 +6739,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -7008,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -7020,19 +6760,19 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="15" t="s">
         <v>773</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>774</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -7059,16 +6799,16 @@
         <v>492</v>
       </c>
       <c r="U1" s="32" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V1" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8400,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="64" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="R23" s="3">
         <v>1</v>
@@ -8415,7 +8155,7 @@
         <v>6</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="X23" s="1">
         <v>5</v>
@@ -8471,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="64" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="R24" s="3">
         <v>2</v>
@@ -8533,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="64" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="R25" s="3">
         <v>3</v>
@@ -8595,7 +8335,7 @@
         <v>2</v>
       </c>
       <c r="Q26" s="63" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R26" s="3">
         <v>1</v>
@@ -8610,7 +8350,7 @@
         <v>2</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="X26" s="1">
         <v>5</v>
@@ -8666,7 +8406,7 @@
         <v>2</v>
       </c>
       <c r="Q27" s="63" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R27" s="3">
         <v>2</v>
@@ -8728,7 +8468,7 @@
         <v>2</v>
       </c>
       <c r="Q28" s="63" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="R28" s="3">
         <v>3</v>
@@ -8790,7 +8530,7 @@
         <v>3</v>
       </c>
       <c r="Q29" s="64" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R29" s="3">
         <v>1</v>
@@ -8858,7 +8598,7 @@
         <v>3</v>
       </c>
       <c r="Q30" s="64" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R30" s="3">
         <v>2</v>
@@ -8920,7 +8660,7 @@
         <v>3</v>
       </c>
       <c r="Q31" s="64" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="R31" s="3">
         <v>3</v>
@@ -8982,7 +8722,7 @@
         <v>4</v>
       </c>
       <c r="Q32" s="65" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="R32" s="3">
         <v>1</v>
@@ -9047,7 +8787,7 @@
         <v>4</v>
       </c>
       <c r="Q33" s="65" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="R33" s="3">
         <v>2</v>
@@ -9109,7 +8849,7 @@
         <v>4</v>
       </c>
       <c r="Q34" s="65" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="R34" s="3">
         <v>3</v>
@@ -10633,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="X58" s="1">
         <v>1</v>
@@ -10689,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="R59" s="3">
         <v>1</v>
@@ -10704,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="X59" s="1">
         <v>1</v>
@@ -10949,7 +10689,7 @@
         <v>345</v>
       </c>
       <c r="V63" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="X63" s="1">
         <v>8</v>
@@ -10993,10 +10733,10 @@
         <v>457</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="V64" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="X64" s="1">
         <v>8</v>
@@ -11040,19 +10780,19 @@
         <v>472</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N65" s="3">
         <v>1</v>
       </c>
       <c r="O65" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="P65" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="64" t="s">
         <v>806</v>
-      </c>
-      <c r="P65" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="64" t="s">
-        <v>807</v>
       </c>
       <c r="R65" s="3">
         <v>1</v>
@@ -11064,7 +10804,7 @@
         <v>496</v>
       </c>
       <c r="V65" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="X65" s="1">
         <v>8</v>
@@ -11108,25 +10848,25 @@
         <v>472</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N66" s="3">
         <v>1</v>
       </c>
       <c r="O66" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="64" t="s">
         <v>806</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="64" t="s">
-        <v>807</v>
       </c>
       <c r="R66" s="3">
         <v>2</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>496</v>
@@ -11170,25 +10910,25 @@
         <v>472</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N67" s="3">
         <v>1</v>
       </c>
       <c r="O67" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="P67" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="64" t="s">
         <v>806</v>
-      </c>
-      <c r="P67" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="64" t="s">
-        <v>807</v>
       </c>
       <c r="R67" s="3">
         <v>3</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>496</v>
@@ -11232,19 +10972,19 @@
         <v>472</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N68" s="3">
         <v>1</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P68" s="3">
         <v>2</v>
       </c>
       <c r="Q68" s="66" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="R68" s="3">
         <v>1</v>
@@ -11256,7 +10996,7 @@
         <v>496</v>
       </c>
       <c r="V68" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="X68" s="1">
         <v>8</v>
@@ -11300,25 +11040,25 @@
         <v>472</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N69" s="3">
         <v>1</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P69" s="3">
         <v>2</v>
       </c>
       <c r="Q69" s="66" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="R69" s="3">
         <v>2</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>496</v>
@@ -11362,25 +11102,25 @@
         <v>472</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N70" s="3">
         <v>1</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P70" s="3">
         <v>2</v>
       </c>
       <c r="Q70" s="66" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="R70" s="3">
         <v>3</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>496</v>
@@ -11424,19 +11164,19 @@
         <v>472</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N71" s="3">
         <v>1</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P71" s="3">
         <v>3</v>
       </c>
       <c r="Q71" s="66" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="R71" s="3">
         <v>1</v>
@@ -11448,7 +11188,7 @@
         <v>496</v>
       </c>
       <c r="V71" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="X71" s="1">
         <v>8</v>
@@ -11492,25 +11232,25 @@
         <v>472</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N72" s="3">
         <v>1</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P72" s="3">
         <v>3</v>
       </c>
       <c r="Q72" s="66" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="R72" s="3">
         <v>2</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>496</v>
@@ -11554,25 +11294,25 @@
         <v>472</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N73" s="3">
         <v>1</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P73" s="3">
         <v>3</v>
       </c>
       <c r="Q73" s="66" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="R73" s="3">
         <v>3</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>496</v>
@@ -11616,19 +11356,19 @@
         <v>472</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N74" s="3">
         <v>1</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P74" s="3">
         <v>4</v>
       </c>
       <c r="Q74" s="66" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="R74" s="3">
         <v>1</v>
@@ -11640,7 +11380,7 @@
         <v>496</v>
       </c>
       <c r="V74" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="X74" s="1">
         <v>8</v>
@@ -11684,25 +11424,25 @@
         <v>472</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N75" s="3">
         <v>1</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P75" s="3">
         <v>4</v>
       </c>
       <c r="Q75" s="66" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="R75" s="3">
         <v>2</v>
       </c>
       <c r="S75" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>496</v>
@@ -11746,25 +11486,25 @@
         <v>472</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N76" s="3">
         <v>1</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P76" s="3">
         <v>4</v>
       </c>
       <c r="Q76" s="66" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="R76" s="3">
         <v>3</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>496</v>
@@ -11808,19 +11548,19 @@
         <v>472</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N77" s="3">
         <v>1</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P77" s="3">
         <v>5</v>
       </c>
       <c r="Q77" s="66" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R77" s="3">
         <v>1</v>
@@ -11832,7 +11572,7 @@
         <v>496</v>
       </c>
       <c r="V77" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="X77" s="1">
         <v>8</v>
@@ -11876,25 +11616,25 @@
         <v>472</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N78" s="3">
         <v>1</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P78" s="3">
         <v>5</v>
       </c>
       <c r="Q78" s="66" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R78" s="3">
         <v>2</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>496</v>
@@ -11938,25 +11678,25 @@
         <v>472</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N79" s="3">
         <v>1</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P79" s="3">
         <v>5</v>
       </c>
       <c r="Q79" s="66" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R79" s="3">
         <v>3</v>
       </c>
       <c r="S79" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>496</v>
@@ -12044,7 +11784,7 @@
         <v>356</v>
       </c>
       <c r="V81" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12109,7 +11849,7 @@
         <v>496</v>
       </c>
       <c r="V82" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12537,7 +12277,7 @@
         <v>107</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N89" s="3">
         <v>1</v>
@@ -12835,7 +12575,7 @@
         <v>1</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P94" s="3">
         <v>1</v>
@@ -12853,7 +12593,7 @@
         <v>496</v>
       </c>
       <c r="V94" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="X94" s="1">
         <v>2</v>
@@ -12903,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P95" s="3">
         <v>2</v>
@@ -12921,7 +12661,7 @@
         <v>496</v>
       </c>
       <c r="V95" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="X95" s="1">
         <v>2</v>
@@ -12971,7 +12711,7 @@
         <v>1</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P96" s="3">
         <v>3</v>
@@ -12989,7 +12729,7 @@
         <v>496</v>
       </c>
       <c r="V96" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="X96" s="1">
         <v>2</v>
@@ -13039,7 +12779,7 @@
         <v>1</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P97" s="3">
         <v>1</v>
@@ -13060,7 +12800,7 @@
         <v>2</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="98" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13107,7 +12847,7 @@
         <v>1</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P98" s="3">
         <v>2</v>
@@ -13128,7 +12868,7 @@
         <v>2</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="99" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13193,7 +12933,7 @@
         <v>496</v>
       </c>
       <c r="V99" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="X99" s="1">
         <v>2</v>
@@ -13261,7 +13001,7 @@
         <v>496</v>
       </c>
       <c r="V100" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="X100" s="1">
         <v>2</v>
@@ -13329,7 +13069,7 @@
         <v>496</v>
       </c>
       <c r="V101" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="X101" s="1">
         <v>2</v>
@@ -13385,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>553</v>
+        <v>839</v>
       </c>
       <c r="R102" s="3">
         <v>1</v>
@@ -13400,7 +13140,7 @@
         <v>4</v>
       </c>
       <c r="V102" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="X102" s="1">
         <v>2</v>
@@ -13456,7 +13196,7 @@
         <v>2</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="R103" s="3">
         <v>1</v>
@@ -13468,7 +13208,7 @@
         <v>496</v>
       </c>
       <c r="V103" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="X103" s="1">
         <v>2</v>
@@ -13524,7 +13264,7 @@
         <v>3</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R104" s="3">
         <v>1</v>
@@ -13536,7 +13276,7 @@
         <v>496</v>
       </c>
       <c r="V104" s="30" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="X104" s="1">
         <v>2</v>
@@ -13586,13 +13326,13 @@
         <v>1</v>
       </c>
       <c r="O105" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="P105" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="P105" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="R105" s="3">
         <v>1</v>
@@ -13604,7 +13344,7 @@
         <v>496</v>
       </c>
       <c r="W105" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="X105" s="1">
         <v>5</v>
@@ -13654,13 +13394,13 @@
         <v>1</v>
       </c>
       <c r="O106" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="P106" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="P106" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="R106" s="3">
         <v>2</v>
@@ -13716,13 +13456,13 @@
         <v>1</v>
       </c>
       <c r="O107" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="P107" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="P107" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="R107" s="3">
         <v>3</v>
@@ -13778,13 +13518,13 @@
         <v>1</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P108" s="3">
         <v>2</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="R108" s="3">
         <v>1</v>
@@ -13796,7 +13536,7 @@
         <v>496</v>
       </c>
       <c r="W108" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="X108" s="1">
         <v>5</v>
@@ -13846,13 +13586,13 @@
         <v>1</v>
       </c>
       <c r="O109" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P109" s="3">
         <v>2</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="R109" s="3">
         <v>2</v>
@@ -13908,13 +13648,13 @@
         <v>1</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P110" s="3">
         <v>2</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="R110" s="3">
         <v>3</v>
@@ -13970,13 +13710,13 @@
         <v>2</v>
       </c>
       <c r="O111" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="P111" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="P111" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="R111" s="3">
         <v>1</v>
@@ -13988,7 +13728,7 @@
         <v>496</v>
       </c>
       <c r="W111" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="X111" s="1">
         <v>5</v>
@@ -14038,13 +13778,13 @@
         <v>2</v>
       </c>
       <c r="O112" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="P112" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="P112" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q112" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="R112" s="3">
         <v>2</v>
@@ -14100,13 +13840,13 @@
         <v>2</v>
       </c>
       <c r="O113" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="P113" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="P113" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="R113" s="3">
         <v>3</v>
@@ -14162,13 +13902,13 @@
         <v>2</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P114" s="3">
         <v>2</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="R114" s="3">
         <v>1</v>
@@ -14227,13 +13967,13 @@
         <v>2</v>
       </c>
       <c r="O115" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P115" s="3">
         <v>2</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="R115" s="3">
         <v>2</v>
@@ -14289,13 +14029,13 @@
         <v>2</v>
       </c>
       <c r="O116" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P116" s="3">
         <v>2</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="R116" s="3">
         <v>3</v>
@@ -14351,13 +14091,13 @@
         <v>2</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P117" s="3">
         <v>3</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R117" s="3">
         <v>1</v>
@@ -14416,13 +14156,13 @@
         <v>2</v>
       </c>
       <c r="O118" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P118" s="3">
         <v>3</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R118" s="3">
         <v>2</v>
@@ -14478,13 +14218,13 @@
         <v>2</v>
       </c>
       <c r="O119" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P119" s="3">
         <v>3</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R119" s="3">
         <v>3</v>
@@ -14540,13 +14280,13 @@
         <v>3</v>
       </c>
       <c r="O120" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="P120" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="P120" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q120" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="R120" s="3">
         <v>1</v>
@@ -14558,7 +14298,7 @@
         <v>496</v>
       </c>
       <c r="W120" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="X120" s="1">
         <v>5</v>
@@ -14608,13 +14348,13 @@
         <v>3</v>
       </c>
       <c r="O121" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="P121" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="P121" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q121" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="R121" s="3">
         <v>2</v>
@@ -14670,13 +14410,13 @@
         <v>3</v>
       </c>
       <c r="O122" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="P122" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="3" t="s">
         <v>563</v>
-      </c>
-      <c r="P122" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q122" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="R122" s="3">
         <v>3</v>
@@ -14732,13 +14472,13 @@
         <v>3</v>
       </c>
       <c r="O123" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P123" s="3">
         <v>2</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R123" s="3">
         <v>1</v>
@@ -14797,13 +14537,13 @@
         <v>3</v>
       </c>
       <c r="O124" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P124" s="3">
         <v>2</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R124" s="3">
         <v>2</v>
@@ -14859,13 +14599,13 @@
         <v>3</v>
       </c>
       <c r="O125" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P125" s="3">
         <v>2</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R125" s="3">
         <v>3</v>
@@ -14921,13 +14661,13 @@
         <v>3</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P126" s="3">
         <v>3</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R126" s="3">
         <v>1</v>
@@ -14986,13 +14726,13 @@
         <v>3</v>
       </c>
       <c r="O127" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P127" s="3">
         <v>3</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R127" s="3">
         <v>2</v>
@@ -15048,13 +14788,13 @@
         <v>3</v>
       </c>
       <c r="O128" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P128" s="3">
         <v>3</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R128" s="3">
         <v>3</v>
@@ -15110,13 +14850,13 @@
         <v>4</v>
       </c>
       <c r="O129" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P129" s="3">
         <v>1</v>
       </c>
       <c r="Q129" s="67" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="R129" s="3">
         <v>1</v>
@@ -15172,13 +14912,13 @@
         <v>4</v>
       </c>
       <c r="O130" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P130" s="3">
         <v>1</v>
       </c>
       <c r="Q130" s="67" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="R130" s="3">
         <v>2</v>
@@ -15234,13 +14974,13 @@
         <v>4</v>
       </c>
       <c r="O131" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P131" s="3">
         <v>1</v>
       </c>
       <c r="Q131" s="67" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="R131" s="3">
         <v>3</v>
@@ -15296,13 +15036,13 @@
         <v>4</v>
       </c>
       <c r="O132" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P132" s="3">
         <v>2</v>
       </c>
       <c r="Q132" s="68" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R132" s="3">
         <v>1</v>
@@ -15358,13 +15098,13 @@
         <v>4</v>
       </c>
       <c r="O133" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P133" s="3">
         <v>2</v>
       </c>
       <c r="Q133" s="68" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R133" s="3">
         <v>2</v>
@@ -15420,13 +15160,13 @@
         <v>4</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P134" s="3">
         <v>2</v>
       </c>
       <c r="Q134" s="68" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R134" s="3">
         <v>3</v>
@@ -15482,13 +15222,13 @@
         <v>1</v>
       </c>
       <c r="O135" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="P135" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="P135" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q135" s="3" t="s">
-        <v>568</v>
       </c>
       <c r="R135" s="3">
         <v>1</v>
@@ -15500,7 +15240,7 @@
         <v>496</v>
       </c>
       <c r="V135" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X135" s="1">
         <v>5</v>
@@ -15550,13 +15290,13 @@
         <v>1</v>
       </c>
       <c r="O136" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="P136" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="P136" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q136" s="3" t="s">
-        <v>568</v>
       </c>
       <c r="R136" s="3">
         <v>2</v>
@@ -15612,13 +15352,13 @@
         <v>1</v>
       </c>
       <c r="O137" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="P137" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="P137" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q137" s="3" t="s">
-        <v>568</v>
       </c>
       <c r="R137" s="3">
         <v>3</v>
@@ -15674,13 +15414,13 @@
         <v>1</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="P138" s="3">
         <v>2</v>
       </c>
       <c r="Q138" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R138" s="3">
         <v>1</v>
@@ -15692,7 +15432,7 @@
         <v>496</v>
       </c>
       <c r="V138" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X138" s="1">
         <v>5</v>
@@ -15742,13 +15482,13 @@
         <v>1</v>
       </c>
       <c r="O139" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="P139" s="3">
         <v>2</v>
       </c>
       <c r="Q139" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R139" s="3">
         <v>2</v>
@@ -15804,13 +15544,13 @@
         <v>1</v>
       </c>
       <c r="O140" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="P140" s="3">
         <v>2</v>
       </c>
       <c r="Q140" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="R140" s="3">
         <v>3</v>
@@ -15866,13 +15606,13 @@
         <v>2</v>
       </c>
       <c r="O141" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="P141" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="P141" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q141" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="R141" s="3">
         <v>1</v>
@@ -15884,7 +15624,7 @@
         <v>496</v>
       </c>
       <c r="V141" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X141" s="1">
         <v>5</v>
@@ -15934,13 +15674,13 @@
         <v>2</v>
       </c>
       <c r="O142" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="P142" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="P142" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q142" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="R142" s="3">
         <v>2</v>
@@ -15996,13 +15736,13 @@
         <v>2</v>
       </c>
       <c r="O143" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="P143" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="P143" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q143" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="R143" s="3">
         <v>3</v>
@@ -16058,13 +15798,13 @@
         <v>2</v>
       </c>
       <c r="O144" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P144" s="3">
         <v>2</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R144" s="3">
         <v>1</v>
@@ -16076,7 +15816,7 @@
         <v>496</v>
       </c>
       <c r="V144" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X144" s="1">
         <v>5</v>
@@ -16126,13 +15866,13 @@
         <v>2</v>
       </c>
       <c r="O145" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P145" s="3">
         <v>2</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R145" s="3">
         <v>2</v>
@@ -16188,13 +15928,13 @@
         <v>2</v>
       </c>
       <c r="O146" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P146" s="3">
         <v>2</v>
       </c>
       <c r="Q146" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="R146" s="3">
         <v>3</v>
@@ -16250,13 +15990,13 @@
         <v>3</v>
       </c>
       <c r="O147" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="P147" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="P147" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q147" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="R147" s="3">
         <v>1</v>
@@ -16268,7 +16008,7 @@
         <v>496</v>
       </c>
       <c r="V147" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X147" s="1">
         <v>5</v>
@@ -16318,13 +16058,13 @@
         <v>3</v>
       </c>
       <c r="O148" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="P148" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="P148" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q148" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="R148" s="3">
         <v>2</v>
@@ -16380,13 +16120,13 @@
         <v>3</v>
       </c>
       <c r="O149" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="P149" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="P149" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q149" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="R149" s="3">
         <v>3</v>
@@ -16442,13 +16182,13 @@
         <v>3</v>
       </c>
       <c r="O150" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P150" s="3">
         <v>2</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R150" s="3">
         <v>1</v>
@@ -16460,7 +16200,7 @@
         <v>496</v>
       </c>
       <c r="V150" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X150" s="1">
         <v>5</v>
@@ -16510,13 +16250,13 @@
         <v>3</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P151" s="3">
         <v>2</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R151" s="3">
         <v>2</v>
@@ -16572,13 +16312,13 @@
         <v>3</v>
       </c>
       <c r="O152" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P152" s="3">
         <v>2</v>
       </c>
       <c r="Q152" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R152" s="3">
         <v>3</v>
@@ -16634,13 +16374,13 @@
         <v>4</v>
       </c>
       <c r="O153" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="P153" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="P153" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q153" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="R153" s="3">
         <v>1</v>
@@ -16652,7 +16392,7 @@
         <v>496</v>
       </c>
       <c r="V153" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X153" s="1">
         <v>5</v>
@@ -16702,13 +16442,13 @@
         <v>4</v>
       </c>
       <c r="O154" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="P154" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="P154" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q154" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="R154" s="3">
         <v>2</v>
@@ -16764,13 +16504,13 @@
         <v>4</v>
       </c>
       <c r="O155" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="P155" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="P155" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q155" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="R155" s="3">
         <v>3</v>
@@ -16826,13 +16566,13 @@
         <v>4</v>
       </c>
       <c r="O156" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P156" s="3">
         <v>2</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R156" s="3">
         <v>1</v>
@@ -16844,7 +16584,7 @@
         <v>496</v>
       </c>
       <c r="V156" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X156" s="1">
         <v>5</v>
@@ -16894,13 +16634,13 @@
         <v>4</v>
       </c>
       <c r="O157" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P157" s="3">
         <v>2</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R157" s="3">
         <v>2</v>
@@ -16956,13 +16696,13 @@
         <v>4</v>
       </c>
       <c r="O158" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P158" s="3">
         <v>2</v>
       </c>
       <c r="Q158" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="R158" s="3">
         <v>3</v>
@@ -17018,13 +16758,13 @@
         <v>5</v>
       </c>
       <c r="O159" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="P159" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="P159" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q159" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="R159" s="3">
         <v>1</v>
@@ -17036,10 +16776,10 @@
         <v>496</v>
       </c>
       <c r="V159" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="W159" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="X159" s="1">
         <v>5</v>
@@ -17089,13 +16829,13 @@
         <v>5</v>
       </c>
       <c r="O160" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="P160" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="P160" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q160" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="R160" s="3">
         <v>2</v>
@@ -17151,13 +16891,13 @@
         <v>5</v>
       </c>
       <c r="O161" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="P161" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q161" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="P161" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q161" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="R161" s="3">
         <v>3</v>
@@ -17213,13 +16953,13 @@
         <v>5</v>
       </c>
       <c r="O162" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P162" s="3">
         <v>2</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R162" s="3">
         <v>1</v>
@@ -17231,7 +16971,7 @@
         <v>496</v>
       </c>
       <c r="V162" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X162" s="1">
         <v>5</v>
@@ -17281,13 +17021,13 @@
         <v>5</v>
       </c>
       <c r="O163" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P163" s="3">
         <v>2</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R163" s="3">
         <v>2</v>
@@ -17343,13 +17083,13 @@
         <v>5</v>
       </c>
       <c r="O164" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P164" s="3">
         <v>2</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R164" s="3">
         <v>3</v>
@@ -17405,13 +17145,13 @@
         <v>6</v>
       </c>
       <c r="O165" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="P165" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="P165" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q165" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="R165" s="3">
         <v>1</v>
@@ -17423,10 +17163,10 @@
         <v>496</v>
       </c>
       <c r="V165" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="W165" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="X165" s="1">
         <v>5</v>
@@ -17476,13 +17216,13 @@
         <v>6</v>
       </c>
       <c r="O166" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="P166" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="P166" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q166" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="R166" s="3">
         <v>2</v>
@@ -17538,13 +17278,13 @@
         <v>6</v>
       </c>
       <c r="O167" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="P167" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="P167" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q167" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="R167" s="3">
         <v>3</v>
@@ -17600,13 +17340,13 @@
         <v>6</v>
       </c>
       <c r="O168" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P168" s="3">
         <v>2</v>
       </c>
       <c r="Q168" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R168" s="3">
         <v>1</v>
@@ -17618,7 +17358,7 @@
         <v>496</v>
       </c>
       <c r="V168" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X168" s="1">
         <v>5</v>
@@ -17668,13 +17408,13 @@
         <v>6</v>
       </c>
       <c r="O169" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P169" s="3">
         <v>2</v>
       </c>
       <c r="Q169" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R169" s="3">
         <v>2</v>
@@ -17730,13 +17470,13 @@
         <v>6</v>
       </c>
       <c r="O170" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P170" s="3">
         <v>2</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R170" s="3">
         <v>3</v>
@@ -17792,13 +17532,13 @@
         <v>7</v>
       </c>
       <c r="O171" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="P171" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="P171" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q171" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="R171" s="3">
         <v>1</v>
@@ -17810,7 +17550,7 @@
         <v>496</v>
       </c>
       <c r="V171" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X171" s="1">
         <v>5</v>
@@ -17860,13 +17600,13 @@
         <v>7</v>
       </c>
       <c r="O172" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="P172" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q172" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="P172" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q172" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="R172" s="3">
         <v>2</v>
@@ -17922,13 +17662,13 @@
         <v>7</v>
       </c>
       <c r="O173" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="P173" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="P173" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q173" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="R173" s="3">
         <v>3</v>
@@ -17984,13 +17724,13 @@
         <v>7</v>
       </c>
       <c r="O174" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P174" s="3">
         <v>2</v>
       </c>
       <c r="Q174" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R174" s="3">
         <v>1</v>
@@ -18002,7 +17742,7 @@
         <v>496</v>
       </c>
       <c r="V174" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X174" s="1">
         <v>5</v>
@@ -18052,13 +17792,13 @@
         <v>7</v>
       </c>
       <c r="O175" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P175" s="3">
         <v>2</v>
       </c>
       <c r="Q175" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R175" s="3">
         <v>2</v>
@@ -18114,13 +17854,13 @@
         <v>7</v>
       </c>
       <c r="O176" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P176" s="3">
         <v>2</v>
       </c>
       <c r="Q176" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R176" s="3">
         <v>3</v>
@@ -18176,13 +17916,13 @@
         <v>1</v>
       </c>
       <c r="O177" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="P177" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q177" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="P177" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q177" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="R177" s="3">
         <v>1</v>
@@ -18194,7 +17934,7 @@
         <v>496</v>
       </c>
       <c r="V177" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X177" s="1">
         <v>5</v>
@@ -18244,13 +17984,13 @@
         <v>1</v>
       </c>
       <c r="O178" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="P178" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q178" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="P178" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q178" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="R178" s="3">
         <v>2</v>
@@ -18306,13 +18046,13 @@
         <v>1</v>
       </c>
       <c r="O179" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="P179" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q179" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="P179" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q179" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="R179" s="3">
         <v>3</v>
@@ -18368,13 +18108,13 @@
         <v>1</v>
       </c>
       <c r="O180" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P180" s="3">
         <v>2</v>
       </c>
       <c r="Q180" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R180" s="3">
         <v>1</v>
@@ -18386,7 +18126,7 @@
         <v>496</v>
       </c>
       <c r="V180" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X180" s="1">
         <v>5</v>
@@ -18436,13 +18176,13 @@
         <v>1</v>
       </c>
       <c r="O181" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P181" s="3">
         <v>2</v>
       </c>
       <c r="Q181" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R181" s="3">
         <v>2</v>
@@ -18498,13 +18238,13 @@
         <v>1</v>
       </c>
       <c r="O182" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P182" s="3">
         <v>2</v>
       </c>
       <c r="Q182" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R182" s="3">
         <v>3</v>
@@ -18560,13 +18300,13 @@
         <v>1</v>
       </c>
       <c r="O183" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P183" s="3">
         <v>3</v>
       </c>
       <c r="Q183" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R183" s="3">
         <v>1</v>
@@ -18578,7 +18318,7 @@
         <v>496</v>
       </c>
       <c r="V183" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X183" s="1">
         <v>5</v>
@@ -18628,13 +18368,13 @@
         <v>1</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P184" s="3">
         <v>3</v>
       </c>
       <c r="Q184" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R184" s="3">
         <v>2</v>
@@ -18690,13 +18430,13 @@
         <v>1</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P185" s="3">
         <v>3</v>
       </c>
       <c r="Q185" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R185" s="3">
         <v>3</v>
@@ -18752,13 +18492,13 @@
         <v>1</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P186" s="3">
         <v>4</v>
       </c>
       <c r="Q186" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R186" s="3">
         <v>1</v>
@@ -18770,7 +18510,7 @@
         <v>496</v>
       </c>
       <c r="V186" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="X186" s="1">
         <v>5</v>
@@ -18820,13 +18560,13 @@
         <v>1</v>
       </c>
       <c r="O187" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P187" s="3">
         <v>4</v>
       </c>
       <c r="Q187" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R187" s="3">
         <v>2</v>
@@ -18882,13 +18622,13 @@
         <v>1</v>
       </c>
       <c r="O188" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P188" s="3">
         <v>4</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R188" s="3">
         <v>3</v>
@@ -18944,13 +18684,13 @@
         <v>1</v>
       </c>
       <c r="O189" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="P189" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q189" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="P189" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q189" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="R189" s="3">
         <v>1</v>
@@ -18962,10 +18702,10 @@
         <v>496</v>
       </c>
       <c r="V189" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="W189" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="X189" s="1">
         <v>2</v>
@@ -19015,13 +18755,13 @@
         <v>1</v>
       </c>
       <c r="O190" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="P190" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q190" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="P190" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q190" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="R190" s="3">
         <v>2</v>
@@ -19077,13 +18817,13 @@
         <v>1</v>
       </c>
       <c r="O191" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="P191" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q191" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="P191" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q191" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="R191" s="3">
         <v>3</v>
@@ -19139,13 +18879,13 @@
         <v>1</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P192" s="3">
         <v>2</v>
       </c>
       <c r="Q192" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R192" s="3">
         <v>1</v>
@@ -19157,7 +18897,7 @@
         <v>496</v>
       </c>
       <c r="V192" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="X192" s="1">
         <v>2</v>
@@ -19207,13 +18947,13 @@
         <v>1</v>
       </c>
       <c r="O193" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P193" s="3">
         <v>2</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R193" s="3">
         <v>2</v>
@@ -19269,13 +19009,13 @@
         <v>1</v>
       </c>
       <c r="O194" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P194" s="3">
         <v>2</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R194" s="3">
         <v>3</v>
@@ -19331,13 +19071,13 @@
         <v>1</v>
       </c>
       <c r="O195" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P195" s="3">
         <v>3</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R195" s="3">
         <v>1</v>
@@ -19349,7 +19089,7 @@
         <v>496</v>
       </c>
       <c r="V195" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="X195" s="1">
         <v>2</v>
@@ -19399,13 +19139,13 @@
         <v>1</v>
       </c>
       <c r="O196" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P196" s="3">
         <v>3</v>
       </c>
       <c r="Q196" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R196" s="3">
         <v>2</v>
@@ -19461,13 +19201,13 @@
         <v>1</v>
       </c>
       <c r="O197" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P197" s="3">
         <v>3</v>
       </c>
       <c r="Q197" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R197" s="3">
         <v>3</v>
@@ -19523,13 +19263,13 @@
         <v>1</v>
       </c>
       <c r="O198" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P198" s="3">
         <v>4</v>
       </c>
       <c r="Q198" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="R198" s="3">
         <v>1</v>
@@ -19541,10 +19281,10 @@
         <v>496</v>
       </c>
       <c r="V198" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="W198" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="X198" s="1">
         <v>2</v>
@@ -19594,13 +19334,13 @@
         <v>1</v>
       </c>
       <c r="O199" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="P199" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q199" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="P199" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q199" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="R199" s="3">
         <v>1</v>
@@ -19662,13 +19402,13 @@
         <v>1</v>
       </c>
       <c r="O200" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="P200" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q200" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="P200" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q200" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="R200" s="3">
         <v>2</v>
@@ -19724,13 +19464,13 @@
         <v>1</v>
       </c>
       <c r="O201" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="P201" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q201" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="P201" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q201" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="R201" s="3">
         <v>3</v>
@@ -19786,13 +19526,13 @@
         <v>1</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P202" s="3">
         <v>2</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R202" s="3">
         <v>1</v>
@@ -19854,13 +19594,13 @@
         <v>1</v>
       </c>
       <c r="O203" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P203" s="3">
         <v>2</v>
       </c>
       <c r="Q203" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R203" s="3">
         <v>2</v>
@@ -19916,13 +19656,13 @@
         <v>1</v>
       </c>
       <c r="O204" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P204" s="3">
         <v>2</v>
       </c>
       <c r="Q204" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R204" s="3">
         <v>3</v>
@@ -19978,13 +19718,13 @@
         <v>1</v>
       </c>
       <c r="O205" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P205" s="3">
         <v>3</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R205" s="3">
         <v>1</v>
@@ -20046,13 +19786,13 @@
         <v>1</v>
       </c>
       <c r="O206" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P206" s="3">
         <v>3</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R206" s="3">
         <v>2</v>
@@ -20108,13 +19848,13 @@
         <v>1</v>
       </c>
       <c r="O207" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P207" s="3">
         <v>3</v>
       </c>
       <c r="Q207" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R207" s="3">
         <v>3</v>
@@ -20170,19 +19910,19 @@
         <v>1</v>
       </c>
       <c r="O208" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="P208" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q208" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="P208" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q208" s="3" t="s">
+      <c r="R208" s="3">
+        <v>1</v>
+      </c>
+      <c r="S208" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="R208" s="3">
-        <v>1</v>
-      </c>
-      <c r="S208" s="3" t="s">
-        <v>603</v>
       </c>
       <c r="T208" s="3" t="s">
         <v>496</v>
@@ -20191,10 +19931,10 @@
         <v>3</v>
       </c>
       <c r="W208" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y208" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="209" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20241,19 +19981,19 @@
         <v>1</v>
       </c>
       <c r="O209" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P209" s="3">
         <v>2</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R209" s="3">
         <v>1</v>
       </c>
       <c r="S209" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T209" s="3" t="s">
         <v>496</v>
@@ -20306,19 +20046,19 @@
         <v>1</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P210" s="3">
         <v>3</v>
       </c>
       <c r="Q210" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="R210" s="3">
         <v>1</v>
       </c>
       <c r="S210" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T210" s="3" t="s">
         <v>496</v>
@@ -20371,19 +20111,19 @@
         <v>1</v>
       </c>
       <c r="O211" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P211" s="3">
         <v>4</v>
       </c>
       <c r="Q211" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="R211" s="3">
         <v>1</v>
       </c>
       <c r="S211" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T211" s="3" t="s">
         <v>496</v>
@@ -20436,19 +20176,19 @@
         <v>1</v>
       </c>
       <c r="O212" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="P212" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q212" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="P212" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q212" s="3" t="s">
-        <v>608</v>
-      </c>
       <c r="R212" s="3">
         <v>1</v>
       </c>
       <c r="S212" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T212" s="3" t="s">
         <v>496</v>
@@ -20501,19 +20241,19 @@
         <v>1</v>
       </c>
       <c r="O213" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P213" s="3">
         <v>2</v>
       </c>
       <c r="Q213" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="R213" s="3">
         <v>1</v>
       </c>
       <c r="S213" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T213" s="3" t="s">
         <v>496</v>
@@ -20566,19 +20306,19 @@
         <v>1</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P214" s="3">
         <v>3</v>
       </c>
       <c r="Q214" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="R214" s="3">
         <v>1</v>
       </c>
       <c r="S214" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T214" s="3" t="s">
         <v>496</v>
@@ -20631,19 +20371,19 @@
         <v>1</v>
       </c>
       <c r="O215" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P215" s="3">
         <v>4</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="R215" s="3">
         <v>1</v>
       </c>
       <c r="S215" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T215" s="3" t="s">
         <v>496</v>
@@ -20696,25 +20436,25 @@
         <v>1</v>
       </c>
       <c r="O216" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="P216" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q216" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="P216" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q216" s="3" t="s">
-        <v>613</v>
-      </c>
       <c r="R216" s="3">
         <v>1</v>
       </c>
       <c r="S216" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T216" s="3" t="s">
         <v>496</v>
       </c>
       <c r="V216" s="30" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X216" s="1">
         <v>8</v>
@@ -20764,25 +20504,25 @@
         <v>1</v>
       </c>
       <c r="O217" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P217" s="3">
         <v>2</v>
       </c>
       <c r="Q217" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R217" s="3">
         <v>1</v>
       </c>
       <c r="S217" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T217" s="3" t="s">
         <v>496</v>
       </c>
       <c r="V217" s="30" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X217" s="1">
         <v>8</v>
@@ -20832,25 +20572,25 @@
         <v>1</v>
       </c>
       <c r="O218" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P218" s="3">
         <v>3</v>
       </c>
       <c r="Q218" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="R218" s="3">
         <v>1</v>
       </c>
       <c r="S218" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T218" s="3" t="s">
         <v>496</v>
       </c>
       <c r="V218" s="30" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="X218" s="1">
         <v>8</v>
@@ -20900,19 +20640,19 @@
         <v>1</v>
       </c>
       <c r="O219" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P219" s="3">
         <v>4</v>
       </c>
       <c r="Q219" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="R219" s="3">
         <v>1</v>
       </c>
       <c r="S219" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T219" s="3" t="s">
         <v>496</v>
@@ -20962,13 +20702,13 @@
         <v>1</v>
       </c>
       <c r="O220" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="P220" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q220" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="P220" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q220" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="R220" s="3">
         <v>1</v>
@@ -20980,7 +20720,7 @@
         <v>496</v>
       </c>
       <c r="V220" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="X220" s="1">
         <v>2</v>
@@ -21030,13 +20770,13 @@
         <v>1</v>
       </c>
       <c r="O221" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P221" s="3">
         <v>2</v>
       </c>
       <c r="Q221" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="R221" s="3">
         <v>1</v>
@@ -21048,7 +20788,7 @@
         <v>496</v>
       </c>
       <c r="V221" s="30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="X221" s="1">
         <v>2</v>
@@ -21098,13 +20838,13 @@
         <v>1</v>
       </c>
       <c r="O222" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="P222" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="P222" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q222" s="3" t="s">
-        <v>620</v>
       </c>
       <c r="R222" s="3">
         <v>1</v>
@@ -21119,10 +20859,10 @@
         <v>2</v>
       </c>
       <c r="W222" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Y222" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="223" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -21169,13 +20909,13 @@
         <v>1</v>
       </c>
       <c r="O223" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P223" s="3">
         <v>2</v>
       </c>
       <c r="Q223" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R223" s="3">
         <v>1</v>
@@ -21237,13 +20977,13 @@
         <v>1</v>
       </c>
       <c r="O224" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P224" s="3">
         <v>3</v>
       </c>
       <c r="Q224" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R224" s="3">
         <v>1</v>
@@ -21299,19 +21039,19 @@
         <v>1</v>
       </c>
       <c r="O225" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="P225" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q225" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="P225" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q225" s="3" t="s">
-        <v>623</v>
-      </c>
       <c r="R225" s="3">
         <v>1</v>
       </c>
       <c r="S225" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T225" s="3" t="s">
         <v>496</v>
@@ -21320,7 +21060,7 @@
         <v>5</v>
       </c>
       <c r="W225" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="X225" s="1">
         <v>3</v>
@@ -21370,19 +21110,19 @@
         <v>1</v>
       </c>
       <c r="O226" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P226" s="3">
         <v>2</v>
       </c>
       <c r="Q226" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="R226" s="3">
         <v>1</v>
       </c>
       <c r="S226" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T226" s="3" t="s">
         <v>496</v>
@@ -21438,19 +21178,19 @@
         <v>1</v>
       </c>
       <c r="O227" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P227" s="3">
         <v>3</v>
       </c>
       <c r="Q227" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R227" s="3">
         <v>1</v>
       </c>
       <c r="S227" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T227" s="3" t="s">
         <v>496</v>
@@ -21459,7 +21199,7 @@
         <v>5</v>
       </c>
       <c r="W227" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="X227" s="1">
         <v>3</v>
@@ -21509,19 +21249,19 @@
         <v>1</v>
       </c>
       <c r="O228" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P228" s="3">
         <v>4</v>
       </c>
       <c r="Q228" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="R228" s="3">
         <v>1</v>
       </c>
       <c r="S228" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T228" s="3" t="s">
         <v>496</v>
@@ -21577,19 +21317,19 @@
         <v>1</v>
       </c>
       <c r="O229" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P229" s="3">
         <v>5</v>
       </c>
       <c r="Q229" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R229" s="3">
         <v>1</v>
       </c>
       <c r="S229" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T229" s="3" t="s">
         <v>496</v>
@@ -21645,19 +21385,19 @@
         <v>1</v>
       </c>
       <c r="O230" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P230" s="3">
         <v>6</v>
       </c>
       <c r="Q230" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R230" s="3">
         <v>1</v>
       </c>
       <c r="S230" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T230" s="3" t="s">
         <v>496</v>
@@ -21686,10 +21426,10 @@
         <v>187</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>188</v>
@@ -21760,19 +21500,19 @@
         <v>1</v>
       </c>
       <c r="O232" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="P232" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q232" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="P232" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q232" s="3" t="s">
-        <v>630</v>
-      </c>
       <c r="R232" s="3">
         <v>1</v>
       </c>
       <c r="S232" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T232" s="3" t="s">
         <v>496</v>
@@ -21781,7 +21521,7 @@
         <v>5</v>
       </c>
       <c r="W232" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X232" s="1">
         <v>4</v>
@@ -21831,19 +21571,19 @@
         <v>1</v>
       </c>
       <c r="O233" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P233" s="3">
         <v>2</v>
       </c>
       <c r="Q233" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="R233" s="3">
         <v>1</v>
       </c>
       <c r="S233" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T233" s="3" t="s">
         <v>496</v>
@@ -21899,19 +21639,19 @@
         <v>1</v>
       </c>
       <c r="O234" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P234" s="3">
         <v>3</v>
       </c>
       <c r="Q234" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="R234" s="3">
         <v>1</v>
       </c>
       <c r="S234" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T234" s="3" t="s">
         <v>496</v>
@@ -21961,19 +21701,19 @@
         <v>1</v>
       </c>
       <c r="O235" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P235" s="3">
         <v>4</v>
       </c>
       <c r="Q235" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R235" s="3">
         <v>1</v>
       </c>
       <c r="S235" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T235" s="3" t="s">
         <v>496</v>
@@ -22023,25 +21763,25 @@
         <v>1</v>
       </c>
       <c r="O236" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P236" s="3">
         <v>1</v>
       </c>
       <c r="Q236" s="60" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="R236" s="3">
         <v>1</v>
       </c>
       <c r="S236" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T236" s="3" t="s">
         <v>496</v>
       </c>
       <c r="U236" s="33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="V236" s="30">
         <v>8</v>
@@ -22094,25 +21834,25 @@
         <v>1</v>
       </c>
       <c r="O237" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P237" s="3">
         <v>2</v>
       </c>
       <c r="Q237" s="61" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="R237" s="3">
         <v>1</v>
       </c>
       <c r="S237" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T237" s="3" t="s">
         <v>496</v>
       </c>
       <c r="U237" s="33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="V237" s="30">
         <v>8</v>
@@ -22165,19 +21905,19 @@
         <v>1</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P238" s="3">
         <v>3</v>
       </c>
       <c r="Q238" s="61" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R238" s="3">
         <v>1</v>
       </c>
       <c r="S238" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T238" s="3" t="s">
         <v>496</v>
@@ -22233,19 +21973,19 @@
         <v>1</v>
       </c>
       <c r="O239" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P239" s="3">
         <v>4</v>
       </c>
       <c r="Q239" s="61" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="R239" s="3">
         <v>1</v>
       </c>
       <c r="S239" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T239" s="3" t="s">
         <v>496</v>
@@ -22254,7 +21994,7 @@
         <v>8</v>
       </c>
       <c r="W239" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X239" s="1">
         <v>4</v>
@@ -22304,19 +22044,19 @@
         <v>1</v>
       </c>
       <c r="O240" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P240" s="3">
         <v>5</v>
       </c>
       <c r="Q240" s="61" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="R240" s="3">
         <v>1</v>
       </c>
       <c r="S240" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T240" s="3" t="s">
         <v>496</v>
@@ -22372,19 +22112,19 @@
         <v>1</v>
       </c>
       <c r="O241" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P241" s="3">
         <v>6</v>
       </c>
       <c r="Q241" s="61" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="R241" s="3">
         <v>1</v>
       </c>
       <c r="S241" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T241" s="3" t="s">
         <v>496</v>
@@ -22440,19 +22180,19 @@
         <v>1</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P242" s="3">
         <v>7</v>
       </c>
       <c r="Q242" s="61" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R242" s="3">
         <v>1</v>
       </c>
       <c r="S242" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T242" s="3" t="s">
         <v>496</v>
@@ -22461,7 +22201,7 @@
         <v>8</v>
       </c>
       <c r="W242" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="X242" s="1">
         <v>4</v>
@@ -22511,19 +22251,19 @@
         <v>1</v>
       </c>
       <c r="O243" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P243" s="3">
         <v>8</v>
       </c>
       <c r="Q243" s="61" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="R243" s="3">
         <v>1</v>
       </c>
       <c r="S243" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T243" s="3" t="s">
         <v>496</v>
@@ -22579,19 +22319,19 @@
         <v>1</v>
       </c>
       <c r="O244" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P244" s="3">
         <v>9</v>
       </c>
       <c r="Q244" s="61" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="R244" s="3">
         <v>1</v>
       </c>
       <c r="S244" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T244" s="3" t="s">
         <v>496</v>
@@ -22647,19 +22387,19 @@
         <v>1</v>
       </c>
       <c r="O245" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P245" s="3">
         <v>10</v>
       </c>
       <c r="Q245" s="61" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="R245" s="3">
         <v>1</v>
       </c>
       <c r="S245" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T245" s="3" t="s">
         <v>496</v>
@@ -22715,19 +22455,19 @@
         <v>1</v>
       </c>
       <c r="O246" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P246" s="3">
         <v>11</v>
       </c>
       <c r="Q246" s="61" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="R246" s="3">
         <v>1</v>
       </c>
       <c r="S246" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T246" s="3" t="s">
         <v>496</v>
@@ -22736,7 +22476,7 @@
         <v>8</v>
       </c>
       <c r="W246" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="X246" s="1">
         <v>4</v>
@@ -22786,19 +22526,19 @@
         <v>1</v>
       </c>
       <c r="O247" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P247" s="3">
         <v>12</v>
       </c>
       <c r="Q247" s="62" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R247" s="3">
         <v>1</v>
       </c>
       <c r="S247" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T247" s="3" t="s">
         <v>496</v>
@@ -22848,19 +22588,19 @@
         <v>1</v>
       </c>
       <c r="O248" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="P248" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q248" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="P248" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q248" s="3" t="s">
-        <v>635</v>
-      </c>
       <c r="R248" s="3">
         <v>1</v>
       </c>
       <c r="S248" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T248" s="3" t="s">
         <v>496</v>
@@ -22913,19 +22653,19 @@
         <v>1</v>
       </c>
       <c r="O249" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P249" s="3">
         <v>2</v>
       </c>
       <c r="Q249" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R249" s="3">
         <v>1</v>
       </c>
       <c r="S249" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T249" s="3" t="s">
         <v>496</v>
@@ -22937,7 +22677,7 @@
         <v>8</v>
       </c>
       <c r="W249" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="250" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -22984,19 +22724,19 @@
         <v>1</v>
       </c>
       <c r="O250" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P250" s="3">
         <v>3</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R250" s="3">
         <v>1</v>
       </c>
       <c r="S250" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="T250" s="3" t="s">
         <v>496</v>
@@ -23049,13 +22789,13 @@
         <v>1</v>
       </c>
       <c r="O251" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="P251" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q251" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="P251" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q251" s="3" t="s">
-        <v>639</v>
       </c>
       <c r="R251" s="3">
         <v>1</v>
@@ -23067,7 +22807,7 @@
         <v>496</v>
       </c>
       <c r="W251" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -23114,13 +22854,13 @@
         <v>1</v>
       </c>
       <c r="O252" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="P252" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q252" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="P252" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q252" s="3" t="s">
-        <v>639</v>
       </c>
       <c r="R252" s="3">
         <v>2</v>
@@ -23176,13 +22916,13 @@
         <v>1</v>
       </c>
       <c r="O253" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="P253" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q253" s="3" t="s">
         <v>638</v>
-      </c>
-      <c r="P253" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q253" s="3" t="s">
-        <v>639</v>
       </c>
       <c r="R253" s="3">
         <v>3</v>
@@ -23238,13 +22978,13 @@
         <v>1</v>
       </c>
       <c r="O254" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P254" s="3">
         <v>2</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R254" s="3">
         <v>1</v>
@@ -23300,13 +23040,13 @@
         <v>1</v>
       </c>
       <c r="O255" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P255" s="3">
         <v>2</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R255" s="3">
         <v>2</v>
@@ -23362,13 +23102,13 @@
         <v>1</v>
       </c>
       <c r="O256" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P256" s="3">
         <v>2</v>
       </c>
       <c r="Q256" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R256" s="3">
         <v>3</v>
@@ -23424,13 +23164,13 @@
         <v>1</v>
       </c>
       <c r="O257" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P257" s="3">
         <v>3</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="R257" s="3">
         <v>1</v>
@@ -23486,13 +23226,13 @@
         <v>1</v>
       </c>
       <c r="O258" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P258" s="3">
         <v>3</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="R258" s="3">
         <v>2</v>
@@ -23548,13 +23288,13 @@
         <v>1</v>
       </c>
       <c r="O259" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P259" s="3">
         <v>3</v>
       </c>
       <c r="Q259" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="R259" s="3">
         <v>3</v>
@@ -23651,13 +23391,13 @@
         <v>1</v>
       </c>
       <c r="O261" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="P261" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q261" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="P261" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q261" s="3" t="s">
-        <v>643</v>
       </c>
       <c r="R261" s="3">
         <v>1</v>
@@ -23713,13 +23453,13 @@
         <v>1</v>
       </c>
       <c r="O262" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="P262" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q262" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="P262" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q262" s="3" t="s">
-        <v>643</v>
       </c>
       <c r="R262" s="3">
         <v>2</v>
@@ -23775,13 +23515,13 @@
         <v>1</v>
       </c>
       <c r="O263" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="P263" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q263" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="P263" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q263" s="3" t="s">
-        <v>643</v>
       </c>
       <c r="R263" s="3">
         <v>3</v>
@@ -23837,13 +23577,13 @@
         <v>1</v>
       </c>
       <c r="O264" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P264" s="3">
         <v>2</v>
       </c>
       <c r="Q264" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="R264" s="3">
         <v>1</v>
@@ -23855,7 +23595,7 @@
         <v>496</v>
       </c>
       <c r="W264" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="265" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -23902,13 +23642,13 @@
         <v>1</v>
       </c>
       <c r="O265" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P265" s="3">
         <v>2</v>
       </c>
       <c r="Q265" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="R265" s="3">
         <v>2</v>
@@ -23964,13 +23704,13 @@
         <v>1</v>
       </c>
       <c r="O266" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P266" s="3">
         <v>2</v>
       </c>
       <c r="Q266" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="R266" s="3">
         <v>3</v>
@@ -24026,13 +23766,13 @@
         <v>1</v>
       </c>
       <c r="O267" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P267" s="3">
         <v>3</v>
       </c>
       <c r="Q267" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="R267" s="3">
         <v>1</v>
@@ -24088,13 +23828,13 @@
         <v>1</v>
       </c>
       <c r="O268" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P268" s="3">
         <v>4</v>
       </c>
       <c r="Q268" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="R268" s="3">
         <v>1</v>
@@ -24129,22 +23869,22 @@
         <v>481</v>
       </c>
       <c r="H269" s="27" t="s">
+        <v>814</v>
+      </c>
+      <c r="I269" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="I269" s="28" t="s">
+      <c r="J269" s="28" t="s">
         <v>816</v>
       </c>
-      <c r="J269" s="28" t="s">
+      <c r="K269" s="28" t="s">
         <v>817</v>
       </c>
-      <c r="K269" s="28" t="s">
+      <c r="L269" s="28" t="s">
         <v>818</v>
       </c>
-      <c r="L269" s="28" t="s">
+      <c r="M269" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="M269" s="1" t="s">
-        <v>820</v>
       </c>
       <c r="V269" s="30">
         <v>7</v>
@@ -24153,7 +23893,7 @@
         <v>2</v>
       </c>
       <c r="Y269" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="270" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24176,37 +23916,37 @@
         <v>484</v>
       </c>
       <c r="G270" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="H270" s="27" t="s">
         <v>814</v>
       </c>
-      <c r="H270" s="27" t="s">
+      <c r="I270" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="I270" s="28" t="s">
+      <c r="J270" s="28" t="s">
         <v>816</v>
       </c>
-      <c r="J270" s="28" t="s">
+      <c r="K270" s="28" t="s">
         <v>817</v>
       </c>
-      <c r="K270" s="28" t="s">
+      <c r="L270" s="28" t="s">
         <v>818</v>
       </c>
-      <c r="L270" s="28" t="s">
+      <c r="M270" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="M270" s="1" t="s">
+      <c r="N270" s="3">
+        <v>1</v>
+      </c>
+      <c r="O270" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="P270" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q270" s="3" t="s">
         <v>820</v>
-      </c>
-      <c r="N270" s="3">
-        <v>1</v>
-      </c>
-      <c r="O270" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="P270" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q270" s="3" t="s">
-        <v>821</v>
       </c>
       <c r="R270" s="3">
         <v>1</v>
@@ -24244,37 +23984,37 @@
         <v>484</v>
       </c>
       <c r="G271" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="H271" s="27" t="s">
         <v>814</v>
       </c>
-      <c r="H271" s="27" t="s">
+      <c r="I271" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="I271" s="28" t="s">
+      <c r="J271" s="28" t="s">
         <v>816</v>
       </c>
-      <c r="J271" s="28" t="s">
+      <c r="K271" s="28" t="s">
         <v>817</v>
       </c>
-      <c r="K271" s="28" t="s">
+      <c r="L271" s="28" t="s">
         <v>818</v>
       </c>
-      <c r="L271" s="28" t="s">
+      <c r="M271" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="M271" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="N271" s="3">
         <v>1</v>
       </c>
       <c r="O271" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P271" s="3">
         <v>2</v>
       </c>
       <c r="Q271" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="R271" s="3">
         <v>1</v>
@@ -24312,37 +24052,37 @@
         <v>484</v>
       </c>
       <c r="G272" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="H272" s="27" t="s">
         <v>814</v>
       </c>
-      <c r="H272" s="27" t="s">
+      <c r="I272" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="I272" s="28" t="s">
+      <c r="J272" s="28" t="s">
         <v>816</v>
       </c>
-      <c r="J272" s="28" t="s">
+      <c r="K272" s="28" t="s">
         <v>817</v>
       </c>
-      <c r="K272" s="28" t="s">
+      <c r="L272" s="28" t="s">
         <v>818</v>
       </c>
-      <c r="L272" s="28" t="s">
+      <c r="M272" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="M272" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="N272" s="3">
         <v>1</v>
       </c>
       <c r="O272" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P272" s="3">
         <v>3</v>
       </c>
       <c r="Q272" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="R272" s="3">
         <v>1</v>
@@ -24380,7 +24120,7 @@
         <v>238</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H273" s="27" t="s">
         <v>239</v>
@@ -24404,13 +24144,13 @@
         <v>1</v>
       </c>
       <c r="O273" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="P273" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q273" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="P273" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q273" s="3" t="s">
-        <v>648</v>
       </c>
       <c r="R273" s="3">
         <v>1</v>
@@ -24442,7 +24182,7 @@
         <v>238</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H274" s="27" t="s">
         <v>239</v>
@@ -24466,13 +24206,13 @@
         <v>1</v>
       </c>
       <c r="O274" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="P274" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q274" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="P274" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q274" s="3" t="s">
-        <v>648</v>
       </c>
       <c r="R274" s="3">
         <v>2</v>
@@ -24504,7 +24244,7 @@
         <v>238</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H275" s="27" t="s">
         <v>239</v>
@@ -24528,13 +24268,13 @@
         <v>1</v>
       </c>
       <c r="O275" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="P275" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q275" s="3" t="s">
         <v>647</v>
-      </c>
-      <c r="P275" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q275" s="3" t="s">
-        <v>648</v>
       </c>
       <c r="R275" s="3">
         <v>3</v>
@@ -24566,7 +24306,7 @@
         <v>238</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H276" s="27" t="s">
         <v>239</v>
@@ -24590,13 +24330,13 @@
         <v>1</v>
       </c>
       <c r="O276" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P276" s="3">
         <v>2</v>
       </c>
       <c r="Q276" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="R276" s="3">
         <v>1</v>
@@ -24628,7 +24368,7 @@
         <v>238</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H277" s="27" t="s">
         <v>239</v>
@@ -24652,13 +24392,13 @@
         <v>1</v>
       </c>
       <c r="O277" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P277" s="3">
         <v>2</v>
       </c>
       <c r="Q277" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="R277" s="3">
         <v>2</v>
@@ -24690,7 +24430,7 @@
         <v>238</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H278" s="27" t="s">
         <v>239</v>
@@ -24714,13 +24454,13 @@
         <v>1</v>
       </c>
       <c r="O278" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P278" s="3">
         <v>2</v>
       </c>
       <c r="Q278" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="R278" s="3">
         <v>3</v>
@@ -24749,28 +24489,28 @@
         <v>238</v>
       </c>
       <c r="F279" s="69" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>244</v>
       </c>
       <c r="H279" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="I279" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="I279" s="28" t="s">
+      <c r="J279" s="28" t="s">
         <v>827</v>
       </c>
-      <c r="J279" s="28" t="s">
+      <c r="K279" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="K279" s="28" t="s">
+      <c r="L279" s="28" t="s">
         <v>829</v>
       </c>
-      <c r="L279" s="28" t="s">
+      <c r="M279" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="M279" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="280" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24790,10 +24530,10 @@
         <v>219</v>
       </c>
       <c r="F280" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="G280" s="69" t="s">
         <v>832</v>
-      </c>
-      <c r="G280" s="69" t="s">
-        <v>833</v>
       </c>
       <c r="H280" s="27" t="s">
         <v>475</v>
@@ -24817,13 +24557,13 @@
         <v>1</v>
       </c>
       <c r="O280" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="P280" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q280" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="P280" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q280" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="R280" s="3">
         <v>1</v>
@@ -24838,7 +24578,7 @@
         <v>4</v>
       </c>
       <c r="V280" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="281" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24858,10 +24598,10 @@
         <v>219</v>
       </c>
       <c r="F281" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="G281" s="69" t="s">
         <v>832</v>
-      </c>
-      <c r="G281" s="69" t="s">
-        <v>833</v>
       </c>
       <c r="H281" s="27" t="s">
         <v>475</v>
@@ -24885,13 +24625,13 @@
         <v>1</v>
       </c>
       <c r="O281" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="P281" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q281" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="P281" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q281" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="R281" s="3">
         <v>2</v>
@@ -24920,10 +24660,10 @@
         <v>219</v>
       </c>
       <c r="F282" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="G282" s="69" t="s">
         <v>832</v>
-      </c>
-      <c r="G282" s="69" t="s">
-        <v>833</v>
       </c>
       <c r="H282" s="27" t="s">
         <v>475</v>
@@ -24947,13 +24687,13 @@
         <v>1</v>
       </c>
       <c r="O282" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="P282" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q282" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="P282" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q282" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="R282" s="3">
         <v>3</v>
@@ -24982,10 +24722,10 @@
         <v>219</v>
       </c>
       <c r="F283" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="G283" s="69" t="s">
         <v>832</v>
-      </c>
-      <c r="G283" s="69" t="s">
-        <v>833</v>
       </c>
       <c r="H283" s="27" t="s">
         <v>475</v>
@@ -25009,13 +24749,13 @@
         <v>1</v>
       </c>
       <c r="O283" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P283" s="3">
         <v>2</v>
       </c>
       <c r="Q283" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R283" s="3">
         <v>1</v>
@@ -25047,10 +24787,10 @@
         <v>219</v>
       </c>
       <c r="F284" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="G284" s="69" t="s">
         <v>832</v>
-      </c>
-      <c r="G284" s="69" t="s">
-        <v>833</v>
       </c>
       <c r="H284" s="27" t="s">
         <v>475</v>
@@ -25074,13 +24814,13 @@
         <v>1</v>
       </c>
       <c r="O284" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P284" s="3">
         <v>2</v>
       </c>
       <c r="Q284" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R284" s="3">
         <v>2</v>
@@ -25109,10 +24849,10 @@
         <v>219</v>
       </c>
       <c r="F285" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="G285" s="69" t="s">
         <v>832</v>
-      </c>
-      <c r="G285" s="69" t="s">
-        <v>833</v>
       </c>
       <c r="H285" s="27" t="s">
         <v>475</v>
@@ -25136,13 +24876,13 @@
         <v>1</v>
       </c>
       <c r="O285" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P285" s="3">
         <v>2</v>
       </c>
       <c r="Q285" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R285" s="3">
         <v>3</v>
@@ -25171,10 +24911,10 @@
         <v>219</v>
       </c>
       <c r="F286" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="G286" s="69" t="s">
         <v>832</v>
-      </c>
-      <c r="G286" s="69" t="s">
-        <v>833</v>
       </c>
       <c r="H286" s="27" t="s">
         <v>475</v>
@@ -25198,13 +24938,13 @@
         <v>1</v>
       </c>
       <c r="O286" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P286" s="3">
         <v>3</v>
       </c>
       <c r="Q286" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R286" s="3">
         <v>1</v>
@@ -25236,10 +24976,10 @@
         <v>219</v>
       </c>
       <c r="F287" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="G287" s="69" t="s">
         <v>832</v>
-      </c>
-      <c r="G287" s="69" t="s">
-        <v>833</v>
       </c>
       <c r="H287" s="27" t="s">
         <v>475</v>
@@ -25263,13 +25003,13 @@
         <v>1</v>
       </c>
       <c r="O287" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P287" s="3">
         <v>3</v>
       </c>
       <c r="Q287" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R287" s="3">
         <v>2</v>
@@ -25298,10 +25038,10 @@
         <v>219</v>
       </c>
       <c r="F288" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="G288" s="69" t="s">
         <v>832</v>
-      </c>
-      <c r="G288" s="69" t="s">
-        <v>833</v>
       </c>
       <c r="H288" s="27" t="s">
         <v>475</v>
@@ -25325,13 +25065,13 @@
         <v>1</v>
       </c>
       <c r="O288" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P288" s="3">
         <v>3</v>
       </c>
       <c r="Q288" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R288" s="3">
         <v>3</v>
@@ -25360,10 +25100,10 @@
         <v>219</v>
       </c>
       <c r="F289" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="G289" s="69" t="s">
         <v>832</v>
-      </c>
-      <c r="G289" s="69" t="s">
-        <v>833</v>
       </c>
       <c r="H289" s="27" t="s">
         <v>475</v>
@@ -25387,13 +25127,13 @@
         <v>1</v>
       </c>
       <c r="O289" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P289" s="3">
         <v>4</v>
       </c>
       <c r="Q289" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R289" s="3">
         <v>1</v>
@@ -25425,10 +25165,10 @@
         <v>219</v>
       </c>
       <c r="F290" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="G290" s="69" t="s">
         <v>832</v>
-      </c>
-      <c r="G290" s="69" t="s">
-        <v>833</v>
       </c>
       <c r="H290" s="27" t="s">
         <v>475</v>
@@ -25452,13 +25192,13 @@
         <v>1</v>
       </c>
       <c r="O290" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P290" s="3">
         <v>4</v>
       </c>
       <c r="Q290" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R290" s="3">
         <v>2</v>
@@ -25487,10 +25227,10 @@
         <v>219</v>
       </c>
       <c r="F291" s="69" t="s">
+        <v>831</v>
+      </c>
+      <c r="G291" s="69" t="s">
         <v>832</v>
-      </c>
-      <c r="G291" s="69" t="s">
-        <v>833</v>
       </c>
       <c r="H291" s="27" t="s">
         <v>475</v>
@@ -25514,13 +25254,13 @@
         <v>1</v>
       </c>
       <c r="O291" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P291" s="3">
         <v>4</v>
       </c>
       <c r="Q291" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R291" s="3">
         <v>3</v>
@@ -25573,7 +25313,7 @@
         <v>295</v>
       </c>
       <c r="V292" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="293" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -25620,13 +25360,13 @@
         <v>1</v>
       </c>
       <c r="O293" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="P293" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q293" s="3" t="s">
         <v>655</v>
-      </c>
-      <c r="P293" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q293" s="3" t="s">
-        <v>656</v>
       </c>
       <c r="R293" s="3">
         <v>1</v>
@@ -25682,13 +25422,13 @@
         <v>1</v>
       </c>
       <c r="O294" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P294" s="3">
         <v>2</v>
       </c>
       <c r="Q294" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="R294" s="3">
         <v>1</v>
@@ -25826,22 +25566,22 @@
         <v>1</v>
       </c>
       <c r="O297" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="P297" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q297" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="P297" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q297" s="3" t="s">
+      <c r="R297" s="3">
+        <v>1</v>
+      </c>
+      <c r="S297" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="R297" s="3">
-        <v>1</v>
-      </c>
-      <c r="S297" s="3" t="s">
-        <v>659</v>
-      </c>
       <c r="T297" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="U297" s="33">
         <v>4</v>
@@ -25891,22 +25631,22 @@
         <v>1</v>
       </c>
       <c r="O298" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="P298" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q298" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="P298" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q298" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="R298" s="3">
         <v>2</v>
       </c>
       <c r="S298" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="T298" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="U298" s="33">
         <v>4</v>
@@ -25919,113 +25659,113 @@
   </sortState>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="N220:Q223 O219:Q219 N225:Q233 O224:Q224 N236:P246 O234:Q235 S236:S246 N177:Q218 N135:Q174 S225:S233 S220:S223 S144:S164 S177:S218 S1:S104 N1:Q22 N23:P34 N35:Q64 N129:P134 N65:P73 N74:Q128 N248:Q1048576 S248:S1048576">
-    <cfRule type="cellIs" dxfId="75" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="96" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U174 U177:U1048576">
-    <cfRule type="cellIs" dxfId="74" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="94" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576 W1:Y1048576">
-    <cfRule type="cellIs" dxfId="72" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="93" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S247">
-    <cfRule type="cellIs" dxfId="71" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N247:P247">
-    <cfRule type="cellIs" dxfId="70" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N175:Q176">
-    <cfRule type="cellIs" dxfId="67" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U175:U176">
-    <cfRule type="cellIs" dxfId="66" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="86" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="cellIs" dxfId="64" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="80" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S219">
-    <cfRule type="cellIs" dxfId="63" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N219">
-    <cfRule type="cellIs" dxfId="62" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S224">
-    <cfRule type="cellIs" dxfId="61" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N224">
-    <cfRule type="cellIs" dxfId="60" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N234">
-    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S234:S235">
-    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="61" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S105:S119">
-    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120:S128">
-    <cfRule type="cellIs" dxfId="54" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S129:S143">
-    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S165:S176">
-    <cfRule type="cellIs" dxfId="52" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C280:C292 C251:C268">
-    <cfRule type="duplicateValues" dxfId="51" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V178:V179 V166:V167 V172:V173 V169:V170 V181:V182 V184:V185 V175:V176 V1:V164 V187:V1048576">
     <cfRule type="cellIs" dxfId="26" priority="27" operator="greaterThan">

--- a/public/new_template.xlsx
+++ b/public/new_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WinNMP\WWW\apm-2021\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6036CB99-6E87-4AE5-B145-E482670C95A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B798425F-7646-42EE-BF1B-CA431D6183D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{0D7B907D-D830-4CC4-9A34-9EB8ADFF75A7}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="link&amp;match" sheetId="7" r:id="rId3"/>
     <sheet name="renstra" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$Y$1</definedName>
@@ -261,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="844">
   <si>
     <t>Komponen</t>
   </si>
@@ -4410,12 +4411,18 @@
     </r>
   </si>
   <si>
+    <t>I</t>
+  </si>
+  <si>
     <t>1;2;3;4;5;6;8;i</t>
   </si>
   <si>
     <t>1;2;7</t>
   </si>
   <si>
+    <t>6;I</t>
+  </si>
+  <si>
     <t>2;3;7</t>
   </si>
   <si>
@@ -4425,10 +4432,16 @@
     <t>HITUNG DARI NILAI JAWABAN KUESIONER</t>
   </si>
   <si>
-    <t>6;i</t>
-  </si>
-  <si>
     <t>TEFA yang diselenggarakan Sekolah</t>
+  </si>
+  <si>
+    <t>1;6</t>
+  </si>
+  <si>
+    <t>2;6</t>
+  </si>
+  <si>
+    <t>2;8</t>
   </si>
 </sst>
 </file>
@@ -4792,7 +4805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4902,6 +4915,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5001,7 +5017,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="54">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5014,11 +5030,31 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5451,6 +5487,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -5812,7 +5868,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5901,8 +5957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEB403F-935E-4ABA-926A-2374A4A02C78}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5943,22 +5999,22 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>747</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>754</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="43" t="s">
         <v>696</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="44" t="s">
         <v>697</v>
       </c>
     </row>
@@ -5966,22 +6022,22 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="42" t="s">
         <v>747</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="42" t="s">
         <v>754</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="43" t="s">
         <v>698</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="44" t="s">
         <v>699</v>
       </c>
     </row>
@@ -5989,22 +6045,22 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="42" t="s">
         <v>747</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>754</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="43" t="s">
         <v>700</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="44" t="s">
         <v>701</v>
       </c>
     </row>
@@ -6012,22 +6068,22 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="42" t="s">
         <v>747</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="42" t="s">
         <v>754</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="42" t="s">
         <v>702</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="44" t="s">
         <v>703</v>
       </c>
     </row>
@@ -6035,22 +6091,22 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="42" t="s">
         <v>747</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="42" t="s">
         <v>754</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="43" t="s">
         <v>704</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="44" t="s">
         <v>705</v>
       </c>
     </row>
@@ -6058,22 +6114,22 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="45" t="s">
         <v>755</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="45" t="s">
         <v>706</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="46" t="s">
         <v>707</v>
       </c>
     </row>
@@ -6081,22 +6137,22 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="45" t="s">
         <v>755</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="47" t="s">
         <v>708</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="46" t="s">
         <v>699</v>
       </c>
     </row>
@@ -6104,22 +6160,22 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="45" t="s">
         <v>748</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="45" t="s">
         <v>755</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="47" t="s">
         <v>709</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="46" t="s">
         <v>701</v>
       </c>
     </row>
@@ -6127,22 +6183,22 @@
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="48" t="s">
         <v>749</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="48" t="s">
         <v>756</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="49" t="s">
         <v>710</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="48" t="s">
         <v>711</v>
       </c>
     </row>
@@ -6150,22 +6206,22 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="48" t="s">
         <v>749</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="48" t="s">
         <v>756</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="49" t="s">
         <v>712</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="48" t="s">
         <v>713</v>
       </c>
     </row>
@@ -6173,22 +6229,22 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="40" t="s">
         <v>694</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="41" t="s">
         <v>695</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="48" t="s">
         <v>749</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="48" t="s">
         <v>756</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="49" t="s">
         <v>714</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="50" t="s">
         <v>715</v>
       </c>
     </row>
@@ -6196,22 +6252,22 @@
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="41" t="s">
         <v>716</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="41" t="s">
         <v>717</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="51" t="s">
         <v>750</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="51" t="s">
         <v>757</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="52" t="s">
         <v>718</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="51" t="s">
         <v>719</v>
       </c>
     </row>
@@ -6219,22 +6275,22 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="53" t="s">
         <v>716</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="53" t="s">
         <v>717</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>750</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="50" t="s">
         <v>757</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="54" t="s">
         <v>720</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="55" t="s">
         <v>721</v>
       </c>
     </row>
@@ -6242,22 +6298,22 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="41" t="s">
         <v>716</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="41" t="s">
         <v>717</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="56" t="s">
         <v>751</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="56" t="s">
         <v>758</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="57" t="s">
         <v>722</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="50" t="s">
         <v>723</v>
       </c>
     </row>
@@ -6265,22 +6321,22 @@
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="41" t="s">
         <v>716</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="41" t="s">
         <v>717</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="56" t="s">
         <v>751</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="56" t="s">
         <v>758</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="57" t="s">
         <v>724</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="50" t="s">
         <v>725</v>
       </c>
     </row>
@@ -6288,22 +6344,22 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>716</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="41" t="s">
         <v>717</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="53" t="s">
         <v>752</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="53" t="s">
         <v>759</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="58" t="s">
         <v>726</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="59" t="s">
         <v>727</v>
       </c>
     </row>
@@ -6311,22 +6367,22 @@
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="41" t="s">
         <v>716</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="41" t="s">
         <v>717</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="53" t="s">
         <v>752</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="53" t="s">
         <v>759</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="58" t="s">
         <v>728</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="59" t="s">
         <v>729</v>
       </c>
     </row>
@@ -6334,22 +6390,22 @@
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="41" t="s">
         <v>730</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="41" t="s">
         <v>731</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="60" t="s">
         <v>753</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="60" t="s">
         <v>760</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="51" t="s">
         <v>732</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="50" t="s">
         <v>733</v>
       </c>
     </row>
@@ -6357,22 +6413,22 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="41" t="s">
         <v>730</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="41" t="s">
         <v>731</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="60" t="s">
         <v>753</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="60" t="s">
         <v>760</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="51" t="s">
         <v>732</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="50" t="s">
         <v>734</v>
       </c>
     </row>
@@ -6380,22 +6436,22 @@
       <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="41" t="s">
         <v>730</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="41" t="s">
         <v>731</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="60" t="s">
         <v>753</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="60" t="s">
         <v>760</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="51" t="s">
         <v>732</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="50" t="s">
         <v>735</v>
       </c>
     </row>
@@ -6403,22 +6459,22 @@
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="41" t="s">
         <v>730</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="41" t="s">
         <v>731</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="60" t="s">
         <v>753</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="60" t="s">
         <v>760</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="51" t="s">
         <v>732</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="50" t="s">
         <v>736</v>
       </c>
     </row>
@@ -6426,22 +6482,22 @@
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="41" t="s">
         <v>730</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="41" t="s">
         <v>731</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="60" t="s">
         <v>753</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="60" t="s">
         <v>760</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="51" t="s">
         <v>732</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="50" t="s">
         <v>737</v>
       </c>
     </row>
@@ -6449,22 +6505,22 @@
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="41" t="s">
         <v>730</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="41" t="s">
         <v>731</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="60" t="s">
         <v>753</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="60" t="s">
         <v>760</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="51" t="s">
         <v>732</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="50" t="s">
         <v>738</v>
       </c>
     </row>
@@ -6476,10 +6532,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72524BA0-FA9A-4DB3-A7BF-3E681637827C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6567,9 +6623,185 @@
         <v>674</v>
       </c>
     </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="36"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="36"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="37"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="36"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="36"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="36"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="37"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="36"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="36"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="37"/>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="36"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="36"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="36"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="36"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="36"/>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="36"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="36"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="36"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="36"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="36"/>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="36"/>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="37"/>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="35"/>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="36"/>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="36"/>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="36"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="34"/>
+      <c r="B45" s="36"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="34"/>
+      <c r="B46" s="36"/>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="34"/>
+      <c r="B47" s="36"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="34"/>
+      <c r="B48" s="36"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="34"/>
+      <c r="B49" s="36"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="34"/>
+      <c r="B50" s="36"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="34"/>
+      <c r="B51" s="37"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="34"/>
+      <c r="B53" s="36"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="34"/>
+      <c r="B54" s="37"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B10">
-    <sortCondition ref="A2:A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B54">
+    <sortCondition ref="A2:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6579,7 +6811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF40CC8A-2B19-468A-9DF8-2AB3B0BD711A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6591,7 +6825,7 @@
       <c r="A1" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>688</v>
       </c>
       <c r="C1" t="s">
@@ -6624,7 +6858,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>679</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -6635,7 +6869,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>679</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -6704,10 +6938,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F424C2D-EB2F-46EA-AF4D-2212F3580F39}">
-  <dimension ref="A1:Y298"/>
+  <dimension ref="A1:Y299"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J80" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q103" sqref="Q103"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="450" ySplit="405" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A269" sqref="A269:XFD269"/>
+      <selection pane="bottomRight" activeCell="X269" sqref="X269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8139,7 +8376,7 @@
       <c r="P23" s="3">
         <v>1</v>
       </c>
-      <c r="Q23" s="64" t="s">
+      <c r="Q23" s="65" t="s">
         <v>801</v>
       </c>
       <c r="R23" s="3">
@@ -8210,7 +8447,7 @@
       <c r="P24" s="3">
         <v>1</v>
       </c>
-      <c r="Q24" s="64" t="s">
+      <c r="Q24" s="65" t="s">
         <v>801</v>
       </c>
       <c r="R24" s="3">
@@ -8272,7 +8509,7 @@
       <c r="P25" s="3">
         <v>1</v>
       </c>
-      <c r="Q25" s="64" t="s">
+      <c r="Q25" s="65" t="s">
         <v>801</v>
       </c>
       <c r="R25" s="3">
@@ -8334,7 +8571,7 @@
       <c r="P26" s="3">
         <v>2</v>
       </c>
-      <c r="Q26" s="63" t="s">
+      <c r="Q26" s="64" t="s">
         <v>802</v>
       </c>
       <c r="R26" s="3">
@@ -8405,7 +8642,7 @@
       <c r="P27" s="3">
         <v>2</v>
       </c>
-      <c r="Q27" s="63" t="s">
+      <c r="Q27" s="64" t="s">
         <v>802</v>
       </c>
       <c r="R27" s="3">
@@ -8467,7 +8704,7 @@
       <c r="P28" s="3">
         <v>2</v>
       </c>
-      <c r="Q28" s="63" t="s">
+      <c r="Q28" s="64" t="s">
         <v>802</v>
       </c>
       <c r="R28" s="3">
@@ -8529,7 +8766,7 @@
       <c r="P29" s="3">
         <v>3</v>
       </c>
-      <c r="Q29" s="64" t="s">
+      <c r="Q29" s="65" t="s">
         <v>803</v>
       </c>
       <c r="R29" s="3">
@@ -8597,7 +8834,7 @@
       <c r="P30" s="3">
         <v>3</v>
       </c>
-      <c r="Q30" s="64" t="s">
+      <c r="Q30" s="65" t="s">
         <v>803</v>
       </c>
       <c r="R30" s="3">
@@ -8659,7 +8896,7 @@
       <c r="P31" s="3">
         <v>3</v>
       </c>
-      <c r="Q31" s="64" t="s">
+      <c r="Q31" s="65" t="s">
         <v>803</v>
       </c>
       <c r="R31" s="3">
@@ -8721,7 +8958,7 @@
       <c r="P32" s="3">
         <v>4</v>
       </c>
-      <c r="Q32" s="65" t="s">
+      <c r="Q32" s="66" t="s">
         <v>804</v>
       </c>
       <c r="R32" s="3">
@@ -8786,7 +9023,7 @@
       <c r="P33" s="3">
         <v>4</v>
       </c>
-      <c r="Q33" s="65" t="s">
+      <c r="Q33" s="66" t="s">
         <v>804</v>
       </c>
       <c r="R33" s="3">
@@ -8848,7 +9085,7 @@
       <c r="P34" s="3">
         <v>4</v>
       </c>
-      <c r="Q34" s="65" t="s">
+      <c r="Q34" s="66" t="s">
         <v>804</v>
       </c>
       <c r="R34" s="3">
@@ -9099,8 +9336,8 @@
       <c r="T38" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X38" s="1">
-        <v>5</v>
+      <c r="X38" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9164,8 +9401,8 @@
       <c r="T39" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X39" s="1">
-        <v>5</v>
+      <c r="X39" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9229,8 +9466,8 @@
       <c r="T40" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X40" s="1">
-        <v>5</v>
+      <c r="X40" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9294,8 +9531,8 @@
       <c r="T41" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X41" s="1">
-        <v>5</v>
+      <c r="X41" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -9359,8 +9596,8 @@
       <c r="T42" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X42" s="1">
-        <v>5</v>
+      <c r="X42" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10689,7 +10926,7 @@
         <v>345</v>
       </c>
       <c r="V63" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
       <c r="X63" s="1">
         <v>8</v>
@@ -10736,7 +10973,7 @@
         <v>660</v>
       </c>
       <c r="V64" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
       <c r="X64" s="1">
         <v>8</v>
@@ -10791,7 +11028,7 @@
       <c r="P65" s="3">
         <v>1</v>
       </c>
-      <c r="Q65" s="64" t="s">
+      <c r="Q65" s="65" t="s">
         <v>806</v>
       </c>
       <c r="R65" s="3">
@@ -10804,7 +11041,7 @@
         <v>496</v>
       </c>
       <c r="V65" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
       <c r="X65" s="1">
         <v>8</v>
@@ -10859,7 +11096,7 @@
       <c r="P66" s="3">
         <v>1</v>
       </c>
-      <c r="Q66" s="64" t="s">
+      <c r="Q66" s="65" t="s">
         <v>806</v>
       </c>
       <c r="R66" s="3">
@@ -10921,7 +11158,7 @@
       <c r="P67" s="3">
         <v>1</v>
       </c>
-      <c r="Q67" s="64" t="s">
+      <c r="Q67" s="65" t="s">
         <v>806</v>
       </c>
       <c r="R67" s="3">
@@ -10983,7 +11220,7 @@
       <c r="P68" s="3">
         <v>2</v>
       </c>
-      <c r="Q68" s="66" t="s">
+      <c r="Q68" s="67" t="s">
         <v>807</v>
       </c>
       <c r="R68" s="3">
@@ -10996,7 +11233,7 @@
         <v>496</v>
       </c>
       <c r="V68" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
       <c r="X68" s="1">
         <v>8</v>
@@ -11051,7 +11288,7 @@
       <c r="P69" s="3">
         <v>2</v>
       </c>
-      <c r="Q69" s="66" t="s">
+      <c r="Q69" s="67" t="s">
         <v>807</v>
       </c>
       <c r="R69" s="3">
@@ -11113,7 +11350,7 @@
       <c r="P70" s="3">
         <v>2</v>
       </c>
-      <c r="Q70" s="66" t="s">
+      <c r="Q70" s="67" t="s">
         <v>807</v>
       </c>
       <c r="R70" s="3">
@@ -11175,7 +11412,7 @@
       <c r="P71" s="3">
         <v>3</v>
       </c>
-      <c r="Q71" s="66" t="s">
+      <c r="Q71" s="67" t="s">
         <v>808</v>
       </c>
       <c r="R71" s="3">
@@ -11188,7 +11425,7 @@
         <v>496</v>
       </c>
       <c r="V71" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
       <c r="X71" s="1">
         <v>8</v>
@@ -11243,7 +11480,7 @@
       <c r="P72" s="3">
         <v>3</v>
       </c>
-      <c r="Q72" s="66" t="s">
+      <c r="Q72" s="67" t="s">
         <v>808</v>
       </c>
       <c r="R72" s="3">
@@ -11305,7 +11542,7 @@
       <c r="P73" s="3">
         <v>3</v>
       </c>
-      <c r="Q73" s="66" t="s">
+      <c r="Q73" s="67" t="s">
         <v>808</v>
       </c>
       <c r="R73" s="3">
@@ -11367,7 +11604,7 @@
       <c r="P74" s="3">
         <v>4</v>
       </c>
-      <c r="Q74" s="66" t="s">
+      <c r="Q74" s="67" t="s">
         <v>809</v>
       </c>
       <c r="R74" s="3">
@@ -11380,7 +11617,7 @@
         <v>496</v>
       </c>
       <c r="V74" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
       <c r="X74" s="1">
         <v>8</v>
@@ -11435,7 +11672,7 @@
       <c r="P75" s="3">
         <v>4</v>
       </c>
-      <c r="Q75" s="66" t="s">
+      <c r="Q75" s="67" t="s">
         <v>809</v>
       </c>
       <c r="R75" s="3">
@@ -11497,7 +11734,7 @@
       <c r="P76" s="3">
         <v>4</v>
       </c>
-      <c r="Q76" s="66" t="s">
+      <c r="Q76" s="67" t="s">
         <v>809</v>
       </c>
       <c r="R76" s="3">
@@ -11559,7 +11796,7 @@
       <c r="P77" s="3">
         <v>5</v>
       </c>
-      <c r="Q77" s="66" t="s">
+      <c r="Q77" s="67" t="s">
         <v>810</v>
       </c>
       <c r="R77" s="3">
@@ -11572,7 +11809,7 @@
         <v>496</v>
       </c>
       <c r="V77" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
       <c r="X77" s="1">
         <v>8</v>
@@ -11627,7 +11864,7 @@
       <c r="P78" s="3">
         <v>5</v>
       </c>
-      <c r="Q78" s="66" t="s">
+      <c r="Q78" s="67" t="s">
         <v>810</v>
       </c>
       <c r="R78" s="3">
@@ -11689,7 +11926,7 @@
       <c r="P79" s="3">
         <v>5</v>
       </c>
-      <c r="Q79" s="66" t="s">
+      <c r="Q79" s="67" t="s">
         <v>810</v>
       </c>
       <c r="R79" s="3">
@@ -11784,7 +12021,7 @@
         <v>356</v>
       </c>
       <c r="V81" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -11849,7 +12086,7 @@
         <v>496</v>
       </c>
       <c r="V82" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -11916,8 +12153,8 @@
       <c r="V83" s="30">
         <v>1</v>
       </c>
-      <c r="X83" s="1">
-        <v>1</v>
+      <c r="X83" s="2" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -11984,8 +12221,8 @@
       <c r="V84" s="30">
         <v>1</v>
       </c>
-      <c r="X84" s="1">
-        <v>1</v>
+      <c r="X84" s="2" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12052,8 +12289,8 @@
       <c r="V85" s="30">
         <v>1</v>
       </c>
-      <c r="X85" s="1">
-        <v>1</v>
+      <c r="X85" s="2" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12120,8 +12357,8 @@
       <c r="V86" s="30">
         <v>1</v>
       </c>
-      <c r="X86" s="1">
-        <v>1</v>
+      <c r="X86" s="2" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12188,8 +12425,8 @@
       <c r="V87" s="30">
         <v>1</v>
       </c>
-      <c r="X87" s="1">
-        <v>1</v>
+      <c r="X87" s="2" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12933,10 +13170,10 @@
         <v>496</v>
       </c>
       <c r="V99" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="X99" s="1">
-        <v>2</v>
+        <v>834</v>
+      </c>
+      <c r="X99" s="2" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="100" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13001,10 +13238,10 @@
         <v>496</v>
       </c>
       <c r="V100" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="X100" s="1">
-        <v>2</v>
+        <v>834</v>
+      </c>
+      <c r="X100" s="2" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="101" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13069,10 +13306,10 @@
         <v>496</v>
       </c>
       <c r="V101" s="30" t="s">
-        <v>833</v>
-      </c>
-      <c r="X101" s="1">
-        <v>2</v>
+        <v>834</v>
+      </c>
+      <c r="X101" s="2" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="102" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13125,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="R102" s="3">
         <v>1</v>
@@ -13140,7 +13377,7 @@
         <v>4</v>
       </c>
       <c r="V102" s="30" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="X102" s="1">
         <v>2</v>
@@ -13208,7 +13445,7 @@
         <v>496</v>
       </c>
       <c r="V103" s="30" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="X103" s="1">
         <v>2</v>
@@ -13276,7 +13513,7 @@
         <v>496</v>
       </c>
       <c r="V104" s="30" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="X104" s="1">
         <v>2</v>
@@ -13346,8 +13583,8 @@
       <c r="W105" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="X105" s="1">
-        <v>5</v>
+      <c r="X105" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="106" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13538,8 +13775,8 @@
       <c r="W108" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="X108" s="1">
-        <v>5</v>
+      <c r="X108" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="109" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13730,8 +13967,8 @@
       <c r="W111" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="X111" s="1">
-        <v>5</v>
+      <c r="X111" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -13919,8 +14156,8 @@
       <c r="T114" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X114" s="1">
-        <v>5</v>
+      <c r="X114" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="115" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -14108,8 +14345,8 @@
       <c r="T117" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X117" s="1">
-        <v>5</v>
+      <c r="X117" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="118" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -14300,8 +14537,8 @@
       <c r="W120" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="X120" s="1">
-        <v>5</v>
+      <c r="X120" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="121" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -14489,8 +14726,8 @@
       <c r="T123" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X123" s="1">
-        <v>5</v>
+      <c r="X123" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -14678,8 +14915,8 @@
       <c r="T126" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="X126" s="1">
-        <v>5</v>
+      <c r="X126" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="127" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -14855,7 +15092,7 @@
       <c r="P129" s="3">
         <v>1</v>
       </c>
-      <c r="Q129" s="67" t="s">
+      <c r="Q129" s="68" t="s">
         <v>779</v>
       </c>
       <c r="R129" s="3">
@@ -14917,7 +15154,7 @@
       <c r="P130" s="3">
         <v>1</v>
       </c>
-      <c r="Q130" s="67" t="s">
+      <c r="Q130" s="68" t="s">
         <v>779</v>
       </c>
       <c r="R130" s="3">
@@ -14979,7 +15216,7 @@
       <c r="P131" s="3">
         <v>1</v>
       </c>
-      <c r="Q131" s="67" t="s">
+      <c r="Q131" s="68" t="s">
         <v>779</v>
       </c>
       <c r="R131" s="3">
@@ -15041,7 +15278,7 @@
       <c r="P132" s="3">
         <v>2</v>
       </c>
-      <c r="Q132" s="68" t="s">
+      <c r="Q132" s="69" t="s">
         <v>780</v>
       </c>
       <c r="R132" s="3">
@@ -15103,7 +15340,7 @@
       <c r="P133" s="3">
         <v>2</v>
       </c>
-      <c r="Q133" s="68" t="s">
+      <c r="Q133" s="69" t="s">
         <v>780</v>
       </c>
       <c r="R133" s="3">
@@ -15165,7 +15402,7 @@
       <c r="P134" s="3">
         <v>2</v>
       </c>
-      <c r="Q134" s="68" t="s">
+      <c r="Q134" s="69" t="s">
         <v>780</v>
       </c>
       <c r="R134" s="3">
@@ -15242,8 +15479,8 @@
       <c r="V135" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X135" s="1">
-        <v>5</v>
+      <c r="X135" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="136" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15434,8 +15671,8 @@
       <c r="V138" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X138" s="1">
-        <v>5</v>
+      <c r="X138" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="139" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15626,8 +15863,8 @@
       <c r="V141" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X141" s="1">
-        <v>5</v>
+      <c r="X141" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="142" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -15818,8 +16055,8 @@
       <c r="V144" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X144" s="1">
-        <v>5</v>
+      <c r="X144" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="145" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16010,8 +16247,8 @@
       <c r="V147" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X147" s="1">
-        <v>5</v>
+      <c r="X147" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16202,8 +16439,8 @@
       <c r="V150" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X150" s="1">
-        <v>5</v>
+      <c r="X150" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16394,8 +16631,8 @@
       <c r="V153" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X153" s="1">
-        <v>5</v>
+      <c r="X153" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16586,8 +16823,8 @@
       <c r="V156" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X156" s="1">
-        <v>5</v>
+      <c r="X156" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16781,8 +17018,8 @@
       <c r="W159" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="X159" s="1">
-        <v>5</v>
+      <c r="X159" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="160" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -16973,8 +17210,8 @@
       <c r="V162" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X162" s="1">
-        <v>5</v>
+      <c r="X162" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17168,8 +17405,8 @@
       <c r="W165" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="X165" s="1">
-        <v>5</v>
+      <c r="X165" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="166" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17360,8 +17597,8 @@
       <c r="V168" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X168" s="1">
-        <v>5</v>
+      <c r="X168" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="169" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17552,8 +17789,8 @@
       <c r="V171" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X171" s="1">
-        <v>5</v>
+      <c r="X171" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="172" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17744,8 +17981,8 @@
       <c r="V174" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X174" s="1">
-        <v>5</v>
+      <c r="X174" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="175" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -17936,8 +18173,8 @@
       <c r="V177" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X177" s="1">
-        <v>5</v>
+      <c r="X177" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -18128,8 +18365,8 @@
       <c r="V180" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X180" s="1">
-        <v>5</v>
+      <c r="X180" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -18320,8 +18557,8 @@
       <c r="V183" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X183" s="1">
-        <v>5</v>
+      <c r="X183" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -18512,8 +18749,8 @@
       <c r="V186" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="X186" s="1">
-        <v>5</v>
+      <c r="X186" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -18702,7 +18939,7 @@
         <v>496</v>
       </c>
       <c r="V189" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
       <c r="W189" s="1" t="s">
         <v>730</v>
@@ -18897,7 +19134,7 @@
         <v>496</v>
       </c>
       <c r="V192" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
       <c r="X192" s="1">
         <v>2</v>
@@ -19089,7 +19326,7 @@
         <v>496</v>
       </c>
       <c r="V195" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
       <c r="X195" s="1">
         <v>2</v>
@@ -19281,7 +19518,7 @@
         <v>496</v>
       </c>
       <c r="V198" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
       <c r="W198" s="1" t="s">
         <v>730</v>
@@ -19354,8 +19591,8 @@
       <c r="V199" s="30">
         <v>6</v>
       </c>
-      <c r="X199" s="1">
-        <v>5</v>
+      <c r="X199" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="200" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19546,8 +19783,8 @@
       <c r="V202" s="30">
         <v>6</v>
       </c>
-      <c r="X202" s="1">
-        <v>5</v>
+      <c r="X202" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="203" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19738,8 +19975,8 @@
       <c r="V205" s="30">
         <v>6</v>
       </c>
-      <c r="X205" s="1">
-        <v>5</v>
+      <c r="X205" s="2" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="206" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19934,7 +20171,7 @@
         <v>730</v>
       </c>
       <c r="Y208" s="3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="209" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20454,7 +20691,7 @@
         <v>496</v>
       </c>
       <c r="V216" s="30" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="X216" s="1">
         <v>8</v>
@@ -20522,7 +20759,7 @@
         <v>496</v>
       </c>
       <c r="V217" s="30" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="X217" s="1">
         <v>8</v>
@@ -20590,7 +20827,7 @@
         <v>496</v>
       </c>
       <c r="V218" s="30" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="X218" s="1">
         <v>8</v>
@@ -20720,10 +20957,10 @@
         <v>496</v>
       </c>
       <c r="V220" s="30" t="s">
-        <v>835</v>
-      </c>
-      <c r="X220" s="1">
-        <v>2</v>
+        <v>837</v>
+      </c>
+      <c r="X220" s="2" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="221" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20788,10 +21025,10 @@
         <v>496</v>
       </c>
       <c r="V221" s="30" t="s">
-        <v>835</v>
-      </c>
-      <c r="X221" s="1">
-        <v>2</v>
+        <v>837</v>
+      </c>
+      <c r="X221" s="2" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="222" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20862,7 +21099,7 @@
         <v>694</v>
       </c>
       <c r="Y222" s="3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="223" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -21768,7 +22005,7 @@
       <c r="P236" s="3">
         <v>1</v>
       </c>
-      <c r="Q236" s="60" t="s">
+      <c r="Q236" s="61" t="s">
         <v>789</v>
       </c>
       <c r="R236" s="3">
@@ -21839,7 +22076,7 @@
       <c r="P237" s="3">
         <v>2</v>
       </c>
-      <c r="Q237" s="61" t="s">
+      <c r="Q237" s="62" t="s">
         <v>790</v>
       </c>
       <c r="R237" s="3">
@@ -21910,7 +22147,7 @@
       <c r="P238" s="3">
         <v>3</v>
       </c>
-      <c r="Q238" s="61" t="s">
+      <c r="Q238" s="62" t="s">
         <v>791</v>
       </c>
       <c r="R238" s="3">
@@ -21978,7 +22215,7 @@
       <c r="P239" s="3">
         <v>4</v>
       </c>
-      <c r="Q239" s="61" t="s">
+      <c r="Q239" s="62" t="s">
         <v>792</v>
       </c>
       <c r="R239" s="3">
@@ -22049,7 +22286,7 @@
       <c r="P240" s="3">
         <v>5</v>
       </c>
-      <c r="Q240" s="61" t="s">
+      <c r="Q240" s="62" t="s">
         <v>793</v>
       </c>
       <c r="R240" s="3">
@@ -22117,7 +22354,7 @@
       <c r="P241" s="3">
         <v>6</v>
       </c>
-      <c r="Q241" s="61" t="s">
+      <c r="Q241" s="62" t="s">
         <v>794</v>
       </c>
       <c r="R241" s="3">
@@ -22185,7 +22422,7 @@
       <c r="P242" s="3">
         <v>7</v>
       </c>
-      <c r="Q242" s="61" t="s">
+      <c r="Q242" s="62" t="s">
         <v>795</v>
       </c>
       <c r="R242" s="3">
@@ -22256,7 +22493,7 @@
       <c r="P243" s="3">
         <v>8</v>
       </c>
-      <c r="Q243" s="61" t="s">
+      <c r="Q243" s="62" t="s">
         <v>796</v>
       </c>
       <c r="R243" s="3">
@@ -22324,7 +22561,7 @@
       <c r="P244" s="3">
         <v>9</v>
       </c>
-      <c r="Q244" s="61" t="s">
+      <c r="Q244" s="62" t="s">
         <v>797</v>
       </c>
       <c r="R244" s="3">
@@ -22392,7 +22629,7 @@
       <c r="P245" s="3">
         <v>10</v>
       </c>
-      <c r="Q245" s="61" t="s">
+      <c r="Q245" s="62" t="s">
         <v>798</v>
       </c>
       <c r="R245" s="3">
@@ -22460,7 +22697,7 @@
       <c r="P246" s="3">
         <v>11</v>
       </c>
-      <c r="Q246" s="61" t="s">
+      <c r="Q246" s="62" t="s">
         <v>632</v>
       </c>
       <c r="R246" s="3">
@@ -22531,7 +22768,7 @@
       <c r="P247" s="3">
         <v>12</v>
       </c>
-      <c r="Q247" s="62" t="s">
+      <c r="Q247" s="63" t="s">
         <v>664</v>
       </c>
       <c r="R247" s="3">
@@ -23889,11 +24126,11 @@
       <c r="V269" s="30">
         <v>7</v>
       </c>
-      <c r="X269" s="1">
-        <v>2</v>
+      <c r="X269" s="2" t="s">
+        <v>842</v>
       </c>
       <c r="Y269" s="3" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="270" spans="1:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24488,7 +24725,7 @@
       <c r="E279" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F279" s="69" t="s">
+      <c r="F279" s="70" t="s">
         <v>824</v>
       </c>
       <c r="G279" s="1" t="s">
@@ -24526,13 +24763,13 @@
       <c r="D280" s="1">
         <v>5</v>
       </c>
-      <c r="E280" s="69" t="s">
+      <c r="E280" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="F280" s="69" t="s">
+      <c r="F280" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="G280" s="69" t="s">
+      <c r="G280" s="70" t="s">
         <v>832</v>
       </c>
       <c r="H280" s="27" t="s">
@@ -24578,7 +24815,7 @@
         <v>4</v>
       </c>
       <c r="V280" s="30" t="s">
-        <v>673</v>
+        <v>833</v>
       </c>
     </row>
     <row r="281" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24594,13 +24831,13 @@
       <c r="D281" s="1">
         <v>5</v>
       </c>
-      <c r="E281" s="69" t="s">
+      <c r="E281" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="F281" s="69" t="s">
+      <c r="F281" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="G281" s="69" t="s">
+      <c r="G281" s="70" t="s">
         <v>832</v>
       </c>
       <c r="H281" s="27" t="s">
@@ -24656,13 +24893,13 @@
       <c r="D282" s="1">
         <v>5</v>
       </c>
-      <c r="E282" s="69" t="s">
+      <c r="E282" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="F282" s="69" t="s">
+      <c r="F282" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="G282" s="69" t="s">
+      <c r="G282" s="70" t="s">
         <v>832</v>
       </c>
       <c r="H282" s="27" t="s">
@@ -24718,13 +24955,13 @@
       <c r="D283" s="1">
         <v>5</v>
       </c>
-      <c r="E283" s="69" t="s">
+      <c r="E283" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="F283" s="69" t="s">
+      <c r="F283" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="G283" s="69" t="s">
+      <c r="G283" s="70" t="s">
         <v>832</v>
       </c>
       <c r="H283" s="27" t="s">
@@ -24783,13 +25020,13 @@
       <c r="D284" s="1">
         <v>5</v>
       </c>
-      <c r="E284" s="69" t="s">
+      <c r="E284" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="F284" s="69" t="s">
+      <c r="F284" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="G284" s="69" t="s">
+      <c r="G284" s="70" t="s">
         <v>832</v>
       </c>
       <c r="H284" s="27" t="s">
@@ -24845,13 +25082,13 @@
       <c r="D285" s="1">
         <v>5</v>
       </c>
-      <c r="E285" s="69" t="s">
+      <c r="E285" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="F285" s="69" t="s">
+      <c r="F285" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="G285" s="69" t="s">
+      <c r="G285" s="70" t="s">
         <v>832</v>
       </c>
       <c r="H285" s="27" t="s">
@@ -24907,13 +25144,13 @@
       <c r="D286" s="1">
         <v>5</v>
       </c>
-      <c r="E286" s="69" t="s">
+      <c r="E286" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="F286" s="69" t="s">
+      <c r="F286" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="G286" s="69" t="s">
+      <c r="G286" s="70" t="s">
         <v>832</v>
       </c>
       <c r="H286" s="27" t="s">
@@ -24972,13 +25209,13 @@
       <c r="D287" s="1">
         <v>5</v>
       </c>
-      <c r="E287" s="69" t="s">
+      <c r="E287" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="F287" s="69" t="s">
+      <c r="F287" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="G287" s="69" t="s">
+      <c r="G287" s="70" t="s">
         <v>832</v>
       </c>
       <c r="H287" s="27" t="s">
@@ -25034,13 +25271,13 @@
       <c r="D288" s="1">
         <v>5</v>
       </c>
-      <c r="E288" s="69" t="s">
+      <c r="E288" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="F288" s="69" t="s">
+      <c r="F288" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="G288" s="69" t="s">
+      <c r="G288" s="70" t="s">
         <v>832</v>
       </c>
       <c r="H288" s="27" t="s">
@@ -25083,7 +25320,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="289" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>50</v>
       </c>
@@ -25096,13 +25333,13 @@
       <c r="D289" s="1">
         <v>5</v>
       </c>
-      <c r="E289" s="69" t="s">
+      <c r="E289" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="F289" s="69" t="s">
+      <c r="F289" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="G289" s="69" t="s">
+      <c r="G289" s="70" t="s">
         <v>832</v>
       </c>
       <c r="H289" s="27" t="s">
@@ -25148,7 +25385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>50</v>
       </c>
@@ -25161,13 +25398,13 @@
       <c r="D290" s="1">
         <v>5</v>
       </c>
-      <c r="E290" s="69" t="s">
+      <c r="E290" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="F290" s="69" t="s">
+      <c r="F290" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="G290" s="69" t="s">
+      <c r="G290" s="70" t="s">
         <v>832</v>
       </c>
       <c r="H290" s="27" t="s">
@@ -25210,7 +25447,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="291" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>50</v>
       </c>
@@ -25223,13 +25460,13 @@
       <c r="D291" s="1">
         <v>5</v>
       </c>
-      <c r="E291" s="69" t="s">
+      <c r="E291" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="F291" s="69" t="s">
+      <c r="F291" s="70" t="s">
         <v>831</v>
       </c>
-      <c r="G291" s="69" t="s">
+      <c r="G291" s="70" t="s">
         <v>832</v>
       </c>
       <c r="H291" s="27" t="s">
@@ -25272,7 +25509,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="292" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>51</v>
       </c>
@@ -25313,10 +25550,10 @@
         <v>295</v>
       </c>
       <c r="V292" s="30" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="293" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>52</v>
       </c>
@@ -25378,7 +25615,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="294" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>52</v>
       </c>
@@ -25440,7 +25677,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="295" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>53</v>
       </c>
@@ -25481,7 +25718,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="296" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>54</v>
       </c>
@@ -25522,7 +25759,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="297" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>55</v>
       </c>
@@ -25587,7 +25824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>55</v>
       </c>
@@ -25651,6 +25888,12 @@
       <c r="U298" s="33">
         <v>4</v>
       </c>
+    </row>
+    <row r="299" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U299" s="3"/>
+      <c r="V299" s="3"/>
+      <c r="W299" s="3"/>
+      <c r="X299" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Y1" xr:uid="{057186D4-4696-4063-9BCA-7AA0AB6DA382}"/>
@@ -25658,229 +25901,224 @@
     <sortCondition ref="L2"/>
   </sortState>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="N220:Q223 O219:Q219 N225:Q233 O224:Q224 N236:P246 O234:Q235 S236:S246 N177:Q218 N135:Q174 S225:S233 S220:S223 S144:S164 S177:S218 S1:S104 N1:Q22 N23:P34 N35:Q64 N129:P134 N65:P73 N74:Q128 N248:Q1048576 S248:S1048576">
-    <cfRule type="cellIs" dxfId="49" priority="96" operator="equal">
+  <conditionalFormatting sqref="N220:Q223 O219:Q219 N225:Q233 O224:Q224 N236:P246 O234:Q235 S236:S246 N177:Q218 N135:Q174 S225:S233 S220:S223 S144:S164 S177:S218 S1:S104 N1:Q22 N23:P34 N35:Q64 N129:P134 N248:Q1048576 S248:S1048576 N65:P73 N74:Q128">
+    <cfRule type="cellIs" dxfId="53" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U174 U177:U1048576">
-    <cfRule type="cellIs" dxfId="48" priority="94" operator="greaterThan">
+  <conditionalFormatting sqref="U1:U174 U177:U298 U300:U1048576">
+    <cfRule type="cellIs" dxfId="52" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576 W1:Y1048576">
-    <cfRule type="cellIs" dxfId="46" priority="93" operator="greaterThan">
+  <conditionalFormatting sqref="X171:X210 W1:W279 Y299 U165 U171 U174 U168 U177 U180 U183 U186 U178:Y179 U300:Y1048576 U166:Y167 U172:Y173 U169:Y170 U181:Y182 U184:Y185 U175:Y176 U1:Y164 W165:Y165 W168:Y168 W171:Y171 W174:Y174 W177:Y177 W180:Y180 W183:Y183 W186:Y186 U187:Y298">
+    <cfRule type="cellIs" dxfId="50" priority="66" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S247">
-    <cfRule type="cellIs" dxfId="45" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N247:P247">
-    <cfRule type="cellIs" dxfId="44" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="V178:V179 V300:V1048576 V166:V167 V172:V173 V1:V164 V169:V170 V181:V182 V184:V185 V175:V176 V187:V298">
+    <cfRule type="cellIs" dxfId="47" priority="62" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="63" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N175:Q176">
-    <cfRule type="cellIs" dxfId="43" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U175:U176">
-    <cfRule type="cellIs" dxfId="42" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="59" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1048576">
-    <cfRule type="cellIs" dxfId="40" priority="80" operator="greaterThan">
+  <conditionalFormatting sqref="X300:X1048576 X1:X298">
+    <cfRule type="cellIs" dxfId="42" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S219">
-    <cfRule type="cellIs" dxfId="39" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N219">
-    <cfRule type="cellIs" dxfId="38" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S224">
-    <cfRule type="cellIs" dxfId="37" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N224">
-    <cfRule type="cellIs" dxfId="36" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N234">
-    <cfRule type="cellIs" dxfId="35" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N235">
-    <cfRule type="cellIs" dxfId="34" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S234:S235">
-    <cfRule type="cellIs" dxfId="33" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="32" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S105:S119">
-    <cfRule type="cellIs" dxfId="31" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S120:S128">
-    <cfRule type="cellIs" dxfId="30" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S129:S143">
-    <cfRule type="cellIs" dxfId="29" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S165:S176">
-    <cfRule type="cellIs" dxfId="28" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C280:C292 C251:C268">
-    <cfRule type="duplicateValues" dxfId="27" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V178:V179 V166:V167 V172:V173 V169:V170 V181:V182 V184:V185 V175:V176 V1:V164 V187:V1048576">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V178:V179 V166:V167 V172:V173 V1:V164 V169:V170 V181:V182 V184:V185 V175:V176 V187:V1048576">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
+  <conditionalFormatting sqref="V165">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V165">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V165">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V171">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V171">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V174">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V174">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V168">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V168">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V177">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V177">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V180">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V180">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V183">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V183">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V186">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V186">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25891,4 +26129,3498 @@
     <brk id="31" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47933373-8A0E-4C8D-81CC-8EDC22DDE6A1}">
+  <dimension ref="A1:D298"/>
+  <sheetViews>
+    <sheetView topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="109.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>801</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>802</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>803</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B33" s="3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B40" s="3">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B49" s="3">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B52" s="3">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B53" s="3">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B54" s="3">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>806</v>
+      </c>
+      <c r="D65" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="65" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+      <c r="C68" s="67" t="s">
+        <v>807</v>
+      </c>
+      <c r="D68" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="67" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B71" s="3">
+        <v>3</v>
+      </c>
+      <c r="C71" s="67" t="s">
+        <v>808</v>
+      </c>
+      <c r="D71" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B72" s="3">
+        <v>3</v>
+      </c>
+      <c r="C72" s="67" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B73" s="3">
+        <v>3</v>
+      </c>
+      <c r="C73" s="67" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B74" s="3">
+        <v>4</v>
+      </c>
+      <c r="C74" s="67" t="s">
+        <v>809</v>
+      </c>
+      <c r="D74" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B75" s="3">
+        <v>4</v>
+      </c>
+      <c r="C75" s="67" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B76" s="3">
+        <v>4</v>
+      </c>
+      <c r="C76" s="67" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B77" s="3">
+        <v>5</v>
+      </c>
+      <c r="C77" s="67" t="s">
+        <v>810</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B78" s="3">
+        <v>5</v>
+      </c>
+      <c r="C78" s="67" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B79" s="3">
+        <v>5</v>
+      </c>
+      <c r="C79" s="67" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B85" s="3">
+        <v>3</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B86" s="3">
+        <v>4</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B87" s="3">
+        <v>5</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B96" s="3">
+        <v>3</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B101" s="3">
+        <v>3</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D101" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B104" s="3">
+        <v>3</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D105" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B109" s="3">
+        <v>2</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D111" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B115" s="3">
+        <v>2</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B117" s="3">
+        <v>3</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D117" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B118" s="3">
+        <v>3</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B119" s="3">
+        <v>3</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B123" s="3">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D123" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B125" s="3">
+        <v>2</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B126" s="3">
+        <v>3</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D126" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B127" s="3">
+        <v>3</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B128" s="3">
+        <v>3</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1</v>
+      </c>
+      <c r="C129" s="68" t="s">
+        <v>779</v>
+      </c>
+      <c r="D129" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1</v>
+      </c>
+      <c r="C130" s="68" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1</v>
+      </c>
+      <c r="C131" s="68" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B132" s="3">
+        <v>2</v>
+      </c>
+      <c r="C132" s="69" t="s">
+        <v>780</v>
+      </c>
+      <c r="D132" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B133" s="3">
+        <v>2</v>
+      </c>
+      <c r="C133" s="69" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2</v>
+      </c>
+      <c r="C134" s="69" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D135" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B138" s="3">
+        <v>2</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D138" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B139" s="3">
+        <v>2</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B140" s="3">
+        <v>2</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D141" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D144" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B145" s="3">
+        <v>2</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B146" s="3">
+        <v>2</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D147" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B150" s="3">
+        <v>2</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D150" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B151" s="3">
+        <v>2</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B152" s="3">
+        <v>2</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D153" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B155" s="3">
+        <v>1</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B156" s="3">
+        <v>2</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D156" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B157" s="3">
+        <v>2</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B158" s="3">
+        <v>2</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D159" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B160" s="3">
+        <v>1</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B161" s="3">
+        <v>1</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B162" s="3">
+        <v>2</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D162" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B163" s="3">
+        <v>2</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B164" s="3">
+        <v>2</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B165" s="3">
+        <v>1</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D165" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B166" s="3">
+        <v>1</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B167" s="3">
+        <v>1</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B168" s="3">
+        <v>2</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D168" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B169" s="3">
+        <v>2</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B170" s="3">
+        <v>2</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B171" s="3">
+        <v>1</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D171" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B172" s="3">
+        <v>1</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B173" s="3">
+        <v>1</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B174" s="3">
+        <v>2</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D174" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B175" s="3">
+        <v>2</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B176" s="3">
+        <v>2</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B177" s="3">
+        <v>1</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D177" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B178" s="3">
+        <v>1</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B179" s="3">
+        <v>1</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B180" s="3">
+        <v>2</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D180" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B181" s="3">
+        <v>2</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B182" s="3">
+        <v>2</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B183" s="3">
+        <v>3</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D183" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B184" s="3">
+        <v>3</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B185" s="3">
+        <v>3</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B186" s="3">
+        <v>4</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D186" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B187" s="3">
+        <v>4</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B188" s="3">
+        <v>4</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B189" s="3">
+        <v>1</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D189" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B192" s="3">
+        <v>2</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D192" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B193" s="3">
+        <v>2</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B194" s="3">
+        <v>2</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B195" s="3">
+        <v>3</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D195" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B196" s="3">
+        <v>3</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B197" s="3">
+        <v>3</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B198" s="3">
+        <v>4</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D198" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D199" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B200" s="3">
+        <v>1</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B201" s="3">
+        <v>1</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B202" s="3">
+        <v>2</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D202" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B203" s="3">
+        <v>2</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B204" s="3">
+        <v>2</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B205" s="3">
+        <v>3</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D205" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B206" s="3">
+        <v>3</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B207" s="3">
+        <v>3</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B209" s="3">
+        <v>2</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B210" s="3">
+        <v>3</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B211" s="3">
+        <v>4</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B213" s="3">
+        <v>2</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B214" s="3">
+        <v>3</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B215" s="3">
+        <v>4</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B216" s="3">
+        <v>1</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D216" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B217" s="3">
+        <v>2</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D217" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B218" s="3">
+        <v>3</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D218" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B219" s="3">
+        <v>4</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B220" s="3">
+        <v>1</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D220" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B221" s="3">
+        <v>2</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D221" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B222" s="3">
+        <v>1</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D222" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B223" s="3">
+        <v>2</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D223" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B224" s="3">
+        <v>3</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D224" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B225" s="3">
+        <v>1</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D225" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B226" s="3">
+        <v>2</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D226" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B227" s="3">
+        <v>3</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D227" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B228" s="3">
+        <v>4</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D228" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B229" s="3">
+        <v>5</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D229" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B230" s="3">
+        <v>6</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D230" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D231" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B232" s="3">
+        <v>1</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D232" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B233" s="3">
+        <v>2</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="D233" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B234" s="3">
+        <v>3</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B235" s="3">
+        <v>4</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B236" s="3">
+        <v>1</v>
+      </c>
+      <c r="C236" s="61" t="s">
+        <v>789</v>
+      </c>
+      <c r="D236" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B237" s="3">
+        <v>2</v>
+      </c>
+      <c r="C237" s="62" t="s">
+        <v>790</v>
+      </c>
+      <c r="D237" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B238" s="3">
+        <v>3</v>
+      </c>
+      <c r="C238" s="62" t="s">
+        <v>791</v>
+      </c>
+      <c r="D238" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B239" s="3">
+        <v>4</v>
+      </c>
+      <c r="C239" s="62" t="s">
+        <v>792</v>
+      </c>
+      <c r="D239" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B240" s="3">
+        <v>5</v>
+      </c>
+      <c r="C240" s="62" t="s">
+        <v>793</v>
+      </c>
+      <c r="D240" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B241" s="3">
+        <v>6</v>
+      </c>
+      <c r="C241" s="62" t="s">
+        <v>794</v>
+      </c>
+      <c r="D241" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B242" s="3">
+        <v>7</v>
+      </c>
+      <c r="C242" s="62" t="s">
+        <v>795</v>
+      </c>
+      <c r="D242" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B243" s="3">
+        <v>8</v>
+      </c>
+      <c r="C243" s="62" t="s">
+        <v>796</v>
+      </c>
+      <c r="D243" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B244" s="3">
+        <v>9</v>
+      </c>
+      <c r="C244" s="62" t="s">
+        <v>797</v>
+      </c>
+      <c r="D244" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B245" s="3">
+        <v>10</v>
+      </c>
+      <c r="C245" s="62" t="s">
+        <v>798</v>
+      </c>
+      <c r="D245" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B246" s="3">
+        <v>11</v>
+      </c>
+      <c r="C246" s="62" t="s">
+        <v>632</v>
+      </c>
+      <c r="D246" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B247" s="3">
+        <v>12</v>
+      </c>
+      <c r="C247" s="63" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B248" s="3">
+        <v>1</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B249" s="3">
+        <v>2</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B250" s="3">
+        <v>3</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B251" s="3">
+        <v>1</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B252" s="3">
+        <v>1</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B253" s="3">
+        <v>1</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B254" s="3">
+        <v>2</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B255" s="3">
+        <v>2</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B256" s="3">
+        <v>2</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B257" s="3">
+        <v>3</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B258" s="3">
+        <v>3</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B259" s="3">
+        <v>3</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B261" s="3">
+        <v>1</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B262" s="3">
+        <v>1</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B263" s="3">
+        <v>1</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B264" s="3">
+        <v>2</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B265" s="3">
+        <v>2</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B266" s="3">
+        <v>2</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B267" s="3">
+        <v>3</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B268" s="3">
+        <v>4</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D269" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B270" s="3">
+        <v>1</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="D270" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B271" s="3">
+        <v>2</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="D271" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B272" s="3">
+        <v>3</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D272" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B273" s="3">
+        <v>1</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B274" s="3">
+        <v>1</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B275" s="3">
+        <v>1</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B276" s="3">
+        <v>2</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B277" s="3">
+        <v>2</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B278" s="3">
+        <v>2</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B280" s="3">
+        <v>1</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B281" s="3">
+        <v>1</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B282" s="3">
+        <v>1</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B283" s="3">
+        <v>2</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B284" s="3">
+        <v>2</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B285" s="3">
+        <v>2</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B286" s="3">
+        <v>3</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B287" s="3">
+        <v>3</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B288" s="3">
+        <v>3</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B289" s="3">
+        <v>4</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B290" s="3">
+        <v>4</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B291" s="3">
+        <v>4</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B293" s="3">
+        <v>1</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B294" s="3">
+        <v>2</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B297" s="3">
+        <v>1</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B298" s="3">
+        <v>1</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A236:B246 A177:C235 A135:C174 A1:C22 A23:B34 A35:C64 A129:B134 A248:C1048576 A65:B73 A74:C128">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A247:B247">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175:C176">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>